--- a/paper_dataframe_markdown_backup.xlsx
+++ b/paper_dataframe_markdown_backup.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Downloads\awesome-ai-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3ED27D-A19C-47B5-A7FF-8B5F66EBB3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7DAA40-BF2D-4C4A-BABA-E0832B98DD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="5100" windowWidth="21765" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="715">
   <si>
     <t>Theme</t>
   </si>
@@ -1420,21 +1420,6 @@
     <t>83</t>
   </si>
   <si>
-    <t>HAQ: Hardware-Aware Automated Quantization with Mixed Precision</t>
-  </si>
-  <si>
-    <t>CVPR  2019</t>
-  </si>
-  <si>
-    <t>2018-11-21</t>
-  </si>
-  <si>
-    <t>Kuan Wang et al</t>
-  </si>
-  <si>
-    <t>[Link](http://arxiv.org/abs/1811.08886v3)</t>
-  </si>
-  <si>
     <t>84</t>
   </si>
   <si>
@@ -2168,6 +2153,18 @@
   </si>
   <si>
     <t>120</t>
+  </si>
+  <si>
+    <t>FNet: Mixing Tokens with Fourier Transforms</t>
+  </si>
+  <si>
+    <t>NAACL  2022</t>
+  </si>
+  <si>
+    <t>James Lee-Thorp et al</t>
+  </si>
+  <si>
+    <t>[Link](https://arxiv.org/abs/2105.03824)</t>
   </si>
 </sst>
 </file>
@@ -2209,8 +2206,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2552,17 +2550,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:B128"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2585,7 +2584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2723,7 +2722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -2792,7 +2791,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2838,7 +2837,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -2861,7 +2860,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2930,7 +2929,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2976,7 +2975,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -3022,7 +3021,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -3045,7 +3044,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -3091,7 +3090,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -3137,7 +3136,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -3183,7 +3182,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -3206,7 +3205,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -3252,7 +3251,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -3321,7 +3320,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -3344,7 +3343,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -3390,7 +3389,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -3482,7 +3481,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -3597,7 +3596,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -3643,7 +3642,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -3689,7 +3688,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -3712,30 +3711,27 @@
         <v>283</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>284</v>
       </c>
       <c r="C51" t="s">
-        <v>285</v>
+        <v>711</v>
       </c>
       <c r="D51" t="s">
-        <v>286</v>
-      </c>
-      <c r="E51" t="s">
-        <v>287</v>
+        <v>712</v>
+      </c>
+      <c r="E51" s="1">
+        <v>44562</v>
       </c>
       <c r="F51" t="s">
-        <v>288</v>
+        <v>713</v>
       </c>
       <c r="G51" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -3743,22 +3739,22 @@
         <v>290</v>
       </c>
       <c r="C52" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D52" t="s">
         <v>286</v>
       </c>
       <c r="E52" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F52" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G52" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -3766,22 +3762,22 @@
         <v>295</v>
       </c>
       <c r="C53" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D53" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E53" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F53" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G53" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -3789,22 +3785,22 @@
         <v>301</v>
       </c>
       <c r="C54" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D54" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E54" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F54" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="G54" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -3812,22 +3808,22 @@
         <v>306</v>
       </c>
       <c r="C55" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D55" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F55" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="G55" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -3835,22 +3831,22 @@
         <v>312</v>
       </c>
       <c r="C56" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="E56" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F56" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G56" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -3858,22 +3854,22 @@
         <v>317</v>
       </c>
       <c r="C57" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D57" t="s">
-        <v>319</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F57" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G57" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -3881,22 +3877,22 @@
         <v>323</v>
       </c>
       <c r="C58" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D58" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E58" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F58" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="G58" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -3904,68 +3900,68 @@
         <v>327</v>
       </c>
       <c r="C59" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="E59" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F59" t="s">
         <v>293</v>
       </c>
       <c r="G59" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>331</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
         <v>332</v>
       </c>
       <c r="C60" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D60" t="s">
-        <v>334</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F60" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="G60" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s">
         <v>338</v>
       </c>
       <c r="C61" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D61" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E61" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F61" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G61" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -3973,137 +3969,137 @@
         <v>344</v>
       </c>
       <c r="C62" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>340</v>
       </c>
       <c r="E62" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F62" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G62" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>349</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
         <v>350</v>
       </c>
       <c r="C63" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F63" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G63" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B64" t="s">
         <v>356</v>
       </c>
       <c r="C64" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D64" t="s">
-        <v>358</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F64" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G64" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B65" t="s">
         <v>363</v>
       </c>
       <c r="C65" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>358</v>
       </c>
       <c r="E65" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F65" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G65" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B66" t="s">
         <v>369</v>
       </c>
       <c r="C66" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D66" t="s">
-        <v>371</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F66" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G66" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>368</v>
       </c>
       <c r="B67" t="s">
         <v>375</v>
       </c>
       <c r="C67" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D67" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E67" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F67" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G67" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -4111,22 +4107,22 @@
         <v>381</v>
       </c>
       <c r="C68" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E68" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F68" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G68" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -4134,22 +4130,22 @@
         <v>386</v>
       </c>
       <c r="C69" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D69" t="s">
-        <v>388</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F69" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G69" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -4157,68 +4153,68 @@
         <v>392</v>
       </c>
       <c r="C70" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>388</v>
       </c>
       <c r="E70" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F70" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G70" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>397</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
         <v>398</v>
       </c>
       <c r="C71" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D71" t="s">
-        <v>400</v>
+        <v>143</v>
       </c>
       <c r="E71" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F71" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G71" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>397</v>
       </c>
       <c r="B72" t="s">
         <v>404</v>
       </c>
       <c r="C72" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D72" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E72" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F72" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G72" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -4226,22 +4222,22 @@
         <v>410</v>
       </c>
       <c r="C73" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
       <c r="E73" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F73" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G73" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -4249,22 +4245,22 @@
         <v>415</v>
       </c>
       <c r="C74" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D74" t="s">
-        <v>417</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F74" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G74" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -4272,22 +4268,22 @@
         <v>421</v>
       </c>
       <c r="C75" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D75" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E75" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F75" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G75" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -4295,22 +4291,22 @@
         <v>427</v>
       </c>
       <c r="C76" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>423</v>
       </c>
       <c r="E76" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F76" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G76" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -4318,68 +4314,68 @@
         <v>428</v>
       </c>
       <c r="C77" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F77" t="s">
         <v>431</v>
       </c>
       <c r="G77" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>437</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
         <v>433</v>
       </c>
       <c r="C78" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D78" t="s">
-        <v>440</v>
+        <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F78" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G78" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>437</v>
       </c>
       <c r="B79" t="s">
         <v>438</v>
       </c>
       <c r="C79" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="E79" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F79" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G79" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -4387,22 +4383,22 @@
         <v>444</v>
       </c>
       <c r="C80" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D80" t="s">
-        <v>451</v>
+        <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F80" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G80" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -4410,22 +4406,22 @@
         <v>449</v>
       </c>
       <c r="C81" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>451</v>
       </c>
       <c r="E81" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F81" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G81" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -4433,22 +4429,22 @@
         <v>455</v>
       </c>
       <c r="C82" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F82" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G82" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -4456,22 +4452,22 @@
         <v>460</v>
       </c>
       <c r="C83" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D83" t="s">
-        <v>467</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="F83" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G83" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -4479,1038 +4475,1038 @@
         <v>465</v>
       </c>
       <c r="C84" t="s">
+        <v>467</v>
+      </c>
+      <c r="D84" t="s">
+        <v>468</v>
+      </c>
+      <c r="E84" t="s">
+        <v>469</v>
+      </c>
+      <c r="F84" t="s">
+        <v>470</v>
+      </c>
+      <c r="G84" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>466</v>
+      </c>
+      <c r="C85" t="s">
+        <v>473</v>
+      </c>
+      <c r="D85" t="s">
+        <v>474</v>
+      </c>
+      <c r="E85" t="s">
+        <v>475</v>
+      </c>
+      <c r="F85" t="s">
+        <v>476</v>
+      </c>
+      <c r="G85" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
         <v>472</v>
       </c>
-      <c r="D84" t="s">
-        <v>473</v>
-      </c>
-      <c r="E84" t="s">
-        <v>474</v>
-      </c>
-      <c r="F84" t="s">
-        <v>475</v>
-      </c>
-      <c r="G84" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" t="s">
-        <v>471</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
+        <v>479</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
+        <v>480</v>
+      </c>
+      <c r="F86" t="s">
+        <v>481</v>
+      </c>
+      <c r="G86" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
         <v>478</v>
       </c>
-      <c r="D85" t="s">
-        <v>479</v>
-      </c>
-      <c r="E85" t="s">
-        <v>480</v>
-      </c>
-      <c r="F85" t="s">
-        <v>481</v>
-      </c>
-      <c r="G85" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" t="s">
-        <v>477</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>484</v>
       </c>
-      <c r="D86" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
         <v>485</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F87" t="s">
         <v>486</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G87" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
         <v>483</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>489</v>
       </c>
-      <c r="D87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s">
         <v>490</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F88" t="s">
         <v>491</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G88" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
         <v>488</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>494</v>
       </c>
-      <c r="D88" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
         <v>495</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F89" t="s">
         <v>496</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G89" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
         <v>493</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>499</v>
       </c>
-      <c r="D89" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="D90" t="s">
         <v>500</v>
       </c>
-      <c r="F89" t="s">
+      <c r="E90" t="s">
         <v>501</v>
       </c>
-      <c r="G89" t="s">
+      <c r="F90" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="G90" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
         <v>498</v>
       </c>
-      <c r="C90" t="s">
-        <v>504</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C91" t="s">
         <v>505</v>
       </c>
-      <c r="E90" t="s">
+      <c r="D91" t="s">
         <v>506</v>
-      </c>
-      <c r="F90" t="s">
-        <v>507</v>
-      </c>
-      <c r="G90" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" t="s">
-        <v>503</v>
-      </c>
-      <c r="C91" t="s">
-        <v>510</v>
-      </c>
-      <c r="D91" t="s">
-        <v>511</v>
       </c>
       <c r="E91" t="s">
         <v>435</v>
       </c>
       <c r="F91" t="s">
+        <v>507</v>
+      </c>
+      <c r="G91" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>504</v>
+      </c>
+      <c r="C92" t="s">
+        <v>510</v>
+      </c>
+      <c r="D92" t="s">
+        <v>511</v>
+      </c>
+      <c r="E92" t="s">
         <v>512</v>
       </c>
-      <c r="G91" t="s">
+      <c r="F92" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="G92" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
         <v>509</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
+        <v>516</v>
+      </c>
+      <c r="D93" t="s">
+        <v>517</v>
+      </c>
+      <c r="E93" t="s">
+        <v>518</v>
+      </c>
+      <c r="F93" t="s">
+        <v>519</v>
+      </c>
+      <c r="G93" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
         <v>515</v>
       </c>
-      <c r="D92" t="s">
-        <v>516</v>
-      </c>
-      <c r="E92" t="s">
-        <v>517</v>
-      </c>
-      <c r="F92" t="s">
-        <v>518</v>
-      </c>
-      <c r="G92" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" t="s">
-        <v>514</v>
-      </c>
-      <c r="C93" t="s">
-        <v>521</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="C94" t="s">
         <v>522</v>
-      </c>
-      <c r="E93" t="s">
-        <v>523</v>
-      </c>
-      <c r="F93" t="s">
-        <v>524</v>
-      </c>
-      <c r="G93" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" t="s">
-        <v>520</v>
-      </c>
-      <c r="C94" t="s">
-        <v>527</v>
       </c>
       <c r="D94" t="s">
         <v>143</v>
       </c>
       <c r="E94" t="s">
+        <v>523</v>
+      </c>
+      <c r="F94" t="s">
+        <v>524</v>
+      </c>
+      <c r="G94" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>521</v>
+      </c>
+      <c r="C95" t="s">
+        <v>527</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
         <v>528</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
+        <v>496</v>
+      </c>
+      <c r="G95" t="s">
         <v>529</v>
       </c>
-      <c r="G94" t="s">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>526</v>
+      </c>
+      <c r="C96" t="s">
+        <v>532</v>
+      </c>
+      <c r="D96" t="s">
+        <v>533</v>
+      </c>
+      <c r="E96" t="s">
+        <v>534</v>
+      </c>
+      <c r="F96" t="s">
+        <v>491</v>
+      </c>
+      <c r="G96" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>546</v>
+      </c>
+      <c r="B97" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" t="s">
-        <v>526</v>
-      </c>
-      <c r="C95" t="s">
-        <v>532</v>
-      </c>
-      <c r="D95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" t="s">
-        <v>533</v>
-      </c>
-      <c r="F95" t="s">
-        <v>501</v>
-      </c>
-      <c r="G95" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="C97" t="s">
+        <v>548</v>
+      </c>
+      <c r="D97" t="s">
+        <v>549</v>
+      </c>
+      <c r="E97" t="s">
+        <v>550</v>
+      </c>
+      <c r="F97" t="s">
+        <v>551</v>
+      </c>
+      <c r="G97" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
         <v>531</v>
       </c>
-      <c r="C96" t="s">
-        <v>537</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="C98" t="s">
+        <v>554</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>555</v>
+      </c>
+      <c r="F98" t="s">
+        <v>556</v>
+      </c>
+      <c r="G98" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>536</v>
+      </c>
+      <c r="C99" t="s">
+        <v>559</v>
+      </c>
+      <c r="D99" t="s">
+        <v>560</v>
+      </c>
+      <c r="E99" t="s">
+        <v>561</v>
+      </c>
+      <c r="F99" t="s">
+        <v>562</v>
+      </c>
+      <c r="G99" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
         <v>538</v>
       </c>
-      <c r="E96" t="s">
+      <c r="C100" t="s">
+        <v>565</v>
+      </c>
+      <c r="D100" t="s">
+        <v>566</v>
+      </c>
+      <c r="E100" t="s">
+        <v>567</v>
+      </c>
+      <c r="F100" t="s">
+        <v>568</v>
+      </c>
+      <c r="G100" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
         <v>539</v>
       </c>
-      <c r="F96" t="s">
-        <v>496</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="C101" t="s">
+        <v>571</v>
+      </c>
+      <c r="D101" t="s">
+        <v>572</v>
+      </c>
+      <c r="E101" t="s">
+        <v>573</v>
+      </c>
+      <c r="F101" t="s">
+        <v>574</v>
+      </c>
+      <c r="G101" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>551</v>
-      </c>
-      <c r="B97" t="s">
-        <v>535</v>
-      </c>
-      <c r="C97" t="s">
-        <v>553</v>
-      </c>
-      <c r="D97" t="s">
-        <v>554</v>
-      </c>
-      <c r="E97" t="s">
-        <v>555</v>
-      </c>
-      <c r="F97" t="s">
-        <v>556</v>
-      </c>
-      <c r="G97" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" t="s">
-        <v>536</v>
-      </c>
-      <c r="C98" t="s">
-        <v>559</v>
-      </c>
-      <c r="D98" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" t="s">
-        <v>560</v>
-      </c>
-      <c r="F98" t="s">
-        <v>561</v>
-      </c>
-      <c r="G98" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="C102" t="s">
+        <v>577</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>578</v>
+      </c>
+      <c r="F102" t="s">
+        <v>579</v>
+      </c>
+      <c r="G102" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s">
         <v>541</v>
       </c>
-      <c r="C99" t="s">
-        <v>564</v>
-      </c>
-      <c r="D99" t="s">
-        <v>565</v>
-      </c>
-      <c r="E99" t="s">
-        <v>566</v>
-      </c>
-      <c r="F99" t="s">
-        <v>567</v>
-      </c>
-      <c r="G99" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>14</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C103" t="s">
+        <v>582</v>
+      </c>
+      <c r="D103" t="s">
+        <v>583</v>
+      </c>
+      <c r="E103" t="s">
+        <v>584</v>
+      </c>
+      <c r="F103" t="s">
+        <v>585</v>
+      </c>
+      <c r="G103" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>542</v>
+      </c>
+      <c r="C104" t="s">
+        <v>588</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>589</v>
+      </c>
+      <c r="F104" t="s">
+        <v>590</v>
+      </c>
+      <c r="G104" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
         <v>543</v>
       </c>
-      <c r="C100" t="s">
-        <v>570</v>
-      </c>
-      <c r="D100" t="s">
-        <v>571</v>
-      </c>
-      <c r="E100" t="s">
-        <v>572</v>
-      </c>
-      <c r="F100" t="s">
-        <v>573</v>
-      </c>
-      <c r="G100" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="C105" t="s">
+        <v>593</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>594</v>
+      </c>
+      <c r="F105" t="s">
+        <v>595</v>
+      </c>
+      <c r="G105" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
         <v>544</v>
       </c>
-      <c r="C101" t="s">
-        <v>576</v>
-      </c>
-      <c r="D101" t="s">
-        <v>577</v>
-      </c>
-      <c r="E101" t="s">
-        <v>578</v>
-      </c>
-      <c r="F101" t="s">
-        <v>579</v>
-      </c>
-      <c r="G101" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" t="s">
-        <v>545</v>
-      </c>
-      <c r="C102" t="s">
-        <v>582</v>
-      </c>
-      <c r="D102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" t="s">
-        <v>583</v>
-      </c>
-      <c r="F102" t="s">
-        <v>584</v>
-      </c>
-      <c r="G102" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103" t="s">
-        <v>546</v>
-      </c>
-      <c r="C103" t="s">
-        <v>587</v>
-      </c>
-      <c r="D103" t="s">
-        <v>588</v>
-      </c>
-      <c r="E103" t="s">
-        <v>589</v>
-      </c>
-      <c r="F103" t="s">
-        <v>590</v>
-      </c>
-      <c r="G103" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>14</v>
-      </c>
-      <c r="B104" t="s">
-        <v>547</v>
-      </c>
-      <c r="C104" t="s">
-        <v>593</v>
-      </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" t="s">
-        <v>594</v>
-      </c>
-      <c r="F104" t="s">
-        <v>595</v>
-      </c>
-      <c r="G104" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105" t="s">
-        <v>548</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>598</v>
       </c>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="D106" t="s">
         <v>599</v>
-      </c>
-      <c r="F105" t="s">
-        <v>600</v>
-      </c>
-      <c r="G105" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" t="s">
-        <v>549</v>
-      </c>
-      <c r="C106" t="s">
-        <v>603</v>
-      </c>
-      <c r="D106" t="s">
-        <v>604</v>
       </c>
       <c r="E106" t="s">
         <v>281</v>
       </c>
       <c r="F106" t="s">
+        <v>600</v>
+      </c>
+      <c r="G106" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>545</v>
+      </c>
+      <c r="C107" t="s">
+        <v>603</v>
+      </c>
+      <c r="D107" t="s">
+        <v>537</v>
+      </c>
+      <c r="E107" t="s">
+        <v>604</v>
+      </c>
+      <c r="F107" t="s">
         <v>605</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G107" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" t="s">
-        <v>550</v>
-      </c>
-      <c r="C107" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>547</v>
+      </c>
+      <c r="C108" t="s">
         <v>608</v>
       </c>
-      <c r="D107" t="s">
-        <v>542</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="D108" t="s">
+        <v>537</v>
+      </c>
+      <c r="E108" t="s">
         <v>609</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F108" t="s">
         <v>610</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G108" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" t="s">
-        <v>552</v>
-      </c>
-      <c r="C108" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>553</v>
+      </c>
+      <c r="C109" t="s">
         <v>613</v>
       </c>
-      <c r="D108" t="s">
-        <v>542</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="D109" t="s">
         <v>614</v>
       </c>
-      <c r="F108" t="s">
+      <c r="E109" t="s">
         <v>615</v>
       </c>
-      <c r="G108" t="s">
+      <c r="F109" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="G109" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>618</v>
+      </c>
+      <c r="B110" t="s">
         <v>558</v>
       </c>
-      <c r="C109" t="s">
-        <v>618</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="C110" t="s">
         <v>619</v>
       </c>
-      <c r="E109" t="s">
+      <c r="D110" t="s">
         <v>620</v>
       </c>
-      <c r="F109" t="s">
+      <c r="E110" t="s">
         <v>621</v>
       </c>
-      <c r="G109" t="s">
+      <c r="F110" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="G110" t="s">
         <v>623</v>
       </c>
-      <c r="B110" t="s">
-        <v>563</v>
-      </c>
-      <c r="C110" t="s">
-        <v>624</v>
-      </c>
-      <c r="D110" t="s">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>564</v>
+      </c>
+      <c r="C111" t="s">
         <v>625</v>
       </c>
-      <c r="E110" t="s">
+      <c r="D111" t="s">
+        <v>474</v>
+      </c>
+      <c r="E111" t="s">
         <v>626</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F111" t="s">
         <v>627</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G111" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>14</v>
-      </c>
-      <c r="B111" t="s">
-        <v>569</v>
-      </c>
-      <c r="C111" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>570</v>
+      </c>
+      <c r="C112" t="s">
         <v>630</v>
-      </c>
-      <c r="D111" t="s">
-        <v>479</v>
-      </c>
-      <c r="E111" t="s">
-        <v>631</v>
-      </c>
-      <c r="F111" t="s">
-        <v>632</v>
-      </c>
-      <c r="G111" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" t="s">
-        <v>575</v>
-      </c>
-      <c r="C112" t="s">
-        <v>635</v>
       </c>
       <c r="D112" t="s">
         <v>246</v>
       </c>
       <c r="E112" t="s">
+        <v>631</v>
+      </c>
+      <c r="F112" t="s">
+        <v>632</v>
+      </c>
+      <c r="G112" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>576</v>
+      </c>
+      <c r="C113" t="s">
+        <v>635</v>
+      </c>
+      <c r="D113" t="s">
         <v>636</v>
       </c>
-      <c r="F112" t="s">
+      <c r="E113" t="s">
         <v>637</v>
       </c>
-      <c r="G112" t="s">
+      <c r="F113" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="G113" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
         <v>581</v>
       </c>
-      <c r="C113" t="s">
-        <v>640</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="C114" t="s">
         <v>641</v>
-      </c>
-      <c r="E113" t="s">
-        <v>642</v>
-      </c>
-      <c r="F113" t="s">
-        <v>643</v>
-      </c>
-      <c r="G113" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" t="s">
-        <v>586</v>
-      </c>
-      <c r="C114" t="s">
-        <v>646</v>
       </c>
       <c r="D114" t="s">
         <v>252</v>
       </c>
       <c r="E114" t="s">
+        <v>642</v>
+      </c>
+      <c r="F114" t="s">
+        <v>643</v>
+      </c>
+      <c r="G114" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>587</v>
+      </c>
+      <c r="C115" t="s">
+        <v>646</v>
+      </c>
+      <c r="D115" t="s">
+        <v>500</v>
+      </c>
+      <c r="E115" t="s">
         <v>647</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F115" t="s">
         <v>648</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G115" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>14</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
         <v>592</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>651</v>
       </c>
-      <c r="D115" t="s">
-        <v>505</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="D116" t="s">
         <v>652</v>
       </c>
-      <c r="F115" t="s">
+      <c r="E116" t="s">
         <v>653</v>
       </c>
-      <c r="G115" t="s">
+      <c r="F116" t="s">
+        <v>627</v>
+      </c>
+      <c r="G116" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
         <v>597</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>656</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D117" t="s">
         <v>657</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E117" t="s">
         <v>658</v>
       </c>
-      <c r="F116" t="s">
-        <v>632</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="F117" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="G117" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
         <v>602</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>661</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
         <v>662</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F118" t="s">
         <v>663</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G118" t="s">
         <v>664</v>
       </c>
-      <c r="G117" t="s">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>607</v>
+      </c>
+      <c r="C119" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" t="s">
-        <v>607</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="D119" t="s">
         <v>666</v>
       </c>
-      <c r="D118" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="E119" t="s">
         <v>667</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F119" t="s">
         <v>668</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G119" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
         <v>612</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>670</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D120" t="s">
         <v>671</v>
-      </c>
-      <c r="E119" t="s">
-        <v>672</v>
-      </c>
-      <c r="F119" t="s">
-        <v>673</v>
-      </c>
-      <c r="G119" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>14</v>
-      </c>
-      <c r="B120" t="s">
-        <v>617</v>
-      </c>
-      <c r="C120" t="s">
-        <v>675</v>
-      </c>
-      <c r="D120" t="s">
-        <v>676</v>
       </c>
       <c r="E120" t="s">
         <v>281</v>
       </c>
       <c r="F120" t="s">
+        <v>672</v>
+      </c>
+      <c r="G120" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>674</v>
+      </c>
+      <c r="B121" t="s">
+        <v>710</v>
+      </c>
+      <c r="C121" t="s">
+        <v>675</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
+        <v>676</v>
+      </c>
+      <c r="F121" t="s">
         <v>677</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G121" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>624</v>
+      </c>
+      <c r="C122" t="s">
         <v>679</v>
       </c>
-      <c r="B121" t="s">
-        <v>715</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
         <v>680</v>
       </c>
-      <c r="D121" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="F122" t="s">
         <v>681</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G122" t="s">
         <v>682</v>
       </c>
-      <c r="G121" t="s">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>629</v>
+      </c>
+      <c r="C123" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>14</v>
-      </c>
-      <c r="B122" t="s">
-        <v>629</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
         <v>684</v>
       </c>
-      <c r="D122" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="F123" t="s">
         <v>685</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G123" t="s">
         <v>686</v>
       </c>
-      <c r="G122" t="s">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>634</v>
+      </c>
+      <c r="C124" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" t="s">
-        <v>634</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="D124" t="s">
         <v>688</v>
       </c>
-      <c r="D123" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="E124" t="s">
         <v>689</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F124" t="s">
         <v>690</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G124" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" t="s">
-        <v>639</v>
-      </c>
-      <c r="C124" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>640</v>
+      </c>
+      <c r="C125" t="s">
         <v>692</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s">
         <v>693</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F125" t="s">
         <v>694</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G125" t="s">
         <v>695</v>
       </c>
-      <c r="G124" t="s">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>645</v>
+      </c>
+      <c r="C126" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" t="s">
-        <v>645</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="D126" t="s">
         <v>697</v>
       </c>
-      <c r="D125" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="E126" t="s">
         <v>698</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F126" t="s">
         <v>699</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G126" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
         <v>650</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>701</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>702</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E127" t="s">
         <v>703</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F127" t="s">
         <v>704</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G127" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>14</v>
-      </c>
-      <c r="B127" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
         <v>655</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>706</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D128" t="s">
         <v>707</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E128" t="s">
         <v>708</v>
-      </c>
-      <c r="F127" t="s">
-        <v>709</v>
-      </c>
-      <c r="G127" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>14</v>
-      </c>
-      <c r="B128" t="s">
-        <v>660</v>
-      </c>
-      <c r="C128" t="s">
-        <v>711</v>
-      </c>
-      <c r="D128" t="s">
-        <v>712</v>
-      </c>
-      <c r="E128" t="s">
-        <v>713</v>
       </c>
       <c r="F128" t="s">
         <v>315</v>
       </c>
       <c r="G128" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G63 A76:A95 A96 A97:A128 A64:A75 C64:G75 C76:G95 C96:G96 C97:G128" numberStoredAsText="1"/>
+    <ignoredError sqref="A52:A64 A65:A83 C65:G83 A1:G5 C52:G64 A14:G15 A6:A13 C6:G13 A16:A50 C16:G50 A84:A128 C84:G128" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/paper_dataframe_markdown_backup.xlsx
+++ b/paper_dataframe_markdown_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Desktop\awesome-ai-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3415875-04CB-4582-8595-6714C6CAB631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511919D9-0283-4651-BB0D-2175FA954C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="2805" windowWidth="19200" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="833">
   <si>
     <t>Theme</t>
   </si>
@@ -2510,6 +2510,15 @@
   </si>
   <si>
     <t>[Link](http://arxiv.org/abs/1908.08345v2)</t>
+  </si>
+  <si>
+    <t>Peter Shaw et al</t>
+  </si>
+  <si>
+    <t>Self-Attention with Relative Position Representations</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1803.02155)</t>
   </si>
 </sst>
 </file>
@@ -2898,19 +2907,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:B203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.25" customWidth="1"/>
     <col min="5" max="5" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +2942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2956,7 +2965,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -2976,7 +2985,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -2996,7 +3005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -3016,7 +3025,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3039,7 +3048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -3059,7 +3068,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -3079,7 +3088,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3102,7 +3111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -3122,7 +3131,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3145,7 +3154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3168,7 +3177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -3188,7 +3197,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3211,7 +3220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3234,7 +3243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3257,7 +3266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -3277,7 +3286,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>17</v>
       </c>
@@ -3297,7 +3306,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -3320,7 +3329,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>19</v>
       </c>
@@ -3340,7 +3349,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3363,7 +3372,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>21</v>
       </c>
@@ -3383,7 +3392,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>22</v>
       </c>
@@ -3403,7 +3412,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>23</v>
       </c>
@@ -3423,7 +3432,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>24</v>
       </c>
@@ -3440,7 +3449,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3463,7 +3472,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -3486,7 +3495,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3509,7 +3518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3532,7 +3541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3555,7 +3564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3578,7 +3587,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3601,7 +3610,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3624,7 +3633,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3647,7 +3656,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -3670,7 +3679,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -3693,7 +3702,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -3716,7 +3725,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3739,7 +3748,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3762,7 +3771,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -3785,7 +3794,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -3808,7 +3817,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -3831,7 +3840,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3854,7 +3863,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3877,7 +3886,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3900,7 +3909,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>45</v>
       </c>
@@ -3917,7 +3926,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>46</v>
       </c>
@@ -3937,7 +3946,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -3960,7 +3969,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3983,7 +3992,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>49</v>
       </c>
@@ -4003,7 +4012,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>50</v>
       </c>
@@ -4023,7 +4032,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>51</v>
       </c>
@@ -4043,7 +4052,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>52</v>
       </c>
@@ -4060,7 +4069,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -4083,7 +4092,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4106,7 +4115,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -4129,7 +4138,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4152,50 +4161,47 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>692</v>
+        <v>831</v>
       </c>
       <c r="D58" t="s">
-        <v>693</v>
+        <v>461</v>
       </c>
       <c r="E58" s="2">
-        <v>43122</v>
+        <v>43101</v>
       </c>
       <c r="F58" t="s">
-        <v>694</v>
+        <v>830</v>
       </c>
       <c r="G58" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>692</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" t="s">
-        <v>177</v>
+        <v>693</v>
+      </c>
+      <c r="E59" s="2">
+        <v>43122</v>
       </c>
       <c r="F59" t="s">
-        <v>178</v>
+        <v>694</v>
       </c>
       <c r="G59" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -4203,62 +4209,62 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F60" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G60" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
       <c r="B61" s="1">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>602</v>
-      </c>
-      <c r="E61" s="2">
-        <v>43233</v>
+        <v>180</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>181</v>
       </c>
       <c r="F61" t="s">
-        <v>603</v>
+        <v>182</v>
       </c>
       <c r="G61" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" t="s">
-        <v>185</v>
-      </c>
-      <c r="E62" t="s">
-        <v>186</v>
+        <v>602</v>
+      </c>
+      <c r="E62" s="2">
+        <v>43233</v>
       </c>
       <c r="F62" t="s">
-        <v>187</v>
+        <v>603</v>
       </c>
       <c r="G62" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -4266,102 +4272,102 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E63" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G63" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
       <c r="B64" s="1">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>605</v>
+        <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>75</v>
-      </c>
-      <c r="E64" s="2">
-        <v>43466</v>
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>190</v>
       </c>
       <c r="F64" t="s">
-        <v>606</v>
+        <v>191</v>
       </c>
       <c r="G64" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>742</v>
+        <v>605</v>
       </c>
       <c r="D65" t="s">
-        <v>616</v>
+        <v>75</v>
       </c>
       <c r="E65" s="2">
-        <v>43496</v>
+        <v>43466</v>
       </c>
       <c r="F65" t="s">
-        <v>226</v>
+        <v>606</v>
       </c>
       <c r="G65" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>744</v>
+        <v>742</v>
+      </c>
+      <c r="D66" t="s">
+        <v>616</v>
       </c>
       <c r="E66" s="2">
-        <v>43576</v>
+        <v>43496</v>
       </c>
       <c r="F66" t="s">
-        <v>745</v>
+        <v>226</v>
       </c>
       <c r="G66" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>13</v>
-      </c>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
-      </c>
-      <c r="D67" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" t="s">
-        <v>194</v>
+        <v>744</v>
+      </c>
+      <c r="E67" s="2">
+        <v>43576</v>
       </c>
       <c r="F67" t="s">
-        <v>195</v>
+        <v>745</v>
       </c>
       <c r="G67" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -4369,102 +4375,102 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F68" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G68" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
       <c r="B69" s="1">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>612</v>
+        <v>197</v>
       </c>
       <c r="D69" t="s">
-        <v>613</v>
-      </c>
-      <c r="E69" s="2">
-        <v>43697</v>
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>198</v>
       </c>
       <c r="F69" t="s">
-        <v>614</v>
+        <v>199</v>
       </c>
       <c r="G69" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>827</v>
+        <v>612</v>
+      </c>
+      <c r="D70" t="s">
+        <v>613</v>
       </c>
       <c r="E70" s="2">
-        <v>43699</v>
+        <v>43697</v>
       </c>
       <c r="F70" t="s">
-        <v>828</v>
+        <v>614</v>
       </c>
       <c r="G70" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" t="s">
-        <v>616</v>
+        <v>827</v>
       </c>
       <c r="E71" s="2">
-        <v>43704</v>
+        <v>43699</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
+        <v>828</v>
       </c>
       <c r="G71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>13</v>
-      </c>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>202</v>
-      </c>
-      <c r="E72" t="s">
-        <v>203</v>
+        <v>616</v>
+      </c>
+      <c r="E72" s="2">
+        <v>43704</v>
       </c>
       <c r="F72" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="G72" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -4472,22 +4478,22 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D73" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E73" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F73" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G73" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -4495,165 +4501,165 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="E74" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F74" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G74" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
       <c r="B75" s="1">
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>617</v>
-      </c>
-      <c r="E75" s="2">
-        <v>43775</v>
+        <v>211</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>212</v>
       </c>
       <c r="F75" t="s">
-        <v>618</v>
+        <v>213</v>
       </c>
       <c r="G75" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>13</v>
-      </c>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>215</v>
-      </c>
-      <c r="D76" t="s">
-        <v>216</v>
-      </c>
-      <c r="E76" t="s">
-        <v>217</v>
+        <v>617</v>
+      </c>
+      <c r="E76" s="2">
+        <v>43775</v>
       </c>
       <c r="F76" t="s">
-        <v>218</v>
+        <v>618</v>
       </c>
       <c r="G76" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
       <c r="B77" s="1">
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>782</v>
+        <v>215</v>
       </c>
       <c r="D77" t="s">
-        <v>783</v>
-      </c>
-      <c r="E77" s="2">
-        <v>43894</v>
+        <v>216</v>
+      </c>
+      <c r="E77" t="s">
+        <v>217</v>
       </c>
       <c r="F77" t="s">
-        <v>784</v>
+        <v>218</v>
       </c>
       <c r="G77" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>620</v>
+        <v>782</v>
       </c>
       <c r="D78" t="s">
-        <v>621</v>
+        <v>783</v>
       </c>
       <c r="E78" s="2">
-        <v>43931</v>
+        <v>43894</v>
       </c>
       <c r="F78" t="s">
-        <v>622</v>
+        <v>784</v>
       </c>
       <c r="G78" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>13</v>
-      </c>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>220</v>
+        <v>620</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>621</v>
       </c>
       <c r="E79" s="2">
-        <v>43938</v>
+        <v>43931</v>
       </c>
       <c r="F79" t="s">
-        <v>221</v>
+        <v>622</v>
       </c>
       <c r="G79" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
       <c r="B80" s="1">
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>801</v>
+        <v>220</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
       </c>
       <c r="E80" s="2">
-        <v>44306</v>
+        <v>43938</v>
       </c>
       <c r="F80" t="s">
-        <v>802</v>
+        <v>221</v>
       </c>
       <c r="G80" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>13</v>
-      </c>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>223</v>
-      </c>
-      <c r="D81" t="s">
-        <v>224</v>
-      </c>
-      <c r="E81" t="s">
-        <v>225</v>
+        <v>801</v>
+      </c>
+      <c r="E81" s="2">
+        <v>44306</v>
       </c>
       <c r="F81" t="s">
-        <v>226</v>
+        <v>802</v>
       </c>
       <c r="G81" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -4661,22 +4667,22 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D82" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E82" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F82" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G82" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -4684,196 +4690,196 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D83" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E83" t="s">
         <v>230</v>
       </c>
       <c r="F83" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G83" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
       <c r="B84" s="1">
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>762</v>
-      </c>
-      <c r="E84" s="2">
-        <v>44631</v>
+        <v>233</v>
+      </c>
+      <c r="D84" t="s">
+        <v>234</v>
+      </c>
+      <c r="E84" t="s">
+        <v>230</v>
       </c>
       <c r="F84" t="s">
-        <v>763</v>
+        <v>235</v>
       </c>
       <c r="G84" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>13</v>
-      </c>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>237</v>
-      </c>
-      <c r="D85" t="s">
-        <v>238</v>
+        <v>762</v>
       </c>
       <c r="E85" s="2">
-        <v>44667</v>
+        <v>44631</v>
       </c>
       <c r="F85" t="s">
-        <v>239</v>
+        <v>763</v>
       </c>
       <c r="G85" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
       <c r="B86" s="1">
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>750</v>
+        <v>237</v>
       </c>
       <c r="D86" t="s">
-        <v>700</v>
+        <v>238</v>
       </c>
       <c r="E86" s="2">
-        <v>44676</v>
+        <v>44667</v>
       </c>
       <c r="F86" t="s">
-        <v>751</v>
+        <v>239</v>
       </c>
       <c r="G86" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>636</v>
+        <v>750</v>
       </c>
       <c r="D87" t="s">
-        <v>637</v>
+        <v>700</v>
       </c>
       <c r="E87" s="2">
-        <v>44684</v>
+        <v>44676</v>
       </c>
       <c r="F87" t="s">
-        <v>638</v>
+        <v>751</v>
       </c>
       <c r="G87" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>706</v>
+        <v>636</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
+        <v>637</v>
       </c>
       <c r="E88" s="2">
-        <v>44689</v>
+        <v>44684</v>
       </c>
       <c r="F88" t="s">
-        <v>707</v>
+        <v>638</v>
       </c>
       <c r="G88" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>640</v>
+        <v>706</v>
+      </c>
+      <c r="D89" t="s">
+        <v>238</v>
       </c>
       <c r="E89" s="2">
-        <v>44704</v>
+        <v>44689</v>
       </c>
       <c r="F89" t="s">
-        <v>641</v>
+        <v>707</v>
       </c>
       <c r="G89" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E90" s="2">
-        <v>44710</v>
+        <v>44704</v>
       </c>
       <c r="F90" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G90" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>810</v>
+        <v>643</v>
       </c>
       <c r="E91" s="2">
-        <v>44734</v>
+        <v>44710</v>
       </c>
       <c r="F91" t="s">
-        <v>267</v>
+        <v>644</v>
       </c>
       <c r="G91" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>13</v>
-      </c>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>241</v>
-      </c>
-      <c r="D92" t="s">
-        <v>242</v>
-      </c>
-      <c r="E92" t="s">
-        <v>243</v>
+        <v>810</v>
+      </c>
+      <c r="E92" s="2">
+        <v>44734</v>
       </c>
       <c r="F92" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="G92" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -4881,22 +4887,22 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D93" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E93" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F93" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G93" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -4904,22 +4910,22 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D94" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E94" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F94" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G94" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -4927,22 +4933,22 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D95" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E95" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F95" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="G95" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -4950,22 +4956,22 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="E96" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F96" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G96" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -4973,62 +4979,62 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D97" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F97" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G97" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
       <c r="B98" s="1">
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>653</v>
-      </c>
-      <c r="E98" s="2">
-        <v>45053</v>
+        <v>264</v>
+      </c>
+      <c r="D98" t="s">
+        <v>265</v>
+      </c>
+      <c r="E98" t="s">
+        <v>266</v>
       </c>
       <c r="F98" t="s">
-        <v>654</v>
+        <v>267</v>
       </c>
       <c r="G98" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>13</v>
-      </c>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>269</v>
-      </c>
-      <c r="D99" t="s">
-        <v>252</v>
-      </c>
-      <c r="E99" t="s">
-        <v>270</v>
+        <v>653</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45053</v>
       </c>
       <c r="F99" t="s">
-        <v>244</v>
+        <v>654</v>
       </c>
       <c r="G99" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -5036,102 +5042,102 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F100" t="s">
         <v>244</v>
       </c>
       <c r="G100" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
       <c r="B101" s="1">
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>659</v>
-      </c>
-      <c r="E101" s="2">
-        <v>45209</v>
+        <v>272</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>273</v>
       </c>
       <c r="F101" t="s">
-        <v>660</v>
+        <v>244</v>
       </c>
       <c r="G101" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E102" s="2">
-        <v>45364</v>
+        <v>45209</v>
       </c>
       <c r="F102" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G102" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>275</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>276</v>
-      </c>
-      <c r="D103" t="s">
-        <v>277</v>
-      </c>
-      <c r="E103" t="s">
-        <v>278</v>
+        <v>662</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45364</v>
       </c>
       <c r="F103" t="s">
-        <v>279</v>
+        <v>663</v>
       </c>
       <c r="G103" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>275</v>
       </c>
       <c r="B104" s="1">
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D104" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E104" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F104" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G104" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -5139,114 +5145,114 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>282</v>
       </c>
       <c r="E105" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F105" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G105" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="B106" s="1">
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F106" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G106" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B107" s="1">
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D107" t="s">
-        <v>297</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F107" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G107" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B108" s="1">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D108" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E108" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F108" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G108" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>305</v>
       </c>
       <c r="B109" s="1">
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D109" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E109" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F109" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G109" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -5254,22 +5260,22 @@
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>312</v>
       </c>
       <c r="E110" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F110" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G110" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -5277,22 +5283,22 @@
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D111" t="s">
-        <v>321</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F111" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G111" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -5300,68 +5306,68 @@
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D112" t="s">
-        <v>119</v>
+        <v>321</v>
       </c>
       <c r="E112" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F112" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G112" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="B113" s="1">
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D113" t="s">
-        <v>331</v>
+        <v>119</v>
       </c>
       <c r="E113" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F113" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G113" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="B114" s="1">
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D114" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E114" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F114" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G114" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -5369,22 +5375,22 @@
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
       <c r="E115" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F115" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G115" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -5392,22 +5398,22 @@
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D116" t="s">
-        <v>345</v>
+        <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F116" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G116" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -5415,22 +5421,22 @@
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D117" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E117" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F117" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G117" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -5438,22 +5444,22 @@
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>350</v>
       </c>
       <c r="E118" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F118" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G118" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -5461,88 +5467,88 @@
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D119" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F119" t="s">
         <v>356</v>
       </c>
       <c r="G119" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
       <c r="B120" s="1">
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>649</v>
+        <v>358</v>
       </c>
       <c r="D120" t="s">
-        <v>650</v>
-      </c>
-      <c r="E120" s="2">
-        <v>45049</v>
+        <v>43</v>
+      </c>
+      <c r="E120" t="s">
+        <v>359</v>
       </c>
       <c r="F120" t="s">
-        <v>651</v>
+        <v>356</v>
       </c>
       <c r="G120" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>361</v>
-      </c>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>362</v>
+        <v>649</v>
       </c>
       <c r="D121" t="s">
-        <v>363</v>
-      </c>
-      <c r="E121" t="s">
-        <v>364</v>
+        <v>650</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45049</v>
       </c>
       <c r="F121" t="s">
-        <v>365</v>
+        <v>651</v>
       </c>
       <c r="G121" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="B122" s="1">
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>363</v>
       </c>
       <c r="E122" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F122" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G122" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -5550,22 +5556,22 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D123" t="s">
-        <v>372</v>
+        <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F123" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G123" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -5573,22 +5579,22 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>372</v>
       </c>
       <c r="E124" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F124" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G124" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -5596,22 +5602,22 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F125" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G125" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -5619,22 +5625,22 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D126" t="s">
-        <v>385</v>
+        <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F126" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G126" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -5642,22 +5648,22 @@
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D127" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E127" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F127" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G127" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -5665,22 +5671,22 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>390</v>
       </c>
       <c r="E128" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F128" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G128" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -5688,22 +5694,22 @@
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F129" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G129" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -5711,22 +5717,22 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F130" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G130" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -5734,22 +5740,22 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F131" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G131" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -5757,22 +5763,22 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D132" t="s">
-        <v>411</v>
+        <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F132" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G132" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -5780,22 +5786,22 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D133" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E133" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="F133" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G133" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -5803,22 +5809,22 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D134" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E134" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="F134" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G134" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -5826,22 +5832,22 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D135" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E135" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F135" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G135" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -5849,22 +5855,22 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D136" t="s">
-        <v>119</v>
+        <v>425</v>
       </c>
       <c r="E136" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F136" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G136" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -5872,22 +5878,22 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="E137" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F137" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="G137" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -5895,85 +5901,85 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D138" t="s">
-        <v>437</v>
+        <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F138" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G138" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>13</v>
+      </c>
       <c r="B139" s="1">
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>656</v>
-      </c>
-      <c r="E139" s="2">
-        <v>45132</v>
+        <v>436</v>
+      </c>
+      <c r="D139" t="s">
+        <v>437</v>
+      </c>
+      <c r="E139" t="s">
+        <v>438</v>
       </c>
       <c r="F139" t="s">
-        <v>657</v>
+        <v>404</v>
       </c>
       <c r="G139" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>440</v>
-      </c>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>441</v>
-      </c>
-      <c r="D140" t="s">
-        <v>442</v>
-      </c>
-      <c r="E140" t="s">
-        <v>443</v>
+        <v>656</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45132</v>
       </c>
       <c r="F140" t="s">
-        <v>444</v>
+        <v>657</v>
       </c>
       <c r="G140" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>440</v>
       </c>
       <c r="B141" s="1">
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>442</v>
       </c>
       <c r="E141" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F141" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G141" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -5981,22 +5987,22 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D142" t="s">
-        <v>451</v>
+        <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F142" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G142" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -6004,22 +6010,22 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D143" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E143" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F143" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G143" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -6027,22 +6033,22 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D144" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E144" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F144" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G144" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -6050,22 +6056,22 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>461</v>
       </c>
       <c r="E145" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F145" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G145" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>13</v>
       </c>
@@ -6073,22 +6079,22 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D146" t="s">
-        <v>470</v>
+        <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F146" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G146" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -6096,22 +6102,22 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D147" t="s">
-        <v>13</v>
+        <v>470</v>
       </c>
       <c r="E147" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F147" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G147" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>13</v>
       </c>
@@ -6119,22 +6125,22 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D148" t="s">
         <v>13</v>
       </c>
       <c r="E148" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F148" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G148" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -6142,22 +6148,22 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D149" t="s">
-        <v>483</v>
+        <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>230</v>
+        <v>479</v>
       </c>
       <c r="F149" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G149" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -6165,22 +6171,22 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D150" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E150" t="s">
-        <v>488</v>
+        <v>230</v>
       </c>
       <c r="F150" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G150" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -6188,22 +6194,22 @@
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D151" t="s">
         <v>487</v>
       </c>
       <c r="E151" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F151" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G151" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>13</v>
       </c>
@@ -6211,593 +6217,593 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D152" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E152" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F152" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G152" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>624</v>
+        <v>13</v>
       </c>
       <c r="B153" s="1">
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>696</v>
-      </c>
-      <c r="E153" s="2">
-        <v>43572</v>
+        <v>495</v>
+      </c>
+      <c r="D153" t="s">
+        <v>496</v>
+      </c>
+      <c r="E153" t="s">
+        <v>497</v>
       </c>
       <c r="F153" t="s">
-        <v>697</v>
+        <v>498</v>
       </c>
       <c r="G153" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>624</v>
+      </c>
       <c r="B154" s="1">
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>779</v>
-      </c>
-      <c r="D154" t="s">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="E154" s="2">
-        <v>43617</v>
+        <v>43572</v>
       </c>
       <c r="F154" t="s">
-        <v>780</v>
+        <v>697</v>
       </c>
       <c r="G154" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="D155" t="s">
-        <v>787</v>
+        <v>616</v>
       </c>
       <c r="E155" s="2">
-        <v>43948</v>
+        <v>43617</v>
       </c>
       <c r="F155" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="G155" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D156" t="s">
-        <v>616</v>
+        <v>787</v>
       </c>
       <c r="E156" s="2">
-        <v>44158</v>
+        <v>43948</v>
       </c>
       <c r="F156" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G156" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D157" t="s">
-        <v>794</v>
+        <v>616</v>
       </c>
       <c r="E157" s="2">
-        <v>44188</v>
+        <v>44158</v>
       </c>
       <c r="F157" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="G157" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>625</v>
+        <v>793</v>
+      </c>
+      <c r="D158" t="s">
+        <v>794</v>
       </c>
       <c r="E158" s="2">
-        <v>44303</v>
+        <v>44188</v>
       </c>
       <c r="F158" t="s">
-        <v>626</v>
+        <v>795</v>
       </c>
       <c r="G158" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>682</v>
-      </c>
-      <c r="D159" t="s">
-        <v>119</v>
+        <v>625</v>
       </c>
       <c r="E159" s="2">
-        <v>44420</v>
+        <v>44303</v>
       </c>
       <c r="F159" t="s">
-        <v>683</v>
+        <v>626</v>
       </c>
       <c r="G159" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>632</v>
+        <v>682</v>
       </c>
       <c r="D160" t="s">
-        <v>633</v>
+        <v>119</v>
       </c>
       <c r="E160" s="2">
-        <v>44636</v>
+        <v>44420</v>
       </c>
       <c r="F160" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="G160" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>646</v>
+        <v>632</v>
+      </c>
+      <c r="D161" t="s">
+        <v>633</v>
       </c>
       <c r="E161" s="2">
-        <v>44781</v>
+        <v>44636</v>
       </c>
       <c r="F161" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="G161" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>768</v>
-      </c>
-      <c r="D162" t="s">
-        <v>769</v>
+        <v>646</v>
       </c>
       <c r="E162" s="2">
-        <v>44913</v>
+        <v>44781</v>
       </c>
       <c r="F162" t="s">
-        <v>770</v>
+        <v>647</v>
       </c>
       <c r="G162" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>628</v>
-      </c>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>717</v>
+        <v>768</v>
       </c>
       <c r="D163" t="s">
-        <v>616</v>
+        <v>769</v>
       </c>
       <c r="E163" s="2">
-        <v>42219</v>
+        <v>44913</v>
       </c>
       <c r="F163" t="s">
-        <v>718</v>
+        <v>770</v>
       </c>
       <c r="G163" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>628</v>
+      </c>
       <c r="B164" s="1">
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>776</v>
+        <v>717</v>
       </c>
       <c r="D164" t="s">
         <v>616</v>
       </c>
       <c r="E164" s="2">
-        <v>42914</v>
+        <v>42219</v>
       </c>
       <c r="F164" t="s">
-        <v>777</v>
+        <v>718</v>
       </c>
       <c r="G164" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>731</v>
+        <v>776</v>
       </c>
       <c r="D165" t="s">
         <v>616</v>
       </c>
       <c r="E165" s="2">
-        <v>42978</v>
+        <v>42914</v>
       </c>
       <c r="F165" t="s">
-        <v>732</v>
+        <v>777</v>
       </c>
       <c r="G165" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
       <c r="D166" t="s">
-        <v>700</v>
+        <v>616</v>
       </c>
       <c r="E166" s="2">
-        <v>43926</v>
+        <v>42978</v>
       </c>
       <c r="F166" t="s">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="G166" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="D167" t="s">
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="E167" s="2">
-        <v>44176</v>
+        <v>43926</v>
       </c>
       <c r="F167" t="s">
-        <v>680</v>
+        <v>701</v>
       </c>
       <c r="G167" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>756</v>
+        <v>679</v>
+      </c>
+      <c r="D168" t="s">
+        <v>420</v>
       </c>
       <c r="E168" s="2">
-        <v>43922</v>
+        <v>44176</v>
       </c>
       <c r="F168" t="s">
-        <v>757</v>
+        <v>680</v>
       </c>
       <c r="G168" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>797</v>
-      </c>
-      <c r="D169" t="s">
-        <v>798</v>
+        <v>756</v>
       </c>
       <c r="E169" s="2">
-        <v>44197</v>
+        <v>43922</v>
       </c>
       <c r="F169" t="s">
-        <v>799</v>
+        <v>757</v>
       </c>
       <c r="G169" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>703</v>
+        <v>797</v>
       </c>
       <c r="D170" t="s">
-        <v>532</v>
+        <v>798</v>
       </c>
       <c r="E170" s="2">
-        <v>44333</v>
+        <v>44197</v>
       </c>
       <c r="F170" t="s">
-        <v>704</v>
+        <v>799</v>
       </c>
       <c r="G170" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="D171" t="s">
-        <v>735</v>
+        <v>532</v>
       </c>
       <c r="E171" s="2">
-        <v>44373</v>
+        <v>44333</v>
       </c>
       <c r="F171" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="G171" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>629</v>
+        <v>734</v>
       </c>
       <c r="D172" t="s">
-        <v>616</v>
+        <v>735</v>
       </c>
       <c r="E172" s="2">
-        <v>44544</v>
+        <v>44373</v>
       </c>
       <c r="F172" t="s">
-        <v>630</v>
+        <v>736</v>
       </c>
       <c r="G172" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>812</v>
+        <v>629</v>
       </c>
       <c r="D173" t="s">
-        <v>487</v>
+        <v>616</v>
       </c>
       <c r="E173" s="2">
-        <v>44750</v>
+        <v>44544</v>
       </c>
       <c r="F173" t="s">
-        <v>813</v>
+        <v>630</v>
       </c>
       <c r="G173" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>765</v>
+        <v>812</v>
+      </c>
+      <c r="D174" t="s">
+        <v>487</v>
       </c>
       <c r="E174" s="2">
-        <v>44760</v>
+        <v>44750</v>
       </c>
       <c r="F174" t="s">
-        <v>766</v>
+        <v>813</v>
       </c>
       <c r="G174" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>815</v>
-      </c>
-      <c r="D175" t="s">
-        <v>816</v>
+        <v>765</v>
       </c>
       <c r="E175" s="2">
-        <v>44957</v>
+        <v>44760</v>
       </c>
       <c r="F175" t="s">
-        <v>817</v>
+        <v>766</v>
       </c>
       <c r="G175" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D176" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E176" s="2">
-        <v>45037</v>
+        <v>44957</v>
       </c>
       <c r="F176" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="G176" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D177" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E177" s="2">
-        <v>45292</v>
+        <v>45037</v>
       </c>
       <c r="F177" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G177" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>500</v>
-      </c>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>725</v>
+        <v>823</v>
+      </c>
+      <c r="D178" t="s">
+        <v>824</v>
       </c>
       <c r="E178" s="2">
-        <v>42552</v>
+        <v>45292</v>
       </c>
       <c r="F178" t="s">
-        <v>726</v>
+        <v>825</v>
       </c>
       <c r="G178" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>500</v>
+      </c>
       <c r="B179" s="1">
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E179" s="2">
-        <v>42661</v>
+        <v>42552</v>
       </c>
       <c r="F179" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G179" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>501</v>
-      </c>
-      <c r="D180" t="s">
-        <v>502</v>
-      </c>
-      <c r="E180" t="s">
-        <v>503</v>
+        <v>728</v>
+      </c>
+      <c r="E180" s="2">
+        <v>42661</v>
       </c>
       <c r="F180" t="s">
-        <v>504</v>
+        <v>729</v>
       </c>
       <c r="G180" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>13</v>
-      </c>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D181" t="s">
-        <v>390</v>
+        <v>502</v>
       </c>
       <c r="E181" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F181" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G181" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -6805,22 +6811,22 @@
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D182" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="E182" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F182" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G182" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -6828,22 +6834,22 @@
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D183" t="s">
-        <v>515</v>
+        <v>202</v>
       </c>
       <c r="E183" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F183" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G183" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -6851,22 +6857,22 @@
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D184" t="s">
-        <v>207</v>
+        <v>515</v>
       </c>
       <c r="E184" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F184" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G184" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -6874,22 +6880,22 @@
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D185" t="s">
-        <v>411</v>
+        <v>207</v>
       </c>
       <c r="E185" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F185" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G185" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -6897,22 +6903,22 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D186" t="s">
-        <v>528</v>
+        <v>411</v>
       </c>
       <c r="E186" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F186" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="G186" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -6920,208 +6926,208 @@
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D187" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E187" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F187" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="G187" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
       <c r="B188" s="1">
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>672</v>
+        <v>531</v>
       </c>
       <c r="D188" t="s">
-        <v>673</v>
-      </c>
-      <c r="E188" s="2">
-        <v>44081</v>
+        <v>532</v>
+      </c>
+      <c r="E188" t="s">
+        <v>533</v>
       </c>
       <c r="F188" t="s">
-        <v>674</v>
+        <v>534</v>
       </c>
       <c r="G188" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D189" t="s">
-        <v>621</v>
+        <v>673</v>
       </c>
       <c r="E189" s="2">
-        <v>44106</v>
+        <v>44081</v>
       </c>
       <c r="F189" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G189" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>753</v>
+        <v>676</v>
+      </c>
+      <c r="D190" t="s">
+        <v>621</v>
       </c>
       <c r="E190" s="2">
-        <v>44179</v>
+        <v>44106</v>
       </c>
       <c r="F190" t="s">
-        <v>754</v>
+        <v>677</v>
       </c>
       <c r="G190" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>13</v>
-      </c>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>540</v>
-      </c>
-      <c r="D191" t="s">
-        <v>541</v>
-      </c>
-      <c r="E191" t="s">
-        <v>542</v>
+        <v>753</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44179</v>
       </c>
       <c r="F191" t="s">
-        <v>543</v>
+        <v>754</v>
       </c>
       <c r="G191" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>13</v>
+      </c>
       <c r="B192" s="1">
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D192" t="s">
-        <v>13</v>
+        <v>541</v>
       </c>
       <c r="E192" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F192" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="G192" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>807</v>
-      </c>
-      <c r="E193" s="2">
-        <v>44481</v>
+        <v>536</v>
+      </c>
+      <c r="D193" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" t="s">
+        <v>537</v>
       </c>
       <c r="F193" t="s">
-        <v>808</v>
+        <v>538</v>
       </c>
       <c r="G193" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>13</v>
-      </c>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>545</v>
-      </c>
-      <c r="D194" t="s">
-        <v>546</v>
-      </c>
-      <c r="E194" t="s">
-        <v>230</v>
+        <v>807</v>
+      </c>
+      <c r="E194" s="2">
+        <v>44481</v>
       </c>
       <c r="F194" t="s">
-        <v>547</v>
+        <v>808</v>
       </c>
       <c r="G194" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="B195" s="1">
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D195" t="s">
-        <v>13</v>
+        <v>546</v>
       </c>
       <c r="E195" t="s">
-        <v>551</v>
+        <v>230</v>
       </c>
       <c r="F195" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G195" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>13</v>
+        <v>549</v>
       </c>
       <c r="B196" s="1">
         <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D196" t="s">
         <v>13</v>
       </c>
       <c r="E196" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F196" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G196" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -7129,22 +7135,22 @@
         <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D197" t="s">
         <v>13</v>
       </c>
       <c r="E197" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F197" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G197" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -7152,22 +7158,22 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D198" t="s">
-        <v>563</v>
+        <v>13</v>
       </c>
       <c r="E198" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F198" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G198" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -7175,22 +7181,22 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D199" t="s">
-        <v>13</v>
+        <v>563</v>
       </c>
       <c r="E199" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F199" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G199" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -7198,22 +7204,22 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D200" t="s">
-        <v>572</v>
+        <v>13</v>
       </c>
       <c r="E200" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F200" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G200" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -7221,22 +7227,22 @@
         <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D201" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E201" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F201" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G201" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -7244,18 +7250,41 @@
         <v>201</v>
       </c>
       <c r="C202" t="s">
+        <v>576</v>
+      </c>
+      <c r="D202" t="s">
+        <v>577</v>
+      </c>
+      <c r="E202" t="s">
+        <v>578</v>
+      </c>
+      <c r="F202" t="s">
+        <v>579</v>
+      </c>
+      <c r="G202" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="1">
+        <v>202</v>
+      </c>
+      <c r="C203" t="s">
         <v>581</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D203" t="s">
         <v>582</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E203" t="s">
         <v>583</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F203" t="s">
         <v>262</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G203" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7263,7 +7292,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A14:A16 A62 C194:G202 C26:G45 A26:A43 C48:G49 A48:A49 C54:D54 F54:G54 A11:A12 A21 C21:G21 C59:G60 A59:A60 A67 C62:G63 A72:A73 C67:G68 A194:A202 C72:G74 A76 C76:G76 C79:D79 F79:G79 A100 C140:G152 A140:A148 A152 C81:G83 A85 A104:A119 C103:G119 C93:G97 A92:A97 A121:A133 C121:G138 C99:G100 A6 A9 A191 C181:G187 A182:A185 A187 A150 A1:G1 A2 A54:A57 C55:G57 C19:G19 A19 A135:A138 A178 C85:D85 F85:G85 A81 D92:G92 A45 A83 C14:G16 C11:G12 C6:G6 C9:G9" numberStoredAsText="1"/>
+    <ignoredError sqref="A14:A16 A63 C195:G203 C26:G45 A26:A43 C48:G49 A48:A49 C54:D54 F54:G54 A11:A12 A21 C21:G21 C60:G61 A60:A61 A68 C63:G64 A73:A74 C68:G69 A195:A203 C73:G75 A77 C77:G77 C80:D80 F80:G80 A101 C141:G153 A141:A149 A153 C82:G84 A86 A105:A120 C104:G120 C94:G98 A93:A98 A122:A134 C122:G139 C100:G101 A6 A9 A192 C182:G188 A183:A186 A188 A151 A1:G1 A2 A54:A57 C55:G56 C19:G19 A19 A136:A139 A179 C86:D86 F86:G86 A82 D93:G93 A45 A84 C14:G16 C11:G12 C6:G6 C9:G9 D57:E57" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/paper_dataframe_markdown_backup.xlsx
+++ b/paper_dataframe_markdown_backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Desktop\awesome-ai-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511919D9-0283-4651-BB0D-2175FA954C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD1A82E-D53C-4329-86F1-5FF1E70C7FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="2805" windowWidth="19200" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1860" windowWidth="19755" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="973">
   <si>
     <t>Theme</t>
   </si>
@@ -2519,12 +2519,435 @@
   </si>
   <si>
     <t>[Link](http://arxiv.org/abs/1803.02155)</t>
+  </si>
+  <si>
+    <t>Minimum Bayes-Risk Decoding for Statistical Machine Translation</t>
+  </si>
+  <si>
+    <t>ACL 2011</t>
+  </si>
+  <si>
+    <t>Shankar Kumar et al</t>
+  </si>
+  <si>
+    <t>[Link](https://aclanthology.org/N04-1022.pdf)</t>
+  </si>
+  <si>
+    <t>Learning Dependency-Based Compositional Semantics</t>
+  </si>
+  <si>
+    <t>NerulIPS 2012</t>
+  </si>
+  <si>
+    <t>Percy Liang et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1109.6841v1)</t>
+  </si>
+  <si>
+    <t>Deep Biaffine Attention for Neural Dependency Parsing</t>
+  </si>
+  <si>
+    <t>Timothy Dozat et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1611.01734v3)</t>
+  </si>
+  <si>
+    <t>Search-based Neural Structured Learning for Sequential Question Answering</t>
+  </si>
+  <si>
+    <t>Mohit Iyyer et al</t>
+  </si>
+  <si>
+    <t>[Link](https://aclanthology.org/P17-1167/)</t>
+  </si>
+  <si>
+    <t>AAAI 2019</t>
+  </si>
+  <si>
+    <t>Read + Verify: Machine Reading Comprehension with Unanswerable Questions</t>
+  </si>
+  <si>
+    <t>Minghao Hu et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1808.05759v5)</t>
+  </si>
+  <si>
+    <t>The Curious Case of Neural Text Degeneration</t>
+  </si>
+  <si>
+    <t>Ari Holtzman et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1904.09751v2)</t>
+  </si>
+  <si>
+    <t>Neural Text Generation with Unlikelihood Training</t>
+  </si>
+  <si>
+    <t>Sean Welleck et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1908.04319v2)</t>
+  </si>
+  <si>
+    <t>A Learning-Exploring Method to Generate Diverse Paraphrases with Multi-Objective Deep Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Coling 2020</t>
+  </si>
+  <si>
+    <t>Mingtong Liu et al</t>
+  </si>
+  <si>
+    <t>[Link](https://aclanthology.org/2020.coling-main.209/)</t>
+  </si>
+  <si>
+    <t>ELECTRA: Pre-training Text Encoders as Discriminators Rather Than Generators</t>
+  </si>
+  <si>
+    <t>ICLR  2020</t>
+  </si>
+  <si>
+    <t>Kevin Clark et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2003.10555v1)</t>
+  </si>
+  <si>
+    <t>Efficient Second-Order TreeCRF for Neural Dependency Parsing</t>
+  </si>
+  <si>
+    <t>Yu Zhang et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2005.00975v2)</t>
+  </si>
+  <si>
+    <t>Answer Span Correction in Machine Reading Comprehension</t>
+  </si>
+  <si>
+    <t>Revanth Gangi Reddy et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2011.03435v1)</t>
+  </si>
+  <si>
+    <t>Self-Consistency Improves Chain of Thought Reasoning in Language Models</t>
+  </si>
+  <si>
+    <t>ICLR  2023</t>
+  </si>
+  <si>
+    <t>Xuezhi Wang et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2203.11171v4)</t>
+  </si>
+  <si>
+    <t>ReAct: Synergizing Reasoning and Acting in Language Models</t>
+  </si>
+  <si>
+    <t>Shunyu Yao et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2210.03629v3)</t>
+  </si>
+  <si>
+    <t>LongLoRA: Efficient Fine-tuning of Long-Context Large Language Models</t>
+  </si>
+  <si>
+    <t>NAACL 2024</t>
+  </si>
+  <si>
+    <t>Yukang Chen et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2309.12307v3)</t>
+  </si>
+  <si>
+    <t>Practical Bayesian Optimization of Machine Learning Algorithms</t>
+  </si>
+  <si>
+    <t>Jasper Snoek et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1206.2944v2)</t>
+  </si>
+  <si>
+    <t>A Corpus of Natural Language for Visual Reasoning</t>
+  </si>
+  <si>
+    <t>Alane Suh et al</t>
+  </si>
+  <si>
+    <t>[Link](https://aclanthology.org/P17-2034/)</t>
+  </si>
+  <si>
+    <t>Iterative search for weakly supervised semantic parsing</t>
+  </si>
+  <si>
+    <t>NAACL 2019</t>
+  </si>
+  <si>
+    <t>Pradeep Dasigi et al</t>
+  </si>
+  <si>
+    <t>[Link](https://aclanthology.org/N19-1273/)</t>
+  </si>
+  <si>
+    <t>Visual Instruction Tuning</t>
+  </si>
+  <si>
+    <t>Haotian Liu et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2304.08485v2)</t>
+  </si>
+  <si>
+    <t>QLoRA: Efficient Finetuning of Quantized LLMs</t>
+  </si>
+  <si>
+    <t>Tim Dettmers et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2305.14314v1)</t>
+  </si>
+  <si>
+    <t>Technical Note: Q-Learning</t>
+  </si>
+  <si>
+    <t>Machien Learning</t>
+  </si>
+  <si>
+    <t>Christopher J.C.H. Watkins et al</t>
+  </si>
+  <si>
+    <t>Bayesian Q-learning</t>
+  </si>
+  <si>
+    <t>AAAI 1998</t>
+  </si>
+  <si>
+    <t>Richard Dearden et al</t>
+  </si>
+  <si>
+    <t>Policy invariance under reward transformations: Theory and application to reward shaping</t>
+  </si>
+  <si>
+    <t>A. Ng et al</t>
+  </si>
+  <si>
+    <t>Policy Shaping: Integrating Human Feedback with Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Shane Griffith et al</t>
+  </si>
+  <si>
+    <t>Learning to Generalize from Sparse and Underspecified Rewards</t>
+  </si>
+  <si>
+    <t>ICML  2019</t>
+  </si>
+  <si>
+    <t>Rishabh Agarwal et al</t>
+  </si>
+  <si>
+    <t>[Link](https://link.springer.com/article/10.1023/A:1022676722315)</t>
+  </si>
+  <si>
+    <t>[Link](https://ai.stanford.edu/~nir/Papers/DFR1.pdf)</t>
+  </si>
+  <si>
+    <t>[Link](https://www.semanticscholar.org/paper/Policy-Invariance-Under-Reward-Transformations%3A-and-Ng-Harada/94066dc12fe31e96af7557838159bde598cb4f10)</t>
+  </si>
+  <si>
+    <t>[Link](https://papers.nips.cc/paper_files/paper/2013/hash/e034fb6b66aacc1d48f445ddfb08da98-Abstract.html)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1902.07198v4)</t>
+  </si>
+  <si>
+    <t>Coarse-to-Fine Decoding for Neural Semantic Parsing</t>
+  </si>
+  <si>
+    <t>Policy Shaping and Generalized Update Equations for Semantic Parsing from Denotations</t>
+  </si>
+  <si>
+    <t>EMNLP  2018</t>
+  </si>
+  <si>
+    <t>TabFact: A Large-scale Dataset for Table-based Fact Verification</t>
+  </si>
+  <si>
+    <t>Dipendra Misra et al</t>
+  </si>
+  <si>
+    <t>Wenhu Chen et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1805.04793v1)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1809.01299v1)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1909.02164v5)</t>
+  </si>
+  <si>
+    <t>Logical Natural Language Generation from Open-Domain Tables</t>
+  </si>
+  <si>
+    <t>Logic2Text: High-Fidelity Natural Language Generation from Logical Forms</t>
+  </si>
+  <si>
+    <t>Zhiyu Chen et al</t>
+  </si>
+  <si>
+    <t>TaBERT: Pretraining for Joint Understanding of Textual and Tabular Data</t>
+  </si>
+  <si>
+    <t>Pengcheng Yin et al</t>
+  </si>
+  <si>
+    <t>Program Enhanced Fact Verification with Verbalization and Graph Attention Network</t>
+  </si>
+  <si>
+    <t>Xiaoyu Yang et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2004.10404v2)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2004.14579v2)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2005.08314v1)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2010.03084v6)</t>
+  </si>
+  <si>
+    <t>Logic-level Evidence Retrieval and Graph-based Verification Network for Table-based Fact Verification</t>
+  </si>
+  <si>
+    <t>EMNLP  2021</t>
+  </si>
+  <si>
+    <t>Qi Shi et al</t>
+  </si>
+  <si>
+    <t>Learning to Generate Programs for Table Fact Verification via Structure-Aware Semantic Parsing</t>
+  </si>
+  <si>
+    <t>Suixin Ou et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2109.06480v1)</t>
+  </si>
+  <si>
+    <t>[Link](https://aclanthology.org/2022.acl-long.525/)</t>
+  </si>
+  <si>
+    <t>TAPEX: Table Pre-training via Learning a Neural SQL Executor</t>
+  </si>
+  <si>
+    <t>ICLR  2022</t>
+  </si>
+  <si>
+    <t>Qian Liu et al</t>
+  </si>
+  <si>
+    <t>Chain-of-Thought Prompting Elicits Reasoning in Large Language Models</t>
+  </si>
+  <si>
+    <t>Robust (Controlled) Table-to-Text Generation with Structure-Aware Equivariance Learning</t>
+  </si>
+  <si>
+    <t>Fei Wang et al</t>
+  </si>
+  <si>
+    <t>R2D2: Robust Data-to-Text with Replacement Detection</t>
+  </si>
+  <si>
+    <t>PLOG: Table-to-Logic Pretraining for Logical Table-to-Text Generation</t>
+  </si>
+  <si>
+    <t>Ao Liu et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2201.11903v6)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2205.03972v1)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2205.12467v1)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2205.12697v2)</t>
+  </si>
+  <si>
+    <t>Chain-of-Table: Evolving Tables in the Reasoning Chain for Table Understanding</t>
+  </si>
+  <si>
+    <t>ICLR  2024</t>
+  </si>
+  <si>
+    <t>Zilong Wang et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2401.04398v2)</t>
+  </si>
+  <si>
+    <t>StructGPT: A General Framework for Large Language Model to Reason over Structured Data</t>
+  </si>
+  <si>
+    <t>Jinhao Jiang et al</t>
+  </si>
+  <si>
+    <t>Rethinking Tabular Data Understanding with Large Language Models</t>
+  </si>
+  <si>
+    <t>Tianyang Liu et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2305.09645v2)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2312.16702v1)</t>
+  </si>
+  <si>
+    <t>LoFT: Enhancing Faithfulness and Diversity for Table-to-Text Generation via Logic Form Control</t>
+  </si>
+  <si>
+    <t>EACL  2023</t>
+  </si>
+  <si>
+    <t>Yilun Zhao et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2302.02962v1)</t>
+  </si>
+  <si>
+    <t>An inner table retriever for robust table question answering</t>
+  </si>
+  <si>
+    <t>Weizhe Lin et al</t>
+  </si>
+  <si>
+    <t>[Link](https://aclanthology.org/2023.acl-long.551/)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2560,12 +2983,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2907,16 +3333,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:B203"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.25" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2926,19 +3354,19 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2949,19 +3377,19 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>686</v>
       </c>
       <c r="E2" s="2">
         <v>36892</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>688</v>
       </c>
     </row>
@@ -2969,19 +3397,19 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>714</v>
       </c>
       <c r="E3" s="2">
         <v>39448</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>716</v>
       </c>
     </row>
@@ -2989,212 +3417,206 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="C4" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="E4" s="3">
+        <v>41073</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>772</v>
-      </c>
-      <c r="D5" t="s">
-        <v>773</v>
-      </c>
-      <c r="E5" s="2">
-        <v>41995</v>
-      </c>
-      <c r="F5" t="s">
-        <v>774</v>
-      </c>
-      <c r="G5" t="s">
-        <v>775</v>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
+      <c r="C6" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E6" s="2">
+        <v>41995</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>720</v>
-      </c>
-      <c r="D7" t="s">
-        <v>721</v>
-      </c>
-      <c r="E7" s="2">
-        <v>42284</v>
-      </c>
-      <c r="F7" t="s">
-        <v>722</v>
-      </c>
-      <c r="G7" t="s">
-        <v>723</v>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D8" t="s">
-        <v>666</v>
+      <c r="C8" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="E8" s="2">
-        <v>42438</v>
-      </c>
-      <c r="F8" t="s">
-        <v>667</v>
-      </c>
-      <c r="G8" t="s">
-        <v>668</v>
+        <v>42284</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
+      <c r="C9" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E9" s="2">
+        <v>42438</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>669</v>
-      </c>
-      <c r="D10" t="s">
-        <v>372</v>
-      </c>
-      <c r="E10" s="2">
-        <v>42595</v>
-      </c>
-      <c r="F10" t="s">
-        <v>670</v>
-      </c>
-      <c r="G10" t="s">
-        <v>671</v>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
+      <c r="C11" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" s="2">
+        <v>42595</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
+      <c r="C12" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E12" s="3">
+        <v>42736</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>596</v>
-      </c>
-      <c r="D13" t="s">
-        <v>597</v>
-      </c>
-      <c r="E13" s="2">
-        <v>43066</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>598</v>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3204,43 +3626,40 @@
       <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
+      <c r="C15" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43066</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3250,295 +3669,289 @@
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>301</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>302</v>
-      </c>
-      <c r="F17" t="s">
-        <v>303</v>
-      </c>
-      <c r="G17" t="s">
-        <v>304</v>
+      <c r="C17" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43466</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
       <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>759</v>
-      </c>
-      <c r="D18" t="s">
-        <v>721</v>
-      </c>
-      <c r="E18" s="2">
-        <v>44375</v>
-      </c>
-      <c r="F18" t="s">
-        <v>760</v>
-      </c>
-      <c r="G18" t="s">
-        <v>761</v>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" t="s">
-        <v>52</v>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>709</v>
-      </c>
-      <c r="D20" t="s">
-        <v>710</v>
-      </c>
-      <c r="E20" s="2">
-        <v>38353</v>
-      </c>
-      <c r="F20" t="s">
-        <v>711</v>
-      </c>
-      <c r="G20" t="s">
-        <v>712</v>
+      <c r="C20" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" t="s">
-        <v>56</v>
+      <c r="C21" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44375</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>599</v>
-      </c>
-      <c r="D22" t="s">
-        <v>597</v>
-      </c>
-      <c r="E22" s="2">
-        <v>43213</v>
-      </c>
-      <c r="F22" t="s">
-        <v>600</v>
-      </c>
-      <c r="G22" t="s">
-        <v>601</v>
+      <c r="C22" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45033</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>608</v>
-      </c>
-      <c r="D23" t="s">
-        <v>609</v>
-      </c>
-      <c r="E23" s="2">
-        <v>43576</v>
-      </c>
-      <c r="F23" t="s">
-        <v>610</v>
-      </c>
-      <c r="G23" t="s">
-        <v>611</v>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>747</v>
-      </c>
-      <c r="D24" t="s">
-        <v>700</v>
+      <c r="C24" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="E24" s="2">
-        <v>43930</v>
-      </c>
-      <c r="F24" t="s">
-        <v>748</v>
-      </c>
-      <c r="G24" t="s">
-        <v>749</v>
+        <v>38353</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
       <c r="B25" s="1">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>804</v>
-      </c>
-      <c r="E25" s="2">
-        <v>44336</v>
-      </c>
-      <c r="F25" t="s">
-        <v>805</v>
-      </c>
-      <c r="G25" t="s">
-        <v>806</v>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
       <c r="B26" s="1">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" t="s">
-        <v>61</v>
+      <c r="C26" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43213</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
       <c r="B27" s="1">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
+      <c r="C27" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43576</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
       <c r="B28" s="1">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" t="s">
-        <v>69</v>
+      <c r="C28" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43930</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" t="s">
-        <v>73</v>
+      <c r="C29" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44336</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3548,43 +3961,43 @@
       <c r="B30" s="1">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" t="s">
-        <v>78</v>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" t="s">
-        <v>83</v>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3594,20 +4007,20 @@
       <c r="B32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" t="s">
-        <v>88</v>
+      <c r="C32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3617,20 +4030,20 @@
       <c r="B33" s="1">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" t="s">
-        <v>93</v>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3640,43 +4053,43 @@
       <c r="B34" s="1">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" t="s">
-        <v>97</v>
+      <c r="C34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" t="s">
-        <v>103</v>
+      <c r="C35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3686,20 +4099,20 @@
       <c r="B36" s="1">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" t="s">
-        <v>108</v>
+      <c r="C36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3709,20 +4122,20 @@
       <c r="B37" s="1">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" t="s">
-        <v>113</v>
+      <c r="C37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3732,66 +4145,66 @@
       <c r="B38" s="1">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" t="s">
-        <v>117</v>
+      <c r="C38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B39" s="1">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" t="s">
-        <v>120</v>
-      </c>
-      <c r="G39" t="s">
-        <v>121</v>
+      <c r="C39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" t="s">
-        <v>127</v>
+      <c r="C40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3801,20 +4214,20 @@
       <c r="B41" s="1">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" t="s">
-        <v>131</v>
-      </c>
-      <c r="G41" t="s">
-        <v>132</v>
+      <c r="C41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3824,20 +4237,20 @@
       <c r="B42" s="1">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" t="s">
-        <v>137</v>
+      <c r="C42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3847,103 +4260,106 @@
       <c r="B43" s="1">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" t="s">
-        <v>142</v>
+      <c r="C43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" t="s">
-        <v>145</v>
-      </c>
-      <c r="F44" t="s">
-        <v>146</v>
-      </c>
-      <c r="G44" t="s">
-        <v>147</v>
+      <c r="C44" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E44" s="3">
+        <v>37987</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
       <c r="B45" s="1">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" t="s">
-        <v>151</v>
+      <c r="C45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
       <c r="B46" s="1">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
-        <v>585</v>
-      </c>
-      <c r="E46" s="2">
-        <v>42327</v>
-      </c>
-      <c r="F46" t="s">
-        <v>586</v>
-      </c>
-      <c r="G46" t="s">
-        <v>587</v>
+      <c r="C46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>46</v>
       </c>
-      <c r="C47" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" t="s">
-        <v>724</v>
-      </c>
-      <c r="E47" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" t="s">
-        <v>155</v>
+      <c r="C47" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E47" s="3">
+        <v>40816</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3953,20 +4369,20 @@
       <c r="B48" s="1">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" t="s">
-        <v>153</v>
-      </c>
-      <c r="F48" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48" t="s">
-        <v>155</v>
+      <c r="C48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3976,97 +4392,106 @@
       <c r="B49" s="1">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" t="s">
-        <v>158</v>
-      </c>
-      <c r="G49" t="s">
-        <v>159</v>
+      <c r="C49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
       <c r="B50" s="1">
         <v>49</v>
       </c>
-      <c r="C50" t="s">
-        <v>588</v>
-      </c>
-      <c r="D50" t="s">
-        <v>589</v>
-      </c>
-      <c r="E50" s="2">
-        <v>42684</v>
-      </c>
-      <c r="F50" t="s">
-        <v>590</v>
-      </c>
-      <c r="G50" t="s">
-        <v>591</v>
+      <c r="C50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
       <c r="B51" s="1">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
-        <v>738</v>
-      </c>
-      <c r="D51" t="s">
-        <v>739</v>
-      </c>
-      <c r="E51" s="2">
-        <v>42688</v>
-      </c>
-      <c r="F51" t="s">
-        <v>740</v>
-      </c>
-      <c r="G51" t="s">
-        <v>741</v>
+      <c r="C51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
       <c r="B52" s="1">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
-        <v>592</v>
-      </c>
-      <c r="D52" t="s">
-        <v>593</v>
+      <c r="C52" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="E52" s="2">
-        <v>42825</v>
-      </c>
-      <c r="F52" t="s">
-        <v>594</v>
-      </c>
-      <c r="G52" t="s">
-        <v>595</v>
+        <v>42327</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
-        <v>689</v>
-      </c>
-      <c r="E53" s="2">
-        <v>42839</v>
-      </c>
-      <c r="F53" t="s">
-        <v>690</v>
-      </c>
-      <c r="G53" t="s">
-        <v>691</v>
+      <c r="C53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4076,20 +4501,20 @@
       <c r="B54" s="1">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E54" s="2">
-        <v>42854</v>
-      </c>
-      <c r="F54" t="s">
-        <v>162</v>
-      </c>
-      <c r="G54" t="s">
-        <v>163</v>
+      <c r="C54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4099,169 +4524,160 @@
       <c r="B55" s="1">
         <v>54</v>
       </c>
-      <c r="C55" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s">
-        <v>165</v>
-      </c>
-      <c r="F55" t="s">
-        <v>166</v>
-      </c>
-      <c r="G55" t="s">
-        <v>167</v>
+      <c r="C55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
       <c r="B56" s="1">
         <v>55</v>
       </c>
-      <c r="C56" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" t="s">
-        <v>169</v>
-      </c>
-      <c r="F56" t="s">
-        <v>170</v>
-      </c>
-      <c r="G56" t="s">
-        <v>171</v>
+      <c r="C56" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E56" s="2">
+        <v>42684</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
       <c r="B57" s="1">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
-        <v>172</v>
-      </c>
-      <c r="D57" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F57" t="s">
-        <v>174</v>
-      </c>
-      <c r="G57" t="s">
-        <v>175</v>
+      <c r="C57" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E57" s="2">
+        <v>42688</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>57</v>
       </c>
-      <c r="C58" t="s">
-        <v>831</v>
-      </c>
-      <c r="D58" t="s">
-        <v>461</v>
-      </c>
-      <c r="E58" s="2">
-        <v>43101</v>
-      </c>
-      <c r="F58" t="s">
-        <v>830</v>
-      </c>
-      <c r="G58" t="s">
-        <v>832</v>
+      <c r="C58" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E58" s="3">
+        <v>42680</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>58</v>
       </c>
-      <c r="C59" t="s">
-        <v>692</v>
-      </c>
-      <c r="D59" t="s">
-        <v>693</v>
-      </c>
-      <c r="E59" s="2">
-        <v>43122</v>
-      </c>
-      <c r="F59" t="s">
-        <v>694</v>
-      </c>
-      <c r="G59" t="s">
-        <v>695</v>
+      <c r="C59" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E59" s="3">
+        <v>42736</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>13</v>
-      </c>
       <c r="B60" s="1">
         <v>59</v>
       </c>
-      <c r="C60" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" t="s">
-        <v>177</v>
-      </c>
-      <c r="F60" t="s">
-        <v>178</v>
-      </c>
-      <c r="G60" t="s">
-        <v>179</v>
+      <c r="C60" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E60" s="2">
+        <v>42825</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>13</v>
-      </c>
       <c r="B61" s="1">
         <v>60</v>
       </c>
-      <c r="C61" t="s">
-        <v>180</v>
-      </c>
-      <c r="D61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" t="s">
-        <v>181</v>
-      </c>
-      <c r="F61" t="s">
-        <v>182</v>
-      </c>
-      <c r="G61" t="s">
-        <v>183</v>
+      <c r="C61" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E61" s="2">
+        <v>42839</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
       <c r="B62" s="1">
         <v>61</v>
       </c>
-      <c r="C62" t="s">
-        <v>602</v>
+      <c r="C62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="E62" s="2">
-        <v>43233</v>
-      </c>
-      <c r="F62" t="s">
-        <v>603</v>
-      </c>
-      <c r="G62" t="s">
-        <v>604</v>
+        <v>42854</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4271,20 +4687,20 @@
       <c r="B63" s="1">
         <v>62</v>
       </c>
-      <c r="C63" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" t="s">
-        <v>185</v>
-      </c>
-      <c r="E63" t="s">
-        <v>186</v>
-      </c>
-      <c r="F63" t="s">
-        <v>187</v>
-      </c>
-      <c r="G63" t="s">
-        <v>188</v>
+      <c r="C63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -4294,77 +4710,83 @@
       <c r="B64" s="1">
         <v>63</v>
       </c>
-      <c r="C64" t="s">
-        <v>189</v>
-      </c>
-      <c r="D64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" t="s">
-        <v>190</v>
-      </c>
-      <c r="F64" t="s">
-        <v>191</v>
-      </c>
-      <c r="G64" t="s">
-        <v>192</v>
+      <c r="C64" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
       <c r="B65" s="1">
         <v>64</v>
       </c>
-      <c r="C65" t="s">
-        <v>605</v>
-      </c>
-      <c r="D65" t="s">
-        <v>75</v>
-      </c>
-      <c r="E65" s="2">
-        <v>43466</v>
-      </c>
-      <c r="F65" t="s">
-        <v>606</v>
-      </c>
-      <c r="G65" t="s">
-        <v>607</v>
+      <c r="C65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>65</v>
       </c>
-      <c r="C66" t="s">
-        <v>742</v>
-      </c>
-      <c r="D66" t="s">
-        <v>616</v>
+      <c r="C66" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="E66" s="2">
-        <v>43496</v>
-      </c>
-      <c r="F66" t="s">
-        <v>226</v>
-      </c>
-      <c r="G66" t="s">
-        <v>743</v>
+        <v>43101</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>66</v>
       </c>
-      <c r="C67" t="s">
-        <v>744</v>
+      <c r="C67" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>693</v>
       </c>
       <c r="E67" s="2">
-        <v>43576</v>
-      </c>
-      <c r="F67" t="s">
-        <v>745</v>
-      </c>
-      <c r="G67" t="s">
-        <v>746</v>
+        <v>43122</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4374,20 +4796,20 @@
       <c r="B68" s="1">
         <v>67</v>
       </c>
-      <c r="C68" t="s">
-        <v>193</v>
-      </c>
-      <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" t="s">
-        <v>194</v>
-      </c>
-      <c r="F68" t="s">
-        <v>195</v>
-      </c>
-      <c r="G68" t="s">
-        <v>196</v>
+      <c r="C68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4397,100 +4819,97 @@
       <c r="B69" s="1">
         <v>68</v>
       </c>
-      <c r="C69" t="s">
-        <v>197</v>
-      </c>
-      <c r="D69" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" t="s">
-        <v>198</v>
-      </c>
-      <c r="F69" t="s">
-        <v>199</v>
-      </c>
-      <c r="G69" t="s">
-        <v>200</v>
+      <c r="C69" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>69</v>
       </c>
-      <c r="C70" t="s">
-        <v>612</v>
-      </c>
-      <c r="D70" t="s">
-        <v>613</v>
+      <c r="C70" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="E70" s="2">
-        <v>43697</v>
-      </c>
-      <c r="F70" t="s">
-        <v>614</v>
-      </c>
-      <c r="G70" t="s">
-        <v>615</v>
+        <v>43233</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
       <c r="B71" s="1">
         <v>70</v>
       </c>
-      <c r="C71" t="s">
-        <v>827</v>
-      </c>
-      <c r="E71" s="2">
-        <v>43699</v>
-      </c>
-      <c r="F71" t="s">
-        <v>828</v>
-      </c>
-      <c r="G71" t="s">
-        <v>829</v>
+      <c r="C71" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>71</v>
       </c>
-      <c r="C72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" t="s">
-        <v>616</v>
-      </c>
-      <c r="E72" s="2">
-        <v>43704</v>
-      </c>
-      <c r="F72" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72" t="s">
-        <v>83</v>
+      <c r="C72" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E72" s="3">
+        <v>43262</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>13</v>
-      </c>
       <c r="B73" s="1">
         <v>72</v>
       </c>
-      <c r="C73" t="s">
-        <v>201</v>
-      </c>
-      <c r="D73" t="s">
-        <v>202</v>
-      </c>
-      <c r="E73" t="s">
-        <v>203</v>
-      </c>
-      <c r="F73" t="s">
-        <v>204</v>
-      </c>
-      <c r="G73" t="s">
-        <v>205</v>
+      <c r="C73" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="E73" s="3">
+        <v>43329</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4500,123 +4919,117 @@
       <c r="B74" s="1">
         <v>73</v>
       </c>
-      <c r="C74" t="s">
-        <v>206</v>
-      </c>
-      <c r="D74" t="s">
-        <v>207</v>
-      </c>
-      <c r="E74" t="s">
-        <v>208</v>
-      </c>
-      <c r="F74" t="s">
-        <v>209</v>
-      </c>
-      <c r="G74" t="s">
-        <v>210</v>
+      <c r="C74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>13</v>
-      </c>
       <c r="B75" s="1">
         <v>74</v>
       </c>
-      <c r="C75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D75" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" t="s">
-        <v>212</v>
-      </c>
-      <c r="F75" t="s">
-        <v>213</v>
-      </c>
-      <c r="G75" t="s">
-        <v>214</v>
+      <c r="C75" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>75</v>
       </c>
-      <c r="C76" t="s">
-        <v>617</v>
+      <c r="C76" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="E76" s="2">
-        <v>43775</v>
-      </c>
-      <c r="F76" t="s">
-        <v>618</v>
-      </c>
-      <c r="G76" t="s">
-        <v>619</v>
+        <v>43496</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>13</v>
-      </c>
       <c r="B77" s="1">
         <v>76</v>
       </c>
-      <c r="C77" t="s">
-        <v>215</v>
-      </c>
-      <c r="D77" t="s">
-        <v>216</v>
-      </c>
-      <c r="E77" t="s">
-        <v>217</v>
-      </c>
-      <c r="F77" t="s">
-        <v>218</v>
-      </c>
-      <c r="G77" t="s">
-        <v>219</v>
+      <c r="C77" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E77" s="2">
+        <v>43576</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>77</v>
       </c>
-      <c r="C78" t="s">
-        <v>782</v>
-      </c>
-      <c r="D78" t="s">
-        <v>783</v>
-      </c>
-      <c r="E78" s="2">
-        <v>43894</v>
-      </c>
-      <c r="F78" t="s">
-        <v>784</v>
-      </c>
-      <c r="G78" t="s">
-        <v>785</v>
+      <c r="C78" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E78" s="3">
+        <v>43577</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
       <c r="B79" s="1">
         <v>78</v>
       </c>
-      <c r="C79" t="s">
-        <v>620</v>
-      </c>
-      <c r="D79" t="s">
-        <v>621</v>
-      </c>
-      <c r="E79" s="2">
-        <v>43931</v>
-      </c>
-      <c r="F79" t="s">
-        <v>622</v>
-      </c>
-      <c r="G79" t="s">
-        <v>623</v>
+      <c r="C79" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4626,123 +5039,117 @@
       <c r="B80" s="1">
         <v>79</v>
       </c>
-      <c r="C80" t="s">
-        <v>220</v>
-      </c>
-      <c r="D80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="2">
-        <v>43938</v>
-      </c>
-      <c r="F80" t="s">
-        <v>221</v>
-      </c>
-      <c r="G80" t="s">
-        <v>222</v>
+      <c r="C80" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>80</v>
       </c>
-      <c r="C81" t="s">
-        <v>801</v>
-      </c>
-      <c r="E81" s="2">
-        <v>44306</v>
-      </c>
-      <c r="F81" t="s">
-        <v>802</v>
-      </c>
-      <c r="G81" t="s">
-        <v>803</v>
+      <c r="C81" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E81" s="3">
+        <v>43689</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>13</v>
-      </c>
       <c r="B82" s="1">
         <v>81</v>
       </c>
-      <c r="C82" t="s">
-        <v>223</v>
-      </c>
-      <c r="D82" t="s">
-        <v>224</v>
-      </c>
-      <c r="E82" t="s">
-        <v>225</v>
-      </c>
-      <c r="F82" t="s">
-        <v>226</v>
-      </c>
-      <c r="G82" t="s">
-        <v>227</v>
+      <c r="C82" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E82" s="2">
+        <v>43697</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>13</v>
-      </c>
       <c r="B83" s="1">
         <v>82</v>
       </c>
-      <c r="C83" t="s">
-        <v>228</v>
-      </c>
-      <c r="D83" t="s">
-        <v>229</v>
-      </c>
-      <c r="E83" t="s">
-        <v>230</v>
-      </c>
-      <c r="F83" t="s">
-        <v>231</v>
-      </c>
-      <c r="G83" t="s">
-        <v>232</v>
+      <c r="C83" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E83" s="2">
+        <v>43699</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>13</v>
-      </c>
       <c r="B84" s="1">
         <v>83</v>
       </c>
-      <c r="C84" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" t="s">
-        <v>234</v>
-      </c>
-      <c r="E84" t="s">
-        <v>230</v>
-      </c>
-      <c r="F84" t="s">
-        <v>235</v>
-      </c>
-      <c r="G84" t="s">
-        <v>236</v>
+      <c r="C84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E84" s="2">
+        <v>43704</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
       <c r="B85" s="1">
         <v>84</v>
       </c>
-      <c r="C85" t="s">
-        <v>762</v>
-      </c>
-      <c r="E85" s="2">
-        <v>44631</v>
-      </c>
-      <c r="F85" t="s">
-        <v>763</v>
-      </c>
-      <c r="G85" t="s">
-        <v>764</v>
+      <c r="C85" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4752,154 +5159,163 @@
       <c r="B86" s="1">
         <v>85</v>
       </c>
-      <c r="C86" t="s">
-        <v>237</v>
-      </c>
-      <c r="D86" t="s">
-        <v>238</v>
-      </c>
-      <c r="E86" s="2">
-        <v>44667</v>
-      </c>
-      <c r="F86" t="s">
-        <v>239</v>
-      </c>
-      <c r="G86" t="s">
-        <v>240</v>
+      <c r="C86" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
       <c r="B87" s="1">
         <v>86</v>
       </c>
-      <c r="C87" t="s">
-        <v>750</v>
-      </c>
-      <c r="D87" t="s">
-        <v>700</v>
-      </c>
-      <c r="E87" s="2">
-        <v>44676</v>
-      </c>
-      <c r="F87" t="s">
-        <v>751</v>
-      </c>
-      <c r="G87" t="s">
-        <v>752</v>
+      <c r="C87" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>87</v>
       </c>
-      <c r="C88" t="s">
-        <v>636</v>
-      </c>
-      <c r="D88" t="s">
-        <v>637</v>
+      <c r="C88" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="E88" s="2">
-        <v>44684</v>
-      </c>
-      <c r="F88" t="s">
-        <v>638</v>
-      </c>
-      <c r="G88" t="s">
-        <v>639</v>
+        <v>43775</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
       <c r="B89" s="1">
         <v>88</v>
       </c>
-      <c r="C89" t="s">
-        <v>706</v>
-      </c>
-      <c r="D89" t="s">
-        <v>238</v>
-      </c>
-      <c r="E89" s="2">
-        <v>44689</v>
-      </c>
-      <c r="F89" t="s">
-        <v>707</v>
-      </c>
-      <c r="G89" t="s">
-        <v>708</v>
+      <c r="C89" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>89</v>
       </c>
-      <c r="C90" t="s">
-        <v>640</v>
-      </c>
-      <c r="E90" s="2">
-        <v>44704</v>
-      </c>
-      <c r="F90" t="s">
-        <v>641</v>
-      </c>
-      <c r="G90" t="s">
-        <v>642</v>
+      <c r="C90" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="E90" s="3">
+        <v>43831</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>90</v>
       </c>
-      <c r="C91" t="s">
-        <v>643</v>
+      <c r="C91" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>783</v>
       </c>
       <c r="E91" s="2">
-        <v>44710</v>
-      </c>
-      <c r="F91" t="s">
-        <v>644</v>
-      </c>
-      <c r="G91" t="s">
-        <v>645</v>
+        <v>43894</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>91</v>
       </c>
-      <c r="C92" t="s">
-        <v>810</v>
-      </c>
-      <c r="E92" s="2">
-        <v>44734</v>
-      </c>
-      <c r="F92" t="s">
-        <v>267</v>
-      </c>
-      <c r="G92" t="s">
-        <v>811</v>
+      <c r="C92" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E92" s="3">
+        <v>43913</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>13</v>
-      </c>
       <c r="B93" s="1">
         <v>92</v>
       </c>
-      <c r="C93" t="s">
-        <v>241</v>
-      </c>
-      <c r="D93" t="s">
-        <v>242</v>
-      </c>
-      <c r="E93" t="s">
-        <v>243</v>
-      </c>
-      <c r="F93" t="s">
-        <v>244</v>
-      </c>
-      <c r="G93" t="s">
-        <v>245</v>
+      <c r="C93" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E93" s="2">
+        <v>43931</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4909,89 +5325,77 @@
       <c r="B94" s="1">
         <v>93</v>
       </c>
-      <c r="C94" t="s">
-        <v>246</v>
-      </c>
-      <c r="D94" t="s">
-        <v>247</v>
-      </c>
-      <c r="E94" t="s">
-        <v>248</v>
-      </c>
-      <c r="F94" t="s">
-        <v>249</v>
-      </c>
-      <c r="G94" t="s">
-        <v>250</v>
+      <c r="C94" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E94" s="2">
+        <v>43938</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>13</v>
-      </c>
       <c r="B95" s="1">
         <v>94</v>
       </c>
-      <c r="C95" t="s">
-        <v>251</v>
-      </c>
-      <c r="D95" t="s">
-        <v>252</v>
-      </c>
-      <c r="E95" t="s">
-        <v>253</v>
-      </c>
-      <c r="F95" t="s">
-        <v>239</v>
-      </c>
-      <c r="G95" t="s">
-        <v>254</v>
+      <c r="C95" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E95" s="3">
+        <v>43954</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>13</v>
-      </c>
       <c r="B96" s="1">
         <v>95</v>
       </c>
-      <c r="C96" t="s">
-        <v>255</v>
-      </c>
-      <c r="D96" t="s">
-        <v>256</v>
-      </c>
-      <c r="E96" t="s">
-        <v>257</v>
-      </c>
-      <c r="F96" t="s">
-        <v>258</v>
-      </c>
-      <c r="G96" t="s">
-        <v>259</v>
+      <c r="C96" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E96" s="3">
+        <v>44141</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>13</v>
-      </c>
       <c r="B97" s="1">
         <v>96</v>
       </c>
-      <c r="C97" t="s">
-        <v>260</v>
-      </c>
-      <c r="D97" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" t="s">
-        <v>261</v>
-      </c>
-      <c r="F97" t="s">
-        <v>262</v>
-      </c>
-      <c r="G97" t="s">
-        <v>263</v>
+      <c r="C97" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44306</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -5001,37 +5405,43 @@
       <c r="B98" s="1">
         <v>97</v>
       </c>
-      <c r="C98" t="s">
-        <v>264</v>
-      </c>
-      <c r="D98" t="s">
-        <v>265</v>
-      </c>
-      <c r="E98" t="s">
-        <v>266</v>
-      </c>
-      <c r="F98" t="s">
-        <v>267</v>
-      </c>
-      <c r="G98" t="s">
-        <v>268</v>
+      <c r="C98" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
       <c r="B99" s="1">
         <v>98</v>
       </c>
-      <c r="C99" t="s">
-        <v>653</v>
-      </c>
-      <c r="E99" s="2">
-        <v>45053</v>
-      </c>
-      <c r="F99" t="s">
-        <v>654</v>
-      </c>
-      <c r="G99" t="s">
-        <v>655</v>
+      <c r="C99" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5041,261 +5451,228 @@
       <c r="B100" s="1">
         <v>99</v>
       </c>
-      <c r="C100" t="s">
-        <v>269</v>
-      </c>
-      <c r="D100" t="s">
-        <v>252</v>
-      </c>
-      <c r="E100" t="s">
-        <v>270</v>
-      </c>
-      <c r="F100" t="s">
-        <v>244</v>
-      </c>
-      <c r="G100" t="s">
-        <v>271</v>
+      <c r="C100" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>13</v>
-      </c>
       <c r="B101" s="1">
         <v>100</v>
       </c>
-      <c r="C101" t="s">
-        <v>272</v>
-      </c>
-      <c r="D101" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" t="s">
-        <v>273</v>
-      </c>
-      <c r="F101" t="s">
-        <v>244</v>
-      </c>
-      <c r="G101" t="s">
-        <v>274</v>
+      <c r="C101" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E101" s="2">
+        <v>44631</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>101</v>
       </c>
-      <c r="C102" t="s">
-        <v>659</v>
-      </c>
-      <c r="E102" s="2">
-        <v>45209</v>
-      </c>
-      <c r="F102" t="s">
-        <v>660</v>
-      </c>
-      <c r="G102" t="s">
-        <v>661</v>
+      <c r="C102" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E102" s="3">
+        <v>44641</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
       <c r="B103" s="1">
         <v>102</v>
       </c>
-      <c r="C103" t="s">
-        <v>662</v>
+      <c r="C103" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="E103" s="2">
-        <v>45364</v>
-      </c>
-      <c r="F103" t="s">
-        <v>663</v>
-      </c>
-      <c r="G103" t="s">
-        <v>664</v>
+        <v>44667</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>275</v>
-      </c>
       <c r="B104" s="1">
         <v>103</v>
       </c>
-      <c r="C104" t="s">
-        <v>276</v>
-      </c>
-      <c r="D104" t="s">
-        <v>277</v>
-      </c>
-      <c r="E104" t="s">
-        <v>278</v>
-      </c>
-      <c r="F104" t="s">
-        <v>279</v>
-      </c>
-      <c r="G104" t="s">
-        <v>280</v>
+      <c r="C104" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44676</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>13</v>
-      </c>
       <c r="B105" s="1">
         <v>104</v>
       </c>
-      <c r="C105" t="s">
-        <v>281</v>
-      </c>
-      <c r="D105" t="s">
-        <v>282</v>
-      </c>
-      <c r="E105" t="s">
-        <v>283</v>
-      </c>
-      <c r="F105" t="s">
-        <v>284</v>
-      </c>
-      <c r="G105" t="s">
-        <v>285</v>
+      <c r="C105" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44684</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>13</v>
-      </c>
       <c r="B106" s="1">
         <v>105</v>
       </c>
-      <c r="C106" t="s">
-        <v>286</v>
-      </c>
-      <c r="D106" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" t="s">
-        <v>287</v>
-      </c>
-      <c r="F106" t="s">
-        <v>288</v>
-      </c>
-      <c r="G106" t="s">
-        <v>289</v>
+      <c r="C106" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44689</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>290</v>
-      </c>
       <c r="B107" s="1">
         <v>106</v>
       </c>
-      <c r="C107" t="s">
-        <v>291</v>
-      </c>
-      <c r="D107" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" t="s">
-        <v>292</v>
-      </c>
-      <c r="F107" t="s">
-        <v>293</v>
-      </c>
-      <c r="G107" t="s">
-        <v>294</v>
+      <c r="C107" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44704</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>295</v>
-      </c>
       <c r="B108" s="1">
         <v>107</v>
       </c>
-      <c r="C108" t="s">
-        <v>296</v>
-      </c>
-      <c r="D108" t="s">
-        <v>297</v>
-      </c>
-      <c r="E108" t="s">
-        <v>298</v>
-      </c>
-      <c r="F108" t="s">
-        <v>299</v>
-      </c>
-      <c r="G108" t="s">
-        <v>300</v>
+      <c r="C108" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44710</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>305</v>
-      </c>
       <c r="B109" s="1">
         <v>108</v>
       </c>
-      <c r="C109" t="s">
-        <v>306</v>
-      </c>
-      <c r="D109" t="s">
-        <v>307</v>
-      </c>
-      <c r="E109" t="s">
-        <v>308</v>
-      </c>
-      <c r="F109" t="s">
-        <v>309</v>
-      </c>
-      <c r="G109" t="s">
-        <v>310</v>
+      <c r="C109" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E109" s="3">
+        <v>44710</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>13</v>
-      </c>
       <c r="B110" s="1">
         <v>109</v>
       </c>
-      <c r="C110" t="s">
-        <v>311</v>
-      </c>
-      <c r="D110" t="s">
-        <v>312</v>
-      </c>
-      <c r="E110" t="s">
-        <v>313</v>
-      </c>
-      <c r="F110" t="s">
-        <v>314</v>
-      </c>
-      <c r="G110" t="s">
-        <v>315</v>
+      <c r="C110" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44734</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>13</v>
-      </c>
       <c r="B111" s="1">
         <v>110</v>
       </c>
-      <c r="C111" t="s">
-        <v>316</v>
-      </c>
-      <c r="D111" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" t="s">
-        <v>317</v>
-      </c>
-      <c r="F111" t="s">
-        <v>318</v>
-      </c>
-      <c r="G111" t="s">
-        <v>319</v>
+      <c r="C111" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="E111" s="3">
+        <v>44840</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -5305,20 +5682,20 @@
       <c r="B112" s="1">
         <v>111</v>
       </c>
-      <c r="C112" t="s">
-        <v>320</v>
-      </c>
-      <c r="D112" t="s">
-        <v>321</v>
-      </c>
-      <c r="E112" t="s">
-        <v>322</v>
-      </c>
-      <c r="F112" t="s">
-        <v>323</v>
-      </c>
-      <c r="G112" t="s">
-        <v>324</v>
+      <c r="C112" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -5328,43 +5705,43 @@
       <c r="B113" s="1">
         <v>112</v>
       </c>
-      <c r="C113" t="s">
-        <v>325</v>
-      </c>
-      <c r="D113" t="s">
-        <v>119</v>
-      </c>
-      <c r="E113" t="s">
-        <v>326</v>
-      </c>
-      <c r="F113" t="s">
-        <v>327</v>
-      </c>
-      <c r="G113" t="s">
-        <v>328</v>
+      <c r="C113" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="B114" s="1">
         <v>113</v>
       </c>
-      <c r="C114" t="s">
-        <v>330</v>
-      </c>
-      <c r="D114" t="s">
-        <v>331</v>
-      </c>
-      <c r="E114" t="s">
-        <v>332</v>
-      </c>
-      <c r="F114" t="s">
-        <v>333</v>
-      </c>
-      <c r="G114" t="s">
-        <v>334</v>
+      <c r="C114" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5374,20 +5751,20 @@
       <c r="B115" s="1">
         <v>114</v>
       </c>
-      <c r="C115" t="s">
-        <v>335</v>
-      </c>
-      <c r="D115" t="s">
-        <v>336</v>
-      </c>
-      <c r="E115" t="s">
-        <v>337</v>
-      </c>
-      <c r="F115" t="s">
-        <v>338</v>
-      </c>
-      <c r="G115" t="s">
-        <v>339</v>
+      <c r="C115" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5397,20 +5774,20 @@
       <c r="B116" s="1">
         <v>115</v>
       </c>
-      <c r="C116" t="s">
-        <v>340</v>
-      </c>
-      <c r="D116" t="s">
-        <v>13</v>
-      </c>
-      <c r="E116" t="s">
-        <v>341</v>
-      </c>
-      <c r="F116" t="s">
-        <v>342</v>
-      </c>
-      <c r="G116" t="s">
-        <v>343</v>
+      <c r="C116" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5420,43 +5797,37 @@
       <c r="B117" s="1">
         <v>116</v>
       </c>
-      <c r="C117" t="s">
-        <v>344</v>
-      </c>
-      <c r="D117" t="s">
-        <v>345</v>
-      </c>
-      <c r="E117" t="s">
-        <v>346</v>
-      </c>
-      <c r="F117" t="s">
-        <v>347</v>
-      </c>
-      <c r="G117" t="s">
-        <v>348</v>
+      <c r="C117" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>13</v>
-      </c>
       <c r="B118" s="1">
         <v>117</v>
       </c>
-      <c r="C118" t="s">
-        <v>349</v>
-      </c>
-      <c r="D118" t="s">
-        <v>350</v>
-      </c>
-      <c r="E118" t="s">
-        <v>351</v>
-      </c>
-      <c r="F118" t="s">
-        <v>352</v>
-      </c>
-      <c r="G118" t="s">
-        <v>353</v>
+      <c r="C118" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45053</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5466,20 +5837,20 @@
       <c r="B119" s="1">
         <v>118</v>
       </c>
-      <c r="C119" t="s">
-        <v>354</v>
-      </c>
-      <c r="D119" t="s">
-        <v>13</v>
-      </c>
-      <c r="E119" t="s">
-        <v>355</v>
-      </c>
-      <c r="F119" t="s">
-        <v>356</v>
-      </c>
-      <c r="G119" t="s">
-        <v>357</v>
+      <c r="C119" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5489,109 +5860,100 @@
       <c r="B120" s="1">
         <v>119</v>
       </c>
-      <c r="C120" t="s">
-        <v>358</v>
-      </c>
-      <c r="D120" t="s">
-        <v>43</v>
-      </c>
-      <c r="E120" t="s">
-        <v>359</v>
-      </c>
-      <c r="F120" t="s">
-        <v>356</v>
-      </c>
-      <c r="G120" t="s">
-        <v>360</v>
+      <c r="C120" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>120</v>
       </c>
-      <c r="C121" t="s">
-        <v>649</v>
-      </c>
-      <c r="D121" t="s">
-        <v>650</v>
-      </c>
-      <c r="E121" s="2">
-        <v>45049</v>
-      </c>
-      <c r="F121" t="s">
-        <v>651</v>
-      </c>
-      <c r="G121" t="s">
-        <v>652</v>
+      <c r="C121" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E121" s="3">
+        <v>45190</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>361</v>
-      </c>
       <c r="B122" s="1">
         <v>121</v>
       </c>
-      <c r="C122" t="s">
-        <v>362</v>
-      </c>
-      <c r="D122" t="s">
-        <v>363</v>
-      </c>
-      <c r="E122" t="s">
-        <v>364</v>
-      </c>
-      <c r="F122" t="s">
-        <v>365</v>
-      </c>
-      <c r="G122" t="s">
-        <v>366</v>
+      <c r="C122" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45209</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>13</v>
-      </c>
       <c r="B123" s="1">
         <v>122</v>
       </c>
-      <c r="C123" t="s">
-        <v>367</v>
-      </c>
-      <c r="D123" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" t="s">
-        <v>368</v>
-      </c>
-      <c r="F123" t="s">
-        <v>369</v>
-      </c>
-      <c r="G123" t="s">
-        <v>370</v>
+      <c r="C123" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45364</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>13</v>
+        <v>275</v>
       </c>
       <c r="B124" s="1">
         <v>123</v>
       </c>
-      <c r="C124" t="s">
-        <v>371</v>
-      </c>
-      <c r="D124" t="s">
-        <v>372</v>
-      </c>
-      <c r="E124" t="s">
-        <v>373</v>
-      </c>
-      <c r="F124" t="s">
-        <v>374</v>
-      </c>
-      <c r="G124" t="s">
-        <v>375</v>
+      <c r="C124" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -5601,20 +5963,20 @@
       <c r="B125" s="1">
         <v>124</v>
       </c>
-      <c r="C125" t="s">
-        <v>376</v>
-      </c>
-      <c r="D125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" t="s">
-        <v>377</v>
-      </c>
-      <c r="F125" t="s">
-        <v>378</v>
-      </c>
-      <c r="G125" t="s">
-        <v>379</v>
+      <c r="C125" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -5624,89 +5986,89 @@
       <c r="B126" s="1">
         <v>125</v>
       </c>
-      <c r="C126" t="s">
-        <v>380</v>
-      </c>
-      <c r="D126" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" t="s">
-        <v>381</v>
-      </c>
-      <c r="F126" t="s">
-        <v>382</v>
-      </c>
-      <c r="G126" t="s">
-        <v>383</v>
+      <c r="C126" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="B127" s="1">
         <v>126</v>
       </c>
-      <c r="C127" t="s">
-        <v>384</v>
-      </c>
-      <c r="D127" t="s">
-        <v>385</v>
-      </c>
-      <c r="E127" t="s">
-        <v>386</v>
-      </c>
-      <c r="F127" t="s">
-        <v>387</v>
-      </c>
-      <c r="G127" t="s">
-        <v>388</v>
+      <c r="C127" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>13</v>
+        <v>295</v>
       </c>
       <c r="B128" s="1">
         <v>127</v>
       </c>
-      <c r="C128" t="s">
-        <v>389</v>
-      </c>
-      <c r="D128" t="s">
-        <v>390</v>
-      </c>
-      <c r="E128" t="s">
-        <v>391</v>
-      </c>
-      <c r="F128" t="s">
-        <v>392</v>
-      </c>
-      <c r="G128" t="s">
-        <v>393</v>
+      <c r="C128" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>13</v>
+        <v>305</v>
       </c>
       <c r="B129" s="1">
         <v>128</v>
       </c>
-      <c r="C129" t="s">
-        <v>394</v>
-      </c>
-      <c r="D129" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" t="s">
-        <v>395</v>
-      </c>
-      <c r="F129" t="s">
-        <v>396</v>
-      </c>
-      <c r="G129" t="s">
-        <v>397</v>
+      <c r="C129" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5716,20 +6078,20 @@
       <c r="B130" s="1">
         <v>129</v>
       </c>
-      <c r="C130" t="s">
-        <v>398</v>
-      </c>
-      <c r="D130" t="s">
-        <v>13</v>
-      </c>
-      <c r="E130" t="s">
-        <v>399</v>
-      </c>
-      <c r="F130" t="s">
-        <v>400</v>
-      </c>
-      <c r="G130" t="s">
-        <v>401</v>
+      <c r="C130" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5739,20 +6101,20 @@
       <c r="B131" s="1">
         <v>130</v>
       </c>
-      <c r="C131" t="s">
-        <v>402</v>
-      </c>
-      <c r="D131" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" t="s">
-        <v>403</v>
-      </c>
-      <c r="F131" t="s">
-        <v>404</v>
-      </c>
-      <c r="G131" t="s">
-        <v>405</v>
+      <c r="C131" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5762,20 +6124,20 @@
       <c r="B132" s="1">
         <v>131</v>
       </c>
-      <c r="C132" t="s">
-        <v>406</v>
-      </c>
-      <c r="D132" t="s">
-        <v>13</v>
-      </c>
-      <c r="E132" t="s">
-        <v>407</v>
-      </c>
-      <c r="F132" t="s">
-        <v>408</v>
-      </c>
-      <c r="G132" t="s">
-        <v>409</v>
+      <c r="C132" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5785,43 +6147,43 @@
       <c r="B133" s="1">
         <v>132</v>
       </c>
-      <c r="C133" t="s">
-        <v>410</v>
-      </c>
-      <c r="D133" t="s">
-        <v>411</v>
-      </c>
-      <c r="E133" t="s">
-        <v>412</v>
-      </c>
-      <c r="F133" t="s">
-        <v>413</v>
-      </c>
-      <c r="G133" t="s">
-        <v>414</v>
+      <c r="C133" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="B134" s="1">
         <v>133</v>
       </c>
-      <c r="C134" t="s">
-        <v>415</v>
-      </c>
-      <c r="D134" t="s">
-        <v>416</v>
-      </c>
-      <c r="E134" t="s">
-        <v>359</v>
-      </c>
-      <c r="F134" t="s">
-        <v>417</v>
-      </c>
-      <c r="G134" t="s">
-        <v>418</v>
+      <c r="C134" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5831,20 +6193,20 @@
       <c r="B135" s="1">
         <v>134</v>
       </c>
-      <c r="C135" t="s">
-        <v>419</v>
-      </c>
-      <c r="D135" t="s">
-        <v>420</v>
-      </c>
-      <c r="E135" t="s">
-        <v>421</v>
-      </c>
-      <c r="F135" t="s">
-        <v>422</v>
-      </c>
-      <c r="G135" t="s">
-        <v>423</v>
+      <c r="C135" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5854,20 +6216,20 @@
       <c r="B136" s="1">
         <v>135</v>
       </c>
-      <c r="C136" t="s">
-        <v>424</v>
-      </c>
-      <c r="D136" t="s">
-        <v>425</v>
-      </c>
-      <c r="E136" t="s">
-        <v>426</v>
-      </c>
-      <c r="F136" t="s">
-        <v>427</v>
-      </c>
-      <c r="G136" t="s">
-        <v>428</v>
+      <c r="C136" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5877,20 +6239,20 @@
       <c r="B137" s="1">
         <v>136</v>
       </c>
-      <c r="C137" t="s">
-        <v>429</v>
-      </c>
-      <c r="D137" t="s">
-        <v>119</v>
-      </c>
-      <c r="E137" t="s">
-        <v>430</v>
-      </c>
-      <c r="F137" t="s">
-        <v>431</v>
-      </c>
-      <c r="G137" t="s">
-        <v>432</v>
+      <c r="C137" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5900,20 +6262,20 @@
       <c r="B138" s="1">
         <v>137</v>
       </c>
-      <c r="C138" t="s">
-        <v>433</v>
-      </c>
-      <c r="D138" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" t="s">
-        <v>434</v>
-      </c>
-      <c r="F138" t="s">
-        <v>408</v>
-      </c>
-      <c r="G138" t="s">
-        <v>435</v>
+      <c r="C138" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5923,83 +6285,86 @@
       <c r="B139" s="1">
         <v>138</v>
       </c>
-      <c r="C139" t="s">
-        <v>436</v>
-      </c>
-      <c r="D139" t="s">
-        <v>437</v>
-      </c>
-      <c r="E139" t="s">
-        <v>438</v>
-      </c>
-      <c r="F139" t="s">
-        <v>404</v>
-      </c>
-      <c r="G139" t="s">
-        <v>439</v>
+      <c r="C139" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
       <c r="B140" s="1">
         <v>139</v>
       </c>
-      <c r="C140" t="s">
-        <v>656</v>
-      </c>
-      <c r="E140" s="2">
-        <v>45132</v>
-      </c>
-      <c r="F140" t="s">
-        <v>657</v>
-      </c>
-      <c r="G140" t="s">
-        <v>658</v>
+      <c r="C140" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>440</v>
-      </c>
       <c r="B141" s="1">
         <v>140</v>
       </c>
-      <c r="C141" t="s">
-        <v>441</v>
-      </c>
-      <c r="D141" t="s">
-        <v>442</v>
-      </c>
-      <c r="E141" t="s">
-        <v>443</v>
-      </c>
-      <c r="F141" t="s">
-        <v>444</v>
-      </c>
-      <c r="G141" t="s">
-        <v>445</v>
+      <c r="C141" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45049</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="B142" s="1">
         <v>141</v>
       </c>
-      <c r="C142" t="s">
-        <v>446</v>
-      </c>
-      <c r="D142" t="s">
-        <v>13</v>
-      </c>
-      <c r="E142" t="s">
-        <v>447</v>
-      </c>
-      <c r="F142" t="s">
-        <v>448</v>
-      </c>
-      <c r="G142" t="s">
-        <v>449</v>
+      <c r="C142" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -6009,20 +6374,20 @@
       <c r="B143" s="1">
         <v>142</v>
       </c>
-      <c r="C143" t="s">
-        <v>450</v>
-      </c>
-      <c r="D143" t="s">
-        <v>451</v>
-      </c>
-      <c r="E143" t="s">
-        <v>452</v>
-      </c>
-      <c r="F143" t="s">
-        <v>453</v>
-      </c>
-      <c r="G143" t="s">
-        <v>454</v>
+      <c r="C143" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -6032,20 +6397,20 @@
       <c r="B144" s="1">
         <v>143</v>
       </c>
-      <c r="C144" t="s">
-        <v>455</v>
-      </c>
-      <c r="D144" t="s">
-        <v>456</v>
-      </c>
-      <c r="E144" t="s">
-        <v>457</v>
-      </c>
-      <c r="F144" t="s">
-        <v>458</v>
-      </c>
-      <c r="G144" t="s">
-        <v>459</v>
+      <c r="C144" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -6055,20 +6420,20 @@
       <c r="B145" s="1">
         <v>144</v>
       </c>
-      <c r="C145" t="s">
-        <v>460</v>
-      </c>
-      <c r="D145" t="s">
-        <v>461</v>
-      </c>
-      <c r="E145" t="s">
-        <v>462</v>
-      </c>
-      <c r="F145" t="s">
-        <v>463</v>
-      </c>
-      <c r="G145" t="s">
-        <v>464</v>
+      <c r="C145" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -6078,20 +6443,20 @@
       <c r="B146" s="1">
         <v>145</v>
       </c>
-      <c r="C146" t="s">
-        <v>465</v>
-      </c>
-      <c r="D146" t="s">
-        <v>13</v>
-      </c>
-      <c r="E146" t="s">
-        <v>466</v>
-      </c>
-      <c r="F146" t="s">
-        <v>467</v>
-      </c>
-      <c r="G146" t="s">
-        <v>468</v>
+      <c r="C146" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -6101,20 +6466,20 @@
       <c r="B147" s="1">
         <v>146</v>
       </c>
-      <c r="C147" t="s">
-        <v>469</v>
-      </c>
-      <c r="D147" t="s">
-        <v>470</v>
-      </c>
-      <c r="E147" t="s">
-        <v>471</v>
-      </c>
-      <c r="F147" t="s">
-        <v>472</v>
-      </c>
-      <c r="G147" t="s">
-        <v>473</v>
+      <c r="C147" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -6124,20 +6489,20 @@
       <c r="B148" s="1">
         <v>147</v>
       </c>
-      <c r="C148" t="s">
-        <v>474</v>
-      </c>
-      <c r="D148" t="s">
-        <v>13</v>
-      </c>
-      <c r="E148" t="s">
-        <v>475</v>
-      </c>
-      <c r="F148" t="s">
-        <v>476</v>
-      </c>
-      <c r="G148" t="s">
-        <v>477</v>
+      <c r="C148" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -6147,20 +6512,20 @@
       <c r="B149" s="1">
         <v>148</v>
       </c>
-      <c r="C149" t="s">
-        <v>478</v>
-      </c>
-      <c r="D149" t="s">
-        <v>13</v>
-      </c>
-      <c r="E149" t="s">
-        <v>479</v>
-      </c>
-      <c r="F149" t="s">
-        <v>480</v>
-      </c>
-      <c r="G149" t="s">
-        <v>481</v>
+      <c r="C149" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -6170,20 +6535,20 @@
       <c r="B150" s="1">
         <v>149</v>
       </c>
-      <c r="C150" t="s">
-        <v>482</v>
-      </c>
-      <c r="D150" t="s">
-        <v>483</v>
-      </c>
-      <c r="E150" t="s">
-        <v>230</v>
-      </c>
-      <c r="F150" t="s">
-        <v>484</v>
-      </c>
-      <c r="G150" t="s">
-        <v>485</v>
+      <c r="C150" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -6193,20 +6558,20 @@
       <c r="B151" s="1">
         <v>150</v>
       </c>
-      <c r="C151" t="s">
-        <v>486</v>
-      </c>
-      <c r="D151" t="s">
-        <v>487</v>
-      </c>
-      <c r="E151" t="s">
-        <v>488</v>
-      </c>
-      <c r="F151" t="s">
-        <v>489</v>
-      </c>
-      <c r="G151" t="s">
-        <v>490</v>
+      <c r="C151" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -6216,20 +6581,20 @@
       <c r="B152" s="1">
         <v>151</v>
       </c>
-      <c r="C152" t="s">
-        <v>491</v>
-      </c>
-      <c r="D152" t="s">
-        <v>487</v>
-      </c>
-      <c r="E152" t="s">
-        <v>492</v>
-      </c>
-      <c r="F152" t="s">
-        <v>493</v>
-      </c>
-      <c r="G152" t="s">
-        <v>494</v>
+      <c r="C152" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -6239,1052 +6604,1985 @@
       <c r="B153" s="1">
         <v>152</v>
       </c>
-      <c r="C153" t="s">
-        <v>495</v>
-      </c>
-      <c r="D153" t="s">
-        <v>496</v>
-      </c>
-      <c r="E153" t="s">
-        <v>497</v>
-      </c>
-      <c r="F153" t="s">
-        <v>498</v>
-      </c>
-      <c r="G153" t="s">
-        <v>499</v>
+      <c r="C153" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>624</v>
+        <v>13</v>
       </c>
       <c r="B154" s="1">
         <v>153</v>
       </c>
-      <c r="C154" t="s">
-        <v>696</v>
-      </c>
-      <c r="E154" s="2">
-        <v>43572</v>
-      </c>
-      <c r="F154" t="s">
-        <v>697</v>
-      </c>
-      <c r="G154" t="s">
-        <v>698</v>
+      <c r="C154" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
       <c r="B155" s="1">
         <v>154</v>
       </c>
-      <c r="C155" t="s">
-        <v>779</v>
-      </c>
-      <c r="D155" t="s">
-        <v>616</v>
-      </c>
-      <c r="E155" s="2">
-        <v>43617</v>
-      </c>
-      <c r="F155" t="s">
-        <v>780</v>
-      </c>
-      <c r="G155" t="s">
-        <v>781</v>
+      <c r="C155" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
       <c r="B156" s="1">
         <v>155</v>
       </c>
-      <c r="C156" t="s">
-        <v>786</v>
-      </c>
-      <c r="D156" t="s">
-        <v>787</v>
-      </c>
-      <c r="E156" s="2">
-        <v>43948</v>
-      </c>
-      <c r="F156" t="s">
-        <v>788</v>
-      </c>
-      <c r="G156" t="s">
-        <v>789</v>
+      <c r="C156" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
       <c r="B157" s="1">
         <v>156</v>
       </c>
-      <c r="C157" t="s">
-        <v>790</v>
-      </c>
-      <c r="D157" t="s">
-        <v>616</v>
-      </c>
-      <c r="E157" s="2">
-        <v>44158</v>
-      </c>
-      <c r="F157" t="s">
-        <v>791</v>
-      </c>
-      <c r="G157" t="s">
-        <v>792</v>
+      <c r="C157" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>13</v>
+      </c>
       <c r="B158" s="1">
         <v>157</v>
       </c>
-      <c r="C158" t="s">
-        <v>793</v>
-      </c>
-      <c r="D158" t="s">
-        <v>794</v>
-      </c>
-      <c r="E158" s="2">
-        <v>44188</v>
-      </c>
-      <c r="F158" t="s">
-        <v>795</v>
-      </c>
-      <c r="G158" t="s">
-        <v>796</v>
+      <c r="C158" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>13</v>
+      </c>
       <c r="B159" s="1">
         <v>158</v>
       </c>
-      <c r="C159" t="s">
-        <v>625</v>
-      </c>
-      <c r="E159" s="2">
-        <v>44303</v>
-      </c>
-      <c r="F159" t="s">
-        <v>626</v>
-      </c>
-      <c r="G159" t="s">
-        <v>627</v>
+      <c r="C159" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>159</v>
       </c>
-      <c r="C160" t="s">
-        <v>682</v>
-      </c>
-      <c r="D160" t="s">
-        <v>119</v>
-      </c>
-      <c r="E160" s="2">
-        <v>44420</v>
-      </c>
-      <c r="F160" t="s">
-        <v>683</v>
-      </c>
-      <c r="G160" t="s">
-        <v>684</v>
+      <c r="C160" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E160" s="3">
+        <v>45069</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>160</v>
       </c>
-      <c r="C161" t="s">
-        <v>632</v>
-      </c>
-      <c r="D161" t="s">
-        <v>633</v>
+      <c r="C161" s="1" t="s">
+        <v>656</v>
       </c>
       <c r="E161" s="2">
-        <v>44636</v>
-      </c>
-      <c r="F161" t="s">
-        <v>634</v>
-      </c>
-      <c r="G161" t="s">
-        <v>635</v>
+        <v>45132</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>440</v>
+      </c>
       <c r="B162" s="1">
         <v>161</v>
       </c>
-      <c r="C162" t="s">
-        <v>646</v>
-      </c>
-      <c r="E162" s="2">
-        <v>44781</v>
-      </c>
-      <c r="F162" t="s">
-        <v>647</v>
-      </c>
-      <c r="G162" t="s">
-        <v>648</v>
+      <c r="C162" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E162" s="3">
+        <v>33604</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>162</v>
       </c>
-      <c r="C163" t="s">
-        <v>768</v>
-      </c>
-      <c r="D163" t="s">
-        <v>769</v>
-      </c>
-      <c r="E163" s="2">
-        <v>44913</v>
-      </c>
-      <c r="F163" t="s">
-        <v>770</v>
-      </c>
-      <c r="G163" t="s">
-        <v>771</v>
+      <c r="C163" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E163" s="3">
+        <v>35796</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>628</v>
-      </c>
       <c r="B164" s="1">
         <v>163</v>
       </c>
-      <c r="C164" t="s">
-        <v>717</v>
-      </c>
-      <c r="D164" t="s">
-        <v>616</v>
-      </c>
-      <c r="E164" s="2">
-        <v>42219</v>
-      </c>
-      <c r="F164" t="s">
-        <v>718</v>
-      </c>
-      <c r="G164" t="s">
-        <v>719</v>
+      <c r="C164" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="E164" s="3">
+        <v>36161</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>164</v>
       </c>
-      <c r="C165" t="s">
-        <v>776</v>
-      </c>
-      <c r="D165" t="s">
-        <v>616</v>
-      </c>
-      <c r="E165" s="2">
-        <v>42914</v>
-      </c>
-      <c r="F165" t="s">
-        <v>777</v>
-      </c>
-      <c r="G165" t="s">
-        <v>778</v>
+      <c r="C165" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E165" s="3">
+        <v>41275</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>165</v>
       </c>
-      <c r="C166" t="s">
-        <v>731</v>
-      </c>
-      <c r="D166" t="s">
-        <v>616</v>
-      </c>
-      <c r="E166" s="2">
-        <v>42978</v>
-      </c>
-      <c r="F166" t="s">
-        <v>732</v>
-      </c>
-      <c r="G166" t="s">
-        <v>733</v>
+      <c r="C166" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>13</v>
+      </c>
       <c r="B167" s="1">
         <v>166</v>
       </c>
-      <c r="C167" t="s">
-        <v>699</v>
-      </c>
-      <c r="D167" t="s">
-        <v>700</v>
-      </c>
-      <c r="E167" s="2">
-        <v>43926</v>
-      </c>
-      <c r="F167" t="s">
-        <v>701</v>
-      </c>
-      <c r="G167" t="s">
-        <v>702</v>
+      <c r="C167" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
       <c r="B168" s="1">
         <v>167</v>
       </c>
-      <c r="C168" t="s">
-        <v>679</v>
-      </c>
-      <c r="D168" t="s">
-        <v>420</v>
-      </c>
-      <c r="E168" s="2">
-        <v>44176</v>
-      </c>
-      <c r="F168" t="s">
-        <v>680</v>
-      </c>
-      <c r="G168" t="s">
-        <v>681</v>
+      <c r="C168" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
       <c r="B169" s="1">
         <v>168</v>
       </c>
-      <c r="C169" t="s">
-        <v>756</v>
-      </c>
-      <c r="E169" s="2">
-        <v>43922</v>
-      </c>
-      <c r="F169" t="s">
-        <v>757</v>
-      </c>
-      <c r="G169" t="s">
-        <v>758</v>
+      <c r="C169" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
       <c r="B170" s="1">
         <v>169</v>
       </c>
-      <c r="C170" t="s">
-        <v>797</v>
-      </c>
-      <c r="D170" t="s">
-        <v>798</v>
-      </c>
-      <c r="E170" s="2">
-        <v>44197</v>
-      </c>
-      <c r="F170" t="s">
-        <v>799</v>
-      </c>
-      <c r="G170" t="s">
-        <v>800</v>
+      <c r="C170" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>170</v>
       </c>
-      <c r="C171" t="s">
-        <v>703</v>
-      </c>
-      <c r="D171" t="s">
-        <v>532</v>
-      </c>
-      <c r="E171" s="2">
-        <v>44333</v>
-      </c>
-      <c r="F171" t="s">
-        <v>704</v>
-      </c>
-      <c r="G171" t="s">
-        <v>705</v>
+      <c r="C171" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="E171" s="3">
+        <v>43515</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
       <c r="B172" s="1">
         <v>171</v>
       </c>
-      <c r="C172" t="s">
-        <v>734</v>
-      </c>
-      <c r="D172" t="s">
-        <v>735</v>
-      </c>
-      <c r="E172" s="2">
-        <v>44373</v>
-      </c>
-      <c r="F172" t="s">
-        <v>736</v>
-      </c>
-      <c r="G172" t="s">
-        <v>737</v>
+      <c r="C172" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
       <c r="B173" s="1">
         <v>172</v>
       </c>
-      <c r="C173" t="s">
-        <v>629</v>
-      </c>
-      <c r="D173" t="s">
-        <v>616</v>
-      </c>
-      <c r="E173" s="2">
-        <v>44544</v>
-      </c>
-      <c r="F173" t="s">
-        <v>630</v>
-      </c>
-      <c r="G173" t="s">
-        <v>631</v>
+      <c r="C173" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
       <c r="B174" s="1">
         <v>173</v>
       </c>
-      <c r="C174" t="s">
-        <v>812</v>
-      </c>
-      <c r="D174" t="s">
-        <v>487</v>
-      </c>
-      <c r="E174" s="2">
-        <v>44750</v>
-      </c>
-      <c r="F174" t="s">
-        <v>813</v>
-      </c>
-      <c r="G174" t="s">
-        <v>814</v>
+      <c r="C174" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
       <c r="B175" s="1">
         <v>174</v>
       </c>
-      <c r="C175" t="s">
-        <v>765</v>
-      </c>
-      <c r="E175" s="2">
-        <v>44760</v>
-      </c>
-      <c r="F175" t="s">
-        <v>766</v>
-      </c>
-      <c r="G175" t="s">
-        <v>767</v>
+      <c r="C175" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>13</v>
+      </c>
       <c r="B176" s="1">
         <v>175</v>
       </c>
-      <c r="C176" t="s">
-        <v>815</v>
-      </c>
-      <c r="D176" t="s">
-        <v>816</v>
-      </c>
-      <c r="E176" s="2">
-        <v>44957</v>
-      </c>
-      <c r="F176" t="s">
-        <v>817</v>
-      </c>
-      <c r="G176" t="s">
-        <v>818</v>
+      <c r="C176" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>13</v>
+      </c>
       <c r="B177" s="1">
         <v>176</v>
       </c>
-      <c r="C177" t="s">
-        <v>819</v>
-      </c>
-      <c r="D177" t="s">
-        <v>820</v>
-      </c>
-      <c r="E177" s="2">
-        <v>45037</v>
-      </c>
-      <c r="F177" t="s">
-        <v>821</v>
-      </c>
-      <c r="G177" t="s">
-        <v>822</v>
+      <c r="C177" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
       <c r="B178" s="1">
         <v>177</v>
       </c>
-      <c r="C178" t="s">
-        <v>823</v>
-      </c>
-      <c r="D178" t="s">
-        <v>824</v>
-      </c>
-      <c r="E178" s="2">
-        <v>45292</v>
-      </c>
-      <c r="F178" t="s">
-        <v>825</v>
-      </c>
-      <c r="G178" t="s">
-        <v>826</v>
+      <c r="C178" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>500</v>
+        <v>13</v>
       </c>
       <c r="B179" s="1">
         <v>178</v>
       </c>
-      <c r="C179" t="s">
-        <v>725</v>
-      </c>
-      <c r="E179" s="2">
-        <v>42552</v>
-      </c>
-      <c r="F179" t="s">
-        <v>726</v>
-      </c>
-      <c r="G179" t="s">
-        <v>727</v>
+      <c r="C179" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>624</v>
+      </c>
       <c r="B180" s="1">
         <v>179</v>
       </c>
-      <c r="C180" t="s">
-        <v>728</v>
+      <c r="C180" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="E180" s="2">
-        <v>42661</v>
-      </c>
-      <c r="F180" t="s">
-        <v>729</v>
-      </c>
-      <c r="G180" t="s">
-        <v>730</v>
+        <v>43572</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>180</v>
       </c>
-      <c r="C181" t="s">
-        <v>501</v>
-      </c>
-      <c r="D181" t="s">
-        <v>502</v>
-      </c>
-      <c r="E181" t="s">
-        <v>503</v>
-      </c>
-      <c r="F181" t="s">
-        <v>504</v>
-      </c>
-      <c r="G181" t="s">
-        <v>505</v>
+      <c r="C181" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E181" s="2">
+        <v>43617</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>13</v>
-      </c>
       <c r="B182" s="1">
         <v>181</v>
       </c>
-      <c r="C182" t="s">
-        <v>506</v>
-      </c>
-      <c r="D182" t="s">
-        <v>390</v>
-      </c>
-      <c r="E182" t="s">
-        <v>507</v>
-      </c>
-      <c r="F182" t="s">
-        <v>508</v>
-      </c>
-      <c r="G182" t="s">
-        <v>509</v>
+      <c r="C182" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E182" s="2">
+        <v>43948</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>13</v>
-      </c>
       <c r="B183" s="1">
         <v>182</v>
       </c>
-      <c r="C183" t="s">
-        <v>510</v>
-      </c>
-      <c r="D183" t="s">
-        <v>202</v>
-      </c>
-      <c r="E183" t="s">
-        <v>511</v>
-      </c>
-      <c r="F183" t="s">
-        <v>512</v>
-      </c>
-      <c r="G183" t="s">
-        <v>513</v>
+      <c r="C183" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44158</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>13</v>
-      </c>
       <c r="B184" s="1">
         <v>183</v>
       </c>
-      <c r="C184" t="s">
-        <v>514</v>
-      </c>
-      <c r="D184" t="s">
-        <v>515</v>
-      </c>
-      <c r="E184" t="s">
-        <v>516</v>
-      </c>
-      <c r="F184" t="s">
-        <v>517</v>
-      </c>
-      <c r="G184" t="s">
-        <v>518</v>
+      <c r="C184" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44188</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>13</v>
-      </c>
       <c r="B185" s="1">
         <v>184</v>
       </c>
-      <c r="C185" t="s">
-        <v>519</v>
-      </c>
-      <c r="D185" t="s">
-        <v>207</v>
-      </c>
-      <c r="E185" t="s">
-        <v>520</v>
-      </c>
-      <c r="F185" t="s">
-        <v>521</v>
-      </c>
-      <c r="G185" t="s">
-        <v>522</v>
+      <c r="C185" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44303</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>13</v>
-      </c>
       <c r="B186" s="1">
         <v>185</v>
       </c>
-      <c r="C186" t="s">
-        <v>523</v>
-      </c>
-      <c r="D186" t="s">
-        <v>411</v>
-      </c>
-      <c r="E186" t="s">
-        <v>524</v>
-      </c>
-      <c r="F186" t="s">
-        <v>525</v>
-      </c>
-      <c r="G186" t="s">
-        <v>526</v>
+      <c r="C186" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44420</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>13</v>
-      </c>
       <c r="B187" s="1">
         <v>186</v>
       </c>
-      <c r="C187" t="s">
-        <v>527</v>
-      </c>
-      <c r="D187" t="s">
-        <v>528</v>
-      </c>
-      <c r="E187" t="s">
-        <v>529</v>
-      </c>
-      <c r="F187" t="s">
-        <v>508</v>
-      </c>
-      <c r="G187" t="s">
-        <v>530</v>
+      <c r="C187" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44636</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>13</v>
-      </c>
       <c r="B188" s="1">
         <v>187</v>
       </c>
-      <c r="C188" t="s">
-        <v>531</v>
-      </c>
-      <c r="D188" t="s">
-        <v>532</v>
-      </c>
-      <c r="E188" t="s">
-        <v>533</v>
-      </c>
-      <c r="F188" t="s">
-        <v>534</v>
-      </c>
-      <c r="G188" t="s">
-        <v>535</v>
+      <c r="C188" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44781</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>188</v>
       </c>
-      <c r="C189" t="s">
-        <v>672</v>
-      </c>
-      <c r="D189" t="s">
-        <v>673</v>
+      <c r="C189" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>769</v>
       </c>
       <c r="E189" s="2">
-        <v>44081</v>
-      </c>
-      <c r="F189" t="s">
-        <v>674</v>
-      </c>
-      <c r="G189" t="s">
-        <v>675</v>
+        <v>44913</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>628</v>
+      </c>
       <c r="B190" s="1">
         <v>189</v>
       </c>
-      <c r="C190" t="s">
-        <v>676</v>
-      </c>
-      <c r="D190" t="s">
-        <v>621</v>
+      <c r="C190" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="E190" s="2">
-        <v>44106</v>
-      </c>
-      <c r="F190" t="s">
-        <v>677</v>
-      </c>
-      <c r="G190" t="s">
-        <v>678</v>
+        <v>42219</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>190</v>
       </c>
-      <c r="C191" t="s">
-        <v>753</v>
+      <c r="C191" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="E191" s="2">
-        <v>44179</v>
-      </c>
-      <c r="F191" t="s">
-        <v>754</v>
-      </c>
-      <c r="G191" t="s">
-        <v>755</v>
+        <v>42914</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>13</v>
-      </c>
       <c r="B192" s="1">
         <v>191</v>
       </c>
-      <c r="C192" t="s">
-        <v>540</v>
-      </c>
-      <c r="D192" t="s">
-        <v>541</v>
-      </c>
-      <c r="E192" t="s">
-        <v>542</v>
-      </c>
-      <c r="F192" t="s">
-        <v>543</v>
-      </c>
-      <c r="G192" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C192" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E192" s="2">
+        <v>42978</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>192</v>
       </c>
-      <c r="C193" t="s">
-        <v>536</v>
-      </c>
-      <c r="D193" t="s">
-        <v>13</v>
-      </c>
-      <c r="E193" t="s">
-        <v>537</v>
-      </c>
-      <c r="F193" t="s">
-        <v>538</v>
-      </c>
-      <c r="G193" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C193" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="E193" s="3">
+        <v>43232</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>193</v>
       </c>
-      <c r="C194" t="s">
-        <v>807</v>
-      </c>
-      <c r="E194" s="2">
-        <v>44481</v>
-      </c>
-      <c r="F194" t="s">
-        <v>808</v>
-      </c>
-      <c r="G194" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>13</v>
-      </c>
+      <c r="C194" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E194" s="3">
+        <v>43348</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>194</v>
       </c>
-      <c r="C195" t="s">
-        <v>545</v>
-      </c>
-      <c r="D195" t="s">
-        <v>546</v>
-      </c>
-      <c r="E195" t="s">
-        <v>230</v>
-      </c>
-      <c r="F195" t="s">
-        <v>547</v>
-      </c>
-      <c r="G195" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>549</v>
-      </c>
+      <c r="C195" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E195" s="3">
+        <v>43713</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>195</v>
       </c>
-      <c r="C196" t="s">
-        <v>550</v>
-      </c>
-      <c r="D196" t="s">
-        <v>13</v>
-      </c>
-      <c r="E196" t="s">
-        <v>551</v>
-      </c>
-      <c r="F196" t="s">
-        <v>552</v>
-      </c>
-      <c r="G196" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>13</v>
-      </c>
+      <c r="C196" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E196" s="2">
+        <v>43926</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>196</v>
       </c>
-      <c r="C197" t="s">
-        <v>554</v>
-      </c>
-      <c r="D197" t="s">
-        <v>13</v>
-      </c>
-      <c r="E197" t="s">
-        <v>555</v>
-      </c>
-      <c r="F197" t="s">
-        <v>556</v>
-      </c>
-      <c r="G197" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>13</v>
-      </c>
+      <c r="C197" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44176</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>197</v>
       </c>
-      <c r="C198" t="s">
-        <v>558</v>
-      </c>
-      <c r="D198" t="s">
-        <v>13</v>
-      </c>
-      <c r="E198" t="s">
-        <v>559</v>
-      </c>
-      <c r="F198" t="s">
-        <v>560</v>
-      </c>
-      <c r="G198" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>13</v>
-      </c>
+      <c r="C198" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E198" s="2">
+        <v>43922</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>198</v>
       </c>
-      <c r="C199" t="s">
-        <v>562</v>
-      </c>
-      <c r="D199" t="s">
-        <v>563</v>
-      </c>
-      <c r="E199" t="s">
-        <v>564</v>
-      </c>
-      <c r="F199" t="s">
-        <v>565</v>
-      </c>
-      <c r="G199" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>13</v>
-      </c>
+      <c r="C199" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E199" s="3">
+        <v>43943</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>199</v>
       </c>
-      <c r="C200" t="s">
-        <v>567</v>
-      </c>
-      <c r="D200" t="s">
-        <v>13</v>
-      </c>
-      <c r="E200" t="s">
-        <v>568</v>
-      </c>
-      <c r="F200" t="s">
-        <v>569</v>
-      </c>
-      <c r="G200" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>13</v>
-      </c>
+      <c r="C200" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E200" s="3">
+        <v>43951</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>200</v>
       </c>
-      <c r="C201" t="s">
-        <v>571</v>
-      </c>
-      <c r="D201" t="s">
-        <v>572</v>
-      </c>
-      <c r="E201" t="s">
-        <v>573</v>
-      </c>
-      <c r="F201" t="s">
-        <v>574</v>
-      </c>
-      <c r="G201" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>13</v>
-      </c>
+      <c r="C201" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E201" s="3">
+        <v>43968</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>201</v>
       </c>
-      <c r="C202" t="s">
-        <v>576</v>
-      </c>
-      <c r="D202" t="s">
-        <v>577</v>
-      </c>
-      <c r="E202" t="s">
-        <v>578</v>
-      </c>
-      <c r="F202" t="s">
-        <v>579</v>
-      </c>
-      <c r="G202" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>13</v>
-      </c>
+      <c r="C202" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E202" s="3">
+        <v>44110</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>202</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="1">
+        <v>203</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44333</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" s="1">
+        <v>204</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44373</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B206" s="1">
+        <v>205</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="E206" s="3">
+        <v>44393</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="1">
+        <v>206</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="E207" s="3">
+        <v>44453</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="1">
+        <v>207</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44544</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B209" s="1">
+        <v>208</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E209" s="3">
+        <v>44562</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B210" s="1">
+        <v>209</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="E210" s="3">
+        <v>44589</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B211" s="1">
+        <v>210</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E211" s="3">
+        <v>44689</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B212" s="1">
+        <v>211</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E212" s="3">
+        <v>44706</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B213" s="1">
+        <v>212</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="E213" s="3">
+        <v>44706</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B214" s="1">
+        <v>213</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44750</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B215" s="1">
+        <v>214</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44760</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B216" s="1">
+        <v>215</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E216" s="3">
+        <v>44927</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B217" s="1">
+        <v>216</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44957</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B218" s="1">
+        <v>217</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E218" s="3">
+        <v>44963</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B219" s="1">
+        <v>218</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45037</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B220" s="1">
+        <v>219</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="E220" s="3">
+        <v>45062</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B221" s="1">
+        <v>220</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="E221" s="3">
+        <v>45287</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B222" s="1">
+        <v>221</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45292</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B223" s="1">
+        <v>222</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="E223" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>500</v>
+      </c>
+      <c r="B224" s="1">
+        <v>223</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E224" s="2">
+        <v>42552</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B225" s="1">
+        <v>224</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E225" s="2">
+        <v>42661</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B226" s="1">
+        <v>225</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="1">
+        <v>226</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" s="1">
+        <v>227</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" s="1">
+        <v>228</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" s="1">
+        <v>229</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" s="1">
+        <v>230</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232" s="1">
+        <v>231</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" s="1">
+        <v>232</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B234" s="1">
+        <v>233</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E234" s="2">
+        <v>44081</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B235" s="1">
+        <v>234</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E235" s="2">
+        <v>44106</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B236" s="1">
+        <v>235</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E236" s="2">
+        <v>44179</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" s="1">
+        <v>236</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B238" s="1">
+        <v>237</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B239" s="1">
+        <v>238</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44481</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" s="1">
+        <v>239</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>549</v>
+      </c>
+      <c r="B241" s="1">
+        <v>240</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242" s="1">
+        <v>241</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243" s="1">
+        <v>242</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" s="1">
+        <v>243</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>13</v>
+      </c>
+      <c r="B245" s="1">
+        <v>244</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246" s="1">
+        <v>245</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>13</v>
+      </c>
+      <c r="B247" s="1">
+        <v>246</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>13</v>
+      </c>
+      <c r="B248" s="1">
+        <v>247</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D248" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E248" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F248" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G248" s="1" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7292,7 +8590,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A14:A16 A63 C195:G203 C26:G45 A26:A43 C48:G49 A48:A49 C54:D54 F54:G54 A11:A12 A21 C21:G21 C60:G61 A60:A61 A68 C63:G64 A73:A74 C68:G69 A195:A203 C73:G75 A77 C77:G77 C80:D80 F80:G80 A101 C141:G153 A141:A149 A153 C82:G84 A86 A105:A120 C104:G120 C94:G98 A93:A98 A122:A134 C122:G139 C100:G101 A6 A9 A192 C182:G188 A183:A186 A188 A151 A1:G1 A2 A54:A57 C55:G56 C19:G19 A19 A136:A139 A179 C86:D86 F86:G86 A82 D93:G93 A45 A84 C14:G16 C11:G12 C6:G6 C9:G9 D57:E57" numberStoredAsText="1"/>
+    <ignoredError sqref="A71 C240:G240 C48:G50 A48:A49 C54 A54:A55 C62:D62 F62:G62 A13:A14 A25 C25 C68 A68:A69 A79 C74 A85:A86 C79 A240:A248 C85:G86 A89 C89:G89 C94 F94:G94 A120 C173:G173 A172:A175 A179 C98:G100 A103 A125:A140 C124:G125 C113:G115 A142:A154 C142:G142 C119:G119 A7 A10 A237 C227:G233 A228:A231 A233 A177 A1:G1 A2 A62:A65 C63 C23:G23 A23 A156:A159 A224 C103:D103 F103:G103 A98 D112:G112 A51 A100 C13:G14 C7:G7 C10 E65 C19:G19 A18:A19 A30:A43 C30:G30 A46 C45:G46 C71:G71 A112:A117 A16 C16:G16 A167:A170 C166:G166 C246:G248 C245 E245:G245 C244:G244 C243 E243:G243 C242 E242:G242 C241 E241:G241 C176:G179 C175 E175:G175 C174 E174:G174 C172 E172:G172 C168:G170 C167 E167:G167 C159:G159 C158 E158:G158 C153:G157 C152 E152:G152 C151 C150 E150:G150 E151:G151 C149 E149:G149 C147:G148 C146 E146:G146 C145 E145:G145 C144:G144 C143 E143:G143 C140:G140 C139 E139:G139 C137:G138 C136 E136:G136 C132:G135 C131 E131:G131 C128:G130 C127 E127:G127 C126 E126:G126 C120 E120:G120 C117:G117 C116 E116:G116 C87 E87:G87 C80 E80:G80 E79:G79 E74:G74 C69 E69:G69 E68:G68 C64 E64:G64 E63:G63 C55 E55:G55 E54:G54 C51 E51:G51 C39:G41 C38 E38:G38 C43:G43 C42 E42:G42 C34:G37 C33 E33:G33 C32 E32:G32 C31 E31:G31 E25:G25 C18 E18:G18 E10:G10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/paper_dataframe_markdown_backup.xlsx
+++ b/paper_dataframe_markdown_backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Desktop\awesome-ai-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD1A82E-D53C-4329-86F1-5FF1E70C7FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACA4471-385C-4C0A-8E8D-7CFDAC1EFD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1860" windowWidth="19755" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="765" windowWidth="24270" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1102">
   <si>
     <t>Theme</t>
   </si>
@@ -2939,6 +2939,393 @@
   </si>
   <si>
     <t>[Link](https://aclanthology.org/2023.acl-long.551/)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1603.07771v3)</t>
+  </si>
+  <si>
+    <t>Remi Lebret et al</t>
+  </si>
+  <si>
+    <t>EMNLP 2016</t>
+  </si>
+  <si>
+    <t>Neural Text Generation from Structured Data with Application to the Biography Domain</t>
+  </si>
+  <si>
+    <t>Finale Doshi-Velez et al</t>
+  </si>
+  <si>
+    <t>Towards A Rigorous Science of Interpretable Machine Learning</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1702.08608v2)</t>
+  </si>
+  <si>
+    <t>William L. Hamilton et al</t>
+  </si>
+  <si>
+    <t>NIPS  2017</t>
+  </si>
+  <si>
+    <t>Inductive Representation Learning on Large Graphs</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1706.02216v4)</t>
+  </si>
+  <si>
+    <t>Oana-Maria Camburu et al</t>
+  </si>
+  <si>
+    <t>NeurIPS 2018</t>
+  </si>
+  <si>
+    <t>e-SNLI: Natural Language Inference with Natural Language Explanations</t>
+  </si>
+  <si>
+    <t>[Link](https://papers.nips.cc/paper_files/paper/2018/file/4c7a167bb329bd92580a99ce422d6fa6-Paper.pdf)</t>
+  </si>
+  <si>
+    <t>NAACL  2018</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1803.02155v2)</t>
+  </si>
+  <si>
+    <t>Alon Talmor et al</t>
+  </si>
+  <si>
+    <t>NAACL  2019</t>
+  </si>
+  <si>
+    <t>CommonsenseQA: A Question Answering Challenge Targeting Commonsense Knowledge</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1811.00937v2)</t>
+  </si>
+  <si>
+    <t>Dheeru Dua et al</t>
+  </si>
+  <si>
+    <t>DROP: A Reading Comprehension Benchmark Requiring Discrete Reasoning Over Paragraphs</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1903.00161v2)</t>
+  </si>
+  <si>
+    <t>MathQA: Towards Interpretable Math Word Problem Solving with Operation-Based Formalisms</t>
+  </si>
+  <si>
+    <t>Aida Amini et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1905.13319v1)</t>
+  </si>
+  <si>
+    <t>Tushar Khot et al</t>
+  </si>
+  <si>
+    <t>QASC: A Dataset for Question Answering via Sentence Composition</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1910.11473v2)</t>
+  </si>
+  <si>
+    <t>Mor Geva et al</t>
+  </si>
+  <si>
+    <t>TACL 2021</t>
+  </si>
+  <si>
+    <t>Did Aristotle Use a Laptop? A Question Answering Benchmark with Implicit Reasoning Strategies</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2101.02235v1)</t>
+  </si>
+  <si>
+    <t>Yasumasa Onoe et al</t>
+  </si>
+  <si>
+    <t>CREAK: A Dataset for Commonsense Reasoning over Entity Knowledge</t>
+  </si>
+  <si>
+    <t>EMNLP 2021</t>
+  </si>
+  <si>
+    <t>FinQA: A Dataset of Numerical Reasoning over Financial Data</t>
+  </si>
+  <si>
+    <t>Weizhe Yuan et al</t>
+  </si>
+  <si>
+    <t>BARTScore: Evaluating Generated Text as Text Generation</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2109.01653v1)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2109.00122v3)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2106.11520v2)</t>
+  </si>
+  <si>
+    <t>ConvFinQA: Exploring the Chain of Numerical Reasoning in Conversational Finance Question Answering</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2210.03849v1)</t>
+  </si>
+  <si>
+    <t>Zhipeng Xie et al</t>
+  </si>
+  <si>
+    <t>IJCAI 2019</t>
+  </si>
+  <si>
+    <t>A Goal-Driven Tree-Structured Neural Model for Math Word Problems</t>
+  </si>
+  <si>
+    <t>[Link](https://www.ijcai.org/proceedings/2019/0736.pdf)</t>
+  </si>
+  <si>
+    <t>Nazneen Fatema Rajani et al</t>
+  </si>
+  <si>
+    <t>Explain Yourself! Leveraging Language Models for Commonsense Reasoning</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1906.02361v1)</t>
+  </si>
+  <si>
+    <t>Julian Salazar et al</t>
+  </si>
+  <si>
+    <t>Masked Language Model Scoring</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1910.14659v3)</t>
+  </si>
+  <si>
+    <t>Peter Hase et al</t>
+  </si>
+  <si>
+    <t>EMNLP Findings 2020</t>
+  </si>
+  <si>
+    <t>Leakage-Adjusted Simulatability: Can Models Generate Non-Trivial Explanations of Their Behavior in Natural Language?</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2010.04119v1)</t>
+  </si>
+  <si>
+    <t>Yining Hong et al</t>
+  </si>
+  <si>
+    <t>AAAI 2021</t>
+  </si>
+  <si>
+    <t>Learning by Fixing: Solving Math Word Problems with Weak Supervision</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2012.10582v2)</t>
+  </si>
+  <si>
+    <t>Qinzhuo Wu et al</t>
+  </si>
+  <si>
+    <t>EMNLP Findings 2021</t>
+  </si>
+  <si>
+    <t>An Edge-Enhanced Hierarchical Graph-to-Tree Network for Math Word Problem Solving</t>
+  </si>
+  <si>
+    <t>[Link](https://aclanthology.org/2021.findings-emnlp.127.pdf)</t>
+  </si>
+  <si>
+    <t>Yixin Liu et al</t>
+  </si>
+  <si>
+    <t>SimCLS: A Simple Framework for Contrastive Learning of Abstractive Summarization</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2106.01890v1)</t>
+  </si>
+  <si>
+    <t>Pengcheng He et al</t>
+  </si>
+  <si>
+    <t>DeBERTaV3: Improving DeBERTa using ELECTRA-Style Pre-Training with Gradient-Disentangled Embedding Sharing</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2111.09543v4)</t>
+  </si>
+  <si>
+    <t>Mathieu Ravaut et al</t>
+  </si>
+  <si>
+    <t>SummaReranker: A Multi-Task Mixture-of-Experts Re-ranking Framework for Abstractive Summarization</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2203.06569v2)</t>
+  </si>
+  <si>
+    <t>Sid Black et al</t>
+  </si>
+  <si>
+    <t>BigScience 2022</t>
+  </si>
+  <si>
+    <t>GPT-NeoX-20B: An Open-Source Autoregressive Language Model</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2204.06745v1)</t>
+  </si>
+  <si>
+    <t>Fangyu Lei et al</t>
+  </si>
+  <si>
+    <t>COLING  2022</t>
+  </si>
+  <si>
+    <t>Answering Numerical Reasoning Questions in Table-Text Hybrid Contents with Graph-based Encoder and Tree-based Decoder</t>
+  </si>
+  <si>
+    <t>Shiyang Li et al</t>
+  </si>
+  <si>
+    <t>Explanations from Large Language Models Make Small Reasoners Better</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2209.07692v2)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2210.06726v1)</t>
+  </si>
+  <si>
+    <t>Guohao Li et al</t>
+  </si>
+  <si>
+    <t>NeurIPS 2023</t>
+  </si>
+  <si>
+    <t>CAMEL: Communicative Agents for "Mind" Exploration of Large Language Model Society</t>
+  </si>
+  <si>
+    <t>Yilun Du et al</t>
+  </si>
+  <si>
+    <t>Improving Factuality and Reasoning in Language Models through Multiagent Debate</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2303.17760v2)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2305.14325v1)</t>
+  </si>
+  <si>
+    <t>Dongfu Jiang et al</t>
+  </si>
+  <si>
+    <t>LLM-Blender: Ensembling Large Language Models with Pairwise Ranking and Generative Fusion</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2306.02561v3)</t>
+  </si>
+  <si>
+    <t>Ziwei Chai et al</t>
+  </si>
+  <si>
+    <t>ACL 2024</t>
+  </si>
+  <si>
+    <t>An Expert is Worth One Token: Synergizing Multiple Expert LLMs as Generalist via Expert Token Routing</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2403.16854v3)</t>
+  </si>
+  <si>
+    <t>Yu Xie et al</t>
+  </si>
+  <si>
+    <t>Neural Networks 2020</t>
+  </si>
+  <si>
+    <t>MGAT: Multi-view Graph Attention Networks</t>
+  </si>
+  <si>
+    <t>[Link](https://www.sciencedirect.com/science/article/abs/pii/S0893608020303105)</t>
+  </si>
+  <si>
+    <t>Chengxuan Ying et al</t>
+  </si>
+  <si>
+    <t>NeurIPS  2021</t>
+  </si>
+  <si>
+    <t>Do Transformers Really Perform Bad for Graph Representation?</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2106.05234v5)</t>
+  </si>
+  <si>
+    <t>Wonpyo Park et al</t>
+  </si>
+  <si>
+    <t>GRPE: Relative Positional Encoding for Graph Transformer</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2201.12787v3)</t>
+  </si>
+  <si>
+    <t>Bailin Wang et al</t>
+  </si>
+  <si>
+    <t>RAT-SQL: Relation-Aware Schema Encoding and Linking for Text-to-SQL Parsers</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1911.04942v5)</t>
+  </si>
+  <si>
+    <t>Rungsiman Nararatwong et al</t>
+  </si>
+  <si>
+    <t>AACL  2022</t>
+  </si>
+  <si>
+    <t>Enhancing Financial Table and Text Question Answering with Tabular Graph and Numerical Reasoning</t>
+  </si>
+  <si>
+    <t>[Link](https://aclanthology.org/2022.aacl-main.72.pdf)</t>
+  </si>
+  <si>
+    <t>Jingfeng Yang et al</t>
+  </si>
+  <si>
+    <t>TableFormer: Robust Transformer Modeling for Table-Text Encoding</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2203.00274v2)</t>
+  </si>
+  <si>
+    <t>Yifan Wei et al</t>
+  </si>
+  <si>
+    <t>Multi-View Graph Representation Learning for Answering Hybrid Numerical Reasoning Question</t>
+  </si>
+  <si>
+    <t>Jiashuo Sun et al</t>
+  </si>
+  <si>
+    <t>LREC 2024</t>
+  </si>
+  <si>
+    <t>APOLLO: An Optimized Training Approach for Long-form Numerical Reasoning</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2212.07249v3)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2305.03458v1)</t>
   </si>
 </sst>
 </file>
@@ -3331,17 +3718,66 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{570E9169-5EB2-44A4-8073-C1764B509BFE}">
+  <we:reference id="cec2c794-cfc7-4347-a54b-1ced872b6768" version="1.0.0.11" store="EXCatalog" storeType="EXCatalog"/>
+  <we:alternateReferences>
+    <we:reference id="WA200005502" version="1.0.0.11" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="docId" value="&quot;gVNidL4a3UJseCMDaULW4&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HLIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CLASSIFY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TRANSLATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TAG</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CONVERT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SUMMARIZE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HSPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EDIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_MATCH</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_VISION</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_WEB</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:G287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="E290" sqref="E290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.25" customWidth="1"/>
+    <col min="1" max="1" width="47.25" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
     <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
@@ -3597,26 +4033,23 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>982</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>981</v>
+      </c>
+      <c r="E13" s="3">
+        <v>42893</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>980</v>
+      </c>
+      <c r="G13" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3627,82 +4060,82 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>596</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E15" s="2">
-        <v>43066</v>
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>598</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>596</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>597</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43066</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>888</v>
+      <c r="C17" t="s">
+        <v>831</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>889</v>
+        <v>988</v>
       </c>
       <c r="E17" s="3">
-        <v>43466</v>
+        <v>43165</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>891</v>
+        <v>830</v>
+      </c>
+      <c r="G17" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3713,62 +4146,62 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>616</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>888</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>889</v>
+      </c>
+      <c r="E19" s="3">
+        <v>43466</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>890</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>46</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>302</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3776,62 +4209,62 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>759</v>
+        <v>1076</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="E21" s="2">
-        <v>44375</v>
+        <v>1075</v>
+      </c>
+      <c r="E21" s="3">
+        <v>43831</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>760</v>
+        <v>1074</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>761</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>892</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E22" s="3">
-        <v>45033</v>
+        <v>43</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>893</v>
+        <v>45</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>894</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>301</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>49</v>
+        <v>616</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>302</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>52</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3839,42 +4272,39 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>709</v>
+        <v>1080</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="E24" s="2">
-        <v>38353</v>
+        <v>1079</v>
+      </c>
+      <c r="E24" s="3">
+        <v>44356</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>711</v>
+        <v>1078</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>712</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>759</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>721</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44375</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>55</v>
+        <v>760</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>56</v>
+        <v>761</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3882,19 +4312,19 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>599</v>
+        <v>1083</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E26" s="2">
-        <v>43213</v>
+        <v>119</v>
+      </c>
+      <c r="E26" s="3">
+        <v>44591</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>600</v>
+        <v>1082</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>601</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3902,39 +4332,42 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>608</v>
+        <v>892</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="E27" s="2">
-        <v>43576</v>
+        <v>265</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45033</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>610</v>
+        <v>893</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>611</v>
+        <v>894</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>747</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E28" s="2">
-        <v>43930</v>
+        <v>49</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>748</v>
+        <v>51</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>749</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3942,424 +4375,385 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>804</v>
+        <v>709</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="E29" s="2">
-        <v>44336</v>
+        <v>38353</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>805</v>
+        <v>711</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>986</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>985</v>
+      </c>
+      <c r="E30" s="3">
+        <v>43101</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>60</v>
+        <v>984</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>61</v>
+        <v>987</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>599</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>68</v>
+        <v>597</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43213</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>65</v>
+        <v>600</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>69</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>992</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>991</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43406</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>72</v>
+        <v>990</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>73</v>
+        <v>993</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>995</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>76</v>
+        <v>889</v>
+      </c>
+      <c r="E34" s="3">
+        <v>43525</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>77</v>
+        <v>994</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>78</v>
+        <v>996</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>79</v>
+        <v>608</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>81</v>
+        <v>609</v>
+      </c>
+      <c r="E35" s="2">
+        <v>43576</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>82</v>
+        <v>610</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>83</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>84</v>
+        <v>997</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>86</v>
+        <v>889</v>
+      </c>
+      <c r="E36" s="3">
+        <v>43615</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>87</v>
+        <v>998</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>88</v>
+        <v>999</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>1001</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
+      </c>
+      <c r="E37" s="3">
+        <v>43763</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>92</v>
+        <v>1000</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>93</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>747</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>95</v>
+        <v>700</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43930</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>96</v>
+        <v>748</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>97</v>
+        <v>749</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>98</v>
-      </c>
       <c r="B39" s="1">
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>99</v>
+        <v>1005</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>101</v>
+        <v>1004</v>
+      </c>
+      <c r="E39" s="3">
+        <v>44202</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>102</v>
+        <v>1003</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>103</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
       <c r="B40" s="1">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>104</v>
+        <v>703</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>106</v>
+        <v>794</v>
+      </c>
+      <c r="E40" s="3">
+        <v>44333</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>107</v>
+        <v>704</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>108</v>
+        <v>705</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>13</v>
-      </c>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>111</v>
+        <v>804</v>
+      </c>
+      <c r="E41" s="2">
+        <v>44336</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>112</v>
+        <v>805</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>113</v>
+        <v>806</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
       <c r="B42" s="1">
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>1012</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>115</v>
+        <v>532</v>
+      </c>
+      <c r="E42" s="3">
+        <v>44369</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>116</v>
+        <v>1011</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>117</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
       <c r="B43" s="1">
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>1010</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>59</v>
+        <v>1009</v>
+      </c>
+      <c r="E43" s="3">
+        <v>44440</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>120</v>
+        <v>927</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>121</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>122</v>
-      </c>
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>833</v>
+        <v>1008</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>834</v>
+        <v>532</v>
       </c>
       <c r="E44" s="3">
-        <v>37987</v>
+        <v>44442</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>835</v>
+        <v>1007</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>836</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
       <c r="B45" s="1">
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
       <c r="B46" s="1">
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>128</v>
+        <v>1016</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>130</v>
+        <v>238</v>
+      </c>
+      <c r="E46" s="3">
+        <v>44841</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>131</v>
+        <v>927</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>132</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
       <c r="B47" s="1">
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>837</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="E47" s="3">
-        <v>40816</v>
+        <v>616</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>839</v>
+        <v>65</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>840</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4370,19 +4764,19 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>134</v>
+        <v>616</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4393,19 +4787,19 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>139</v>
+        <v>616</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4416,19 +4810,19 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4439,19 +4833,19 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>616</v>
+        <v>80</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4462,36 +4856,42 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E52" s="2">
-        <v>42327</v>
+        <v>84</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>586</v>
+        <v>87</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>587</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
       <c r="B53" s="1">
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>724</v>
+        <v>90</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4502,182 +4902,195 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B55" s="1">
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>616</v>
+        <v>100</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>55</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E56" s="2">
-        <v>42684</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>591</v>
+      <c r="C56" t="s">
+        <v>978</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56" s="3">
+        <v>42794</v>
+      </c>
+      <c r="F56" t="s">
+        <v>977</v>
+      </c>
+      <c r="G56" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
       <c r="B57" s="1">
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>738</v>
+        <v>104</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="E57" s="2">
-        <v>42688</v>
+        <v>105</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>740</v>
+        <v>107</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>741</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
       <c r="B58" s="1">
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>841</v>
+        <v>109</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E58" s="3">
-        <v>42680</v>
+        <v>110</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>842</v>
+        <v>112</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>843</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
       <c r="B59" s="1">
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>844</v>
+        <v>114</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="E59" s="3">
-        <v>42736</v>
+        <v>616</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>845</v>
+        <v>116</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>846</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
       <c r="B60" s="1">
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>592</v>
+        <v>118</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="E60" s="2">
-        <v>42825</v>
+        <v>119</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>594</v>
+        <v>120</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>595</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
       <c r="B61" s="1">
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E61" s="2">
-        <v>42839</v>
+        <v>833</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E61" s="3">
+        <v>37987</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>690</v>
+        <v>835</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>691</v>
+        <v>836</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
       <c r="B62" s="1">
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E62" s="2">
-        <v>42854</v>
+        <v>124</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4688,42 +5101,39 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>616</v>
+        <v>129</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>13</v>
-      </c>
       <c r="B64" s="1">
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>168</v>
+        <v>837</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>169</v>
+        <v>838</v>
+      </c>
+      <c r="E64" s="3">
+        <v>40816</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>170</v>
+        <v>839</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>171</v>
+        <v>840</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4734,59 +5144,65 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>616</v>
+        <v>134</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
       <c r="B66" s="1">
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>831</v>
+        <v>138</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E66" s="2">
-        <v>43101</v>
+        <v>139</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>830</v>
+        <v>141</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>832</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
       <c r="B67" s="1">
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>692</v>
+        <v>143</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E67" s="2">
-        <v>43122</v>
+        <v>144</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>694</v>
+        <v>146</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>695</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4797,19 +5213,19 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4820,19 +5236,16 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>181</v>
+        <v>585</v>
+      </c>
+      <c r="E69" s="2">
+        <v>42327</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>182</v>
+        <v>586</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>183</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4840,16 +5253,19 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="E70" s="2">
-        <v>43233</v>
+        <v>152</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>603</v>
+        <v>154</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>604</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4860,39 +5276,42 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>185</v>
+        <v>616</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
       <c r="B72" s="1">
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="E72" s="3">
-        <v>43262</v>
+        <v>616</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4900,39 +5319,39 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="E73" s="3">
-        <v>43329</v>
+        <v>588</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E73" s="2">
+        <v>42684</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>849</v>
+        <v>590</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>850</v>
+        <v>591</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>13</v>
-      </c>
       <c r="B74" s="1">
         <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>189</v>
+        <v>738</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>190</v>
+        <v>739</v>
+      </c>
+      <c r="E74" s="2">
+        <v>42688</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>191</v>
+        <v>740</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>192</v>
+        <v>741</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4940,19 +5359,19 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>605</v>
+        <v>841</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E75" s="2">
-        <v>43466</v>
+        <v>589</v>
+      </c>
+      <c r="E75" s="3">
+        <v>42680</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>606</v>
+        <v>842</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>607</v>
+        <v>843</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4960,19 +5379,19 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>742</v>
+        <v>844</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E76" s="2">
-        <v>43496</v>
+        <v>593</v>
+      </c>
+      <c r="E76" s="3">
+        <v>42736</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>226</v>
+        <v>845</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>743</v>
+        <v>846</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4980,16 +5399,19 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>744</v>
+        <v>592</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="E77" s="2">
-        <v>43576</v>
+        <v>42825</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>745</v>
+        <v>594</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>746</v>
+        <v>595</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4997,16 +5419,16 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="E78" s="3">
-        <v>43577</v>
+        <v>689</v>
+      </c>
+      <c r="E78" s="2">
+        <v>42839</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>852</v>
+        <v>690</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>853</v>
+        <v>691</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -5017,19 +5439,19 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
+      </c>
+      <c r="E79" s="2">
+        <v>42854</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5040,56 +5462,65 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
       <c r="B81" s="1">
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="E81" s="3">
-        <v>43689</v>
+        <v>168</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>855</v>
+        <v>170</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>856</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
       <c r="B82" s="1">
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>612</v>
+        <v>172</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="E82" s="2">
-        <v>43697</v>
+        <v>616</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>614</v>
+        <v>174</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>615</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -5097,16 +5528,19 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>827</v>
+        <v>831</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="E83" s="2">
-        <v>43699</v>
+        <v>43101</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -5114,19 +5548,19 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>79</v>
+        <v>692</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>616</v>
+        <v>693</v>
       </c>
       <c r="E84" s="2">
-        <v>43704</v>
+        <v>43122</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>82</v>
+        <v>694</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>83</v>
+        <v>695</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -5137,19 +5571,19 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>202</v>
+        <v>616</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5160,82 +5594,79 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>207</v>
+        <v>616</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>13</v>
-      </c>
       <c r="B87" s="1">
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>212</v>
+        <v>602</v>
+      </c>
+      <c r="E87" s="2">
+        <v>43233</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>213</v>
+        <v>603</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>214</v>
+        <v>604</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
       <c r="B88" s="1">
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="E88" s="2">
-        <v>43775</v>
+        <v>184</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>618</v>
+        <v>187</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>619</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>13</v>
-      </c>
       <c r="B89" s="1">
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>217</v>
+        <v>847</v>
+      </c>
+      <c r="E89" s="3">
+        <v>43262</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5243,39 +5674,39 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="E90" s="3">
-        <v>43831</v>
+        <v>43329</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
       <c r="B91" s="1">
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>782</v>
+        <v>189</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="E91" s="2">
-        <v>43894</v>
+        <v>616</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>784</v>
+        <v>191</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>785</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -5283,19 +5714,19 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>861</v>
+        <v>605</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="E92" s="3">
-        <v>43913</v>
+        <v>75</v>
+      </c>
+      <c r="E92" s="2">
+        <v>43466</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>863</v>
+        <v>606</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>864</v>
+        <v>607</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5303,42 +5734,39 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>620</v>
+        <v>1020</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E93" s="2">
-        <v>43931</v>
+        <v>1019</v>
+      </c>
+      <c r="E93" s="3">
+        <v>43466</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>622</v>
+        <v>1018</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>623</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>13</v>
-      </c>
       <c r="B94" s="1">
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>220</v>
+        <v>742</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E94" s="2">
-        <v>43938</v>
+        <v>43496</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>222</v>
+        <v>743</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -5346,19 +5774,16 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E95" s="3">
-        <v>43954</v>
+        <v>744</v>
+      </c>
+      <c r="E95" s="2">
+        <v>43576</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>866</v>
+        <v>745</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>867</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5366,59 +5791,59 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>621</v>
+        <v>851</v>
       </c>
       <c r="E96" s="3">
-        <v>44141</v>
+        <v>43577</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
       <c r="B97" s="1">
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="E97" s="2">
-        <v>44306</v>
+        <v>193</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>802</v>
+        <v>195</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>803</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>13</v>
-      </c>
       <c r="B98" s="1">
         <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>223</v>
+        <v>1023</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>225</v>
+        <v>75</v>
+      </c>
+      <c r="E98" s="3">
+        <v>43622</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>226</v>
+        <v>1022</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>227</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -5429,42 +5854,36 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>229</v>
+        <v>616</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>13</v>
-      </c>
       <c r="B100" s="1">
         <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>230</v>
+        <v>854</v>
+      </c>
+      <c r="E100" s="3">
+        <v>43689</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>235</v>
+        <v>855</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>236</v>
+        <v>856</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5472,16 +5891,19 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>762</v>
+        <v>612</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="E101" s="2">
-        <v>44631</v>
+        <v>43697</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>763</v>
+        <v>614</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>764</v>
+        <v>615</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -5489,102 +5911,105 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="E102" s="3">
-        <v>44641</v>
+        <v>827</v>
+      </c>
+      <c r="E102" s="2">
+        <v>43699</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>873</v>
+        <v>828</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>874</v>
+        <v>829</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>13</v>
-      </c>
       <c r="B103" s="1">
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>238</v>
+        <v>616</v>
       </c>
       <c r="E103" s="2">
-        <v>44667</v>
+        <v>43704</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>240</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
       <c r="B104" s="1">
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>750</v>
+        <v>201</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E104" s="2">
-        <v>44676</v>
+        <v>202</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>751</v>
+        <v>204</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>752</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
       <c r="B105" s="1">
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>636</v>
+        <v>206</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="E105" s="2">
-        <v>44684</v>
+        <v>207</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>638</v>
+        <v>209</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>639</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
       <c r="B106" s="1">
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>706</v>
+        <v>211</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E106" s="2">
-        <v>44689</v>
+        <v>616</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>707</v>
+        <v>213</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>708</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -5592,16 +6017,19 @@
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="E107" s="2">
-        <v>44704</v>
+        <v>1026</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E107" s="3">
+        <v>43769</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>641</v>
+        <v>1025</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>642</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5609,36 +6037,39 @@
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="E108" s="2">
-        <v>44710</v>
+        <v>43775</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
       <c r="B109" s="1">
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>643</v>
+        <v>215</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E109" s="3">
-        <v>44710</v>
+        <v>216</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>644</v>
+        <v>218</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>645</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -5646,16 +6077,19 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="E110" s="2">
-        <v>44734</v>
+        <v>857</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="E110" s="3">
+        <v>43831</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>267</v>
+        <v>859</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>811</v>
+        <v>860</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5663,62 +6097,59 @@
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="E111" s="3">
-        <v>44840</v>
+        <v>782</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E111" s="2">
+        <v>43894</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>876</v>
+        <v>784</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>877</v>
+        <v>785</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>13</v>
-      </c>
       <c r="B112" s="1">
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>241</v>
+        <v>861</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>243</v>
+        <v>862</v>
+      </c>
+      <c r="E112" s="3">
+        <v>43913</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>244</v>
+        <v>863</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>245</v>
+        <v>864</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>13</v>
-      </c>
       <c r="B113" s="1">
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>246</v>
+        <v>620</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>248</v>
+        <v>621</v>
+      </c>
+      <c r="E113" s="2">
+        <v>43931</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>249</v>
+        <v>622</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>250</v>
+        <v>623</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -5729,88 +6160,79 @@
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>253</v>
+        <v>616</v>
+      </c>
+      <c r="E114" s="2">
+        <v>43938</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>13</v>
-      </c>
       <c r="B115" s="1">
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>255</v>
+        <v>865</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>257</v>
+        <v>700</v>
+      </c>
+      <c r="E115" s="3">
+        <v>43954</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>258</v>
+        <v>866</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>259</v>
+        <v>867</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>13</v>
-      </c>
       <c r="B116" s="1">
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>260</v>
+        <v>1030</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>261</v>
+        <v>1029</v>
+      </c>
+      <c r="E116" s="3">
+        <v>44112</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>262</v>
+        <v>1028</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>263</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>13</v>
-      </c>
       <c r="B117" s="1">
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>264</v>
+        <v>868</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>266</v>
+        <v>621</v>
+      </c>
+      <c r="E117" s="3">
+        <v>44141</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>267</v>
+        <v>869</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>268</v>
+        <v>870</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -5818,62 +6240,56 @@
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E118" s="2">
-        <v>45053</v>
+        <v>1034</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E118" s="3">
+        <v>44184</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>654</v>
+        <v>1032</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>655</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>13</v>
-      </c>
       <c r="B119" s="1">
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>269</v>
+        <v>1038</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>270</v>
+        <v>1037</v>
+      </c>
+      <c r="E119" s="3">
+        <v>44197</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>244</v>
+        <v>1036</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>271</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>13</v>
-      </c>
       <c r="B120" s="1">
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>273</v>
+        <v>801</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44306</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>244</v>
+        <v>802</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>274</v>
+        <v>803</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5881,39 +6297,42 @@
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>878</v>
+        <v>1041</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>879</v>
+        <v>794</v>
       </c>
       <c r="E121" s="3">
-        <v>45190</v>
+        <v>44350</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>880</v>
+        <v>1040</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>881</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
       <c r="B122" s="1">
         <v>121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>659</v>
+        <v>223</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E122" s="2">
-        <v>45209</v>
+        <v>224</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>660</v>
+        <v>226</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>661</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -5921,39 +6340,39 @@
         <v>122</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E123" s="2">
-        <v>45364</v>
+        <v>1044</v>
+      </c>
+      <c r="E123" s="3">
+        <v>44518</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>663</v>
+        <v>1043</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>664</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="B124" s="1">
         <v>123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -5964,111 +6383,96 @@
         <v>124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>13</v>
-      </c>
       <c r="B126" s="1">
         <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>287</v>
+        <v>762</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44631</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>288</v>
+        <v>763</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>289</v>
+        <v>764</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>290</v>
-      </c>
       <c r="B127" s="1">
         <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>291</v>
+        <v>1047</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>292</v>
+        <v>633</v>
+      </c>
+      <c r="E127" s="3">
+        <v>44633</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>293</v>
+        <v>1046</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>294</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>295</v>
-      </c>
       <c r="B128" s="1">
         <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>296</v>
+        <v>1051</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>298</v>
+        <v>1050</v>
+      </c>
+      <c r="E128" s="3">
+        <v>44665</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>299</v>
+        <v>1049</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>300</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>305</v>
-      </c>
       <c r="B129" s="1">
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>306</v>
+        <v>871</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>308</v>
+        <v>872</v>
+      </c>
+      <c r="E129" s="3">
+        <v>44641</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>309</v>
+        <v>873</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>310</v>
+        <v>874</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -6079,226 +6483,187 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>313</v>
+        <v>238</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44667</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>314</v>
+        <v>239</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>315</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>13</v>
-      </c>
       <c r="B131" s="1">
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>316</v>
+        <v>750</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>317</v>
+        <v>700</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44676</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>318</v>
+        <v>751</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>319</v>
+        <v>752</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>13</v>
-      </c>
       <c r="B132" s="1">
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>320</v>
+        <v>636</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>322</v>
+        <v>637</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44684</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>323</v>
+        <v>638</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>324</v>
+        <v>639</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>13</v>
-      </c>
       <c r="B133" s="1">
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>325</v>
+        <v>706</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>326</v>
+        <v>238</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44689</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>327</v>
+        <v>707</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>328</v>
+        <v>708</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>329</v>
-      </c>
       <c r="B134" s="1">
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>332</v>
+        <v>640</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44704</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>333</v>
+        <v>641</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>334</v>
+        <v>642</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>13</v>
-      </c>
       <c r="B135" s="1">
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>337</v>
+        <v>643</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44710</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>338</v>
+        <v>644</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>339</v>
+        <v>645</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>13</v>
-      </c>
       <c r="B136" s="1">
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>340</v>
+        <v>643</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>341</v>
+        <v>119</v>
+      </c>
+      <c r="E136" s="3">
+        <v>44710</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>342</v>
+        <v>644</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>343</v>
+        <v>645</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>13</v>
-      </c>
       <c r="B137" s="1">
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>346</v>
+        <v>810</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44734</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>347</v>
+        <v>267</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>348</v>
+        <v>811</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>13</v>
-      </c>
       <c r="B138" s="1">
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>349</v>
+        <v>1055</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>351</v>
+        <v>1054</v>
+      </c>
+      <c r="E138" s="3">
+        <v>44820</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>352</v>
+        <v>1053</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>353</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>13</v>
-      </c>
       <c r="B139" s="1">
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>355</v>
+        <v>875</v>
+      </c>
+      <c r="E139" s="3">
+        <v>44840</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>356</v>
+        <v>876</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>357</v>
+        <v>877</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -6309,19 +6674,19 @@
         <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>358</v>
+        <v>241</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>360</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -6329,42 +6694,39 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E141" s="2">
-        <v>45049</v>
+        <v>1057</v>
+      </c>
+      <c r="E141" s="3">
+        <v>44847</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>651</v>
+        <v>1056</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>652</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>361</v>
+        <v>13</v>
       </c>
       <c r="B142" s="1">
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>362</v>
+        <v>246</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>363</v>
+        <v>247</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>365</v>
+        <v>249</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>366</v>
+        <v>250</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -6375,19 +6737,19 @@
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>616</v>
+        <v>252</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>368</v>
+        <v>253</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>369</v>
+        <v>239</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>370</v>
+        <v>254</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -6398,19 +6760,19 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>372</v>
+        <v>256</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>373</v>
+        <v>257</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -6421,42 +6783,39 @@
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>376</v>
+        <v>260</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>377</v>
+        <v>261</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>378</v>
+        <v>262</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>379</v>
+        <v>263</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>13</v>
-      </c>
       <c r="B146" s="1">
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>380</v>
+        <v>1062</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>381</v>
+        <v>1061</v>
+      </c>
+      <c r="E146" s="3">
+        <v>45016</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>382</v>
+        <v>1060</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>383</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -6467,65 +6826,53 @@
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>384</v>
+        <v>264</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>386</v>
+        <v>266</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>387</v>
+        <v>267</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>388</v>
+        <v>268</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>13</v>
-      </c>
       <c r="B148" s="1">
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>391</v>
+        <v>653</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45053</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>392</v>
+        <v>654</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>393</v>
+        <v>655</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>13</v>
-      </c>
       <c r="B149" s="1">
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>395</v>
+        <v>1064</v>
+      </c>
+      <c r="E149" s="3">
+        <v>45069</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>396</v>
+        <v>1063</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>397</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -6536,19 +6883,19 @@
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>398</v>
+        <v>269</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>616</v>
+        <v>252</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>399</v>
+        <v>270</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>400</v>
+        <v>244</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>401</v>
+        <v>271</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -6559,157 +6906,139 @@
         <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>402</v>
+        <v>272</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>403</v>
+        <v>273</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>404</v>
+        <v>244</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>405</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>13</v>
-      </c>
       <c r="B152" s="1">
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>406</v>
+        <v>1068</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>407</v>
+        <v>256</v>
+      </c>
+      <c r="E152" s="3">
+        <v>45082</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>408</v>
+        <v>1067</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>409</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>13</v>
-      </c>
       <c r="B153" s="1">
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>410</v>
+        <v>878</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>412</v>
+        <v>879</v>
+      </c>
+      <c r="E153" s="3">
+        <v>45190</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>413</v>
+        <v>880</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>414</v>
+        <v>881</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>13</v>
-      </c>
       <c r="B154" s="1">
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>415</v>
+        <v>659</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>359</v>
+        <v>616</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45209</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>417</v>
+        <v>660</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>418</v>
+        <v>661</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>13</v>
-      </c>
       <c r="B155" s="1">
         <v>154</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>421</v>
+        <v>662</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45364</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>422</v>
+        <v>663</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>423</v>
+        <v>664</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>13</v>
-      </c>
       <c r="B156" s="1">
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>424</v>
+        <v>1072</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>426</v>
+        <v>1071</v>
+      </c>
+      <c r="E156" s="3">
+        <v>45376</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>427</v>
+        <v>1070</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>428</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>13</v>
+        <v>275</v>
       </c>
       <c r="B157" s="1">
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>429</v>
+        <v>276</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>430</v>
+        <v>278</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>431</v>
+        <v>279</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>432</v>
+        <v>280</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6720,19 +7049,19 @@
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>433</v>
+        <v>281</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>616</v>
+        <v>282</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>434</v>
+        <v>283</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>408</v>
+        <v>284</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>435</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -6743,176 +7072,203 @@
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>436</v>
+        <v>286</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>437</v>
+        <v>616</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>438</v>
+        <v>287</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>404</v>
+        <v>288</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>439</v>
+        <v>289</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>290</v>
+      </c>
       <c r="B160" s="1">
         <v>159</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>895</v>
+        <v>291</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="E160" s="3">
-        <v>45069</v>
+        <v>616</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>896</v>
+        <v>293</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>897</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>295</v>
+      </c>
       <c r="B161" s="1">
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="E161" s="2">
-        <v>45132</v>
+        <v>296</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>657</v>
+        <v>299</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>658</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>440</v>
+        <v>305</v>
       </c>
       <c r="B162" s="1">
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>898</v>
+        <v>306</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="E162" s="3">
-        <v>33604</v>
+        <v>307</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>900</v>
+        <v>309</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>911</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>13</v>
+      </c>
       <c r="B163" s="1">
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>901</v>
+        <v>311</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="E163" s="3">
-        <v>35796</v>
+        <v>312</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>903</v>
+        <v>314</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>912</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
       <c r="B164" s="1">
         <v>163</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="E164" s="3">
-        <v>36161</v>
+        <v>316</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>905</v>
+        <v>318</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>913</v>
+        <v>319</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>13</v>
+      </c>
       <c r="B165" s="1">
         <v>164</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="E165" s="3">
-        <v>41275</v>
+        <v>320</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>907</v>
+        <v>323</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>914</v>
+        <v>324</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
       <c r="B166" s="1">
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>441</v>
+        <v>325</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>442</v>
+        <v>119</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>443</v>
+        <v>326</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>444</v>
+        <v>327</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>445</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="B167" s="1">
         <v>166</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>446</v>
+        <v>330</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>616</v>
+        <v>331</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>447</v>
+        <v>332</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>448</v>
+        <v>333</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>449</v>
+        <v>334</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -6923,19 +7279,19 @@
         <v>167</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>450</v>
+        <v>335</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>451</v>
+        <v>336</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>452</v>
+        <v>337</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>453</v>
+        <v>338</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>454</v>
+        <v>339</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -6946,19 +7302,19 @@
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>455</v>
+        <v>340</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>456</v>
+        <v>616</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>457</v>
+        <v>341</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>458</v>
+        <v>342</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>459</v>
+        <v>343</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -6969,39 +7325,42 @@
         <v>169</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>461</v>
+        <v>345</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>462</v>
+        <v>346</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>463</v>
+        <v>347</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>464</v>
+        <v>348</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
       <c r="B171" s="1">
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>908</v>
+        <v>349</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="E171" s="3">
-        <v>43515</v>
+        <v>350</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>910</v>
+        <v>352</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>915</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -7012,19 +7371,19 @@
         <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>465</v>
+        <v>354</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>466</v>
+        <v>355</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>467</v>
+        <v>356</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>468</v>
+        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -7035,65 +7394,62 @@
         <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>469</v>
+        <v>358</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>470</v>
+        <v>43</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>471</v>
+        <v>359</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>472</v>
+        <v>356</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>473</v>
+        <v>360</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>13</v>
-      </c>
       <c r="B174" s="1">
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>474</v>
+        <v>649</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>475</v>
+        <v>650</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45049</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>476</v>
+        <v>651</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>477</v>
+        <v>652</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="B175" s="1">
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>478</v>
+        <v>362</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>616</v>
+        <v>363</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>479</v>
+        <v>364</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>480</v>
+        <v>365</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>481</v>
+        <v>366</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -7104,19 +7460,19 @@
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>482</v>
+        <v>367</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>483</v>
+        <v>616</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>230</v>
+        <v>368</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>484</v>
+        <v>369</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>485</v>
+        <v>370</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -7127,19 +7483,19 @@
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>486</v>
+        <v>371</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>487</v>
+        <v>372</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>488</v>
+        <v>373</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>489</v>
+        <v>374</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>490</v>
+        <v>375</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -7150,19 +7506,19 @@
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>491</v>
+        <v>376</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>487</v>
+        <v>616</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>492</v>
+        <v>377</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>493</v>
+        <v>378</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>494</v>
+        <v>379</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -7173,684 +7529,768 @@
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>495</v>
+        <v>380</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>496</v>
+        <v>616</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>497</v>
+        <v>381</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>498</v>
+        <v>382</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>499</v>
+        <v>383</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>624</v>
+        <v>13</v>
       </c>
       <c r="B180" s="1">
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E180" s="2">
-        <v>43572</v>
+        <v>384</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>697</v>
+        <v>387</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>698</v>
+        <v>388</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
       <c r="B181" s="1">
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>779</v>
+        <v>389</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E181" s="2">
-        <v>43617</v>
+        <v>390</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>780</v>
+        <v>392</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>781</v>
+        <v>393</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
       <c r="B182" s="1">
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>786</v>
+        <v>394</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="E182" s="2">
-        <v>43948</v>
+        <v>616</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>788</v>
+        <v>396</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>789</v>
+        <v>397</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>13</v>
+      </c>
       <c r="B183" s="1">
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>790</v>
+        <v>398</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E183" s="2">
-        <v>44158</v>
+      <c r="E183" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>791</v>
+        <v>400</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>792</v>
+        <v>401</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
       <c r="B184" s="1">
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>793</v>
+        <v>402</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="E184" s="2">
-        <v>44188</v>
+        <v>616</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>795</v>
+        <v>404</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>796</v>
+        <v>405</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
       <c r="B185" s="1">
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E185" s="2">
-        <v>44303</v>
+        <v>406</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>626</v>
+        <v>408</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>627</v>
+        <v>409</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>13</v>
+      </c>
       <c r="B186" s="1">
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>682</v>
+        <v>410</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E186" s="2">
-        <v>44420</v>
+        <v>411</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>683</v>
+        <v>413</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>684</v>
+        <v>414</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
       <c r="B187" s="1">
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>632</v>
+        <v>415</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="E187" s="2">
-        <v>44636</v>
+        <v>416</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>634</v>
+        <v>417</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>635</v>
+        <v>418</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
       <c r="B188" s="1">
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="E188" s="2">
-        <v>44781</v>
+        <v>419</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>647</v>
+        <v>422</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>648</v>
+        <v>423</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>13</v>
+      </c>
       <c r="B189" s="1">
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>768</v>
+        <v>424</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="E189" s="2">
-        <v>44913</v>
+        <v>425</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>770</v>
+        <v>427</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>771</v>
+        <v>428</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>628</v>
+        <v>13</v>
       </c>
       <c r="B190" s="1">
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>717</v>
+        <v>429</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E190" s="2">
-        <v>42219</v>
+        <v>119</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>718</v>
+        <v>431</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>719</v>
+        <v>432</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
       <c r="B191" s="1">
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>776</v>
+        <v>433</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E191" s="2">
-        <v>42914</v>
+      <c r="E191" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>777</v>
+        <v>408</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>778</v>
+        <v>435</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>13</v>
+      </c>
       <c r="B192" s="1">
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>731</v>
+        <v>436</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E192" s="2">
-        <v>42978</v>
+        <v>437</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>732</v>
+        <v>404</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>916</v>
+        <v>895</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="E193" s="3">
-        <v>43232</v>
+        <v>45069</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>342</v>
+        <v>896</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>193</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="E194" s="3">
-        <v>43348</v>
+        <v>656</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45132</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>920</v>
+        <v>657</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>440</v>
+      </c>
       <c r="B195" s="1">
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>862</v>
+        <v>899</v>
       </c>
       <c r="E195" s="3">
-        <v>43713</v>
+        <v>33604</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>699</v>
+        <v>901</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E196" s="2">
-        <v>43926</v>
+        <v>902</v>
+      </c>
+      <c r="E196" s="3">
+        <v>35796</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>701</v>
+        <v>903</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E197" s="2">
-        <v>44176</v>
+        <v>904</v>
+      </c>
+      <c r="E197" s="3">
+        <v>36161</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>680</v>
+        <v>905</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="E198" s="2">
-        <v>43922</v>
+        <v>906</v>
+      </c>
+      <c r="E198" s="3">
+        <v>41275</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>757</v>
+        <v>907</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>925</v>
+        <v>441</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E199" s="3">
-        <v>43943</v>
+        <v>442</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>921</v>
+        <v>444</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>13</v>
+      </c>
       <c r="B200" s="1">
         <v>199</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>926</v>
+        <v>446</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E200" s="3">
-        <v>43951</v>
+        <v>616</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>927</v>
+        <v>448</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>13</v>
+      </c>
       <c r="B201" s="1">
         <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>928</v>
+        <v>450</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E201" s="3">
-        <v>43968</v>
+        <v>451</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>929</v>
+        <v>453</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>13</v>
+      </c>
       <c r="B202" s="1">
         <v>201</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>930</v>
+        <v>455</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E202" s="3">
-        <v>44110</v>
+        <v>456</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>931</v>
+        <v>458</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>13</v>
+      </c>
       <c r="B203" s="1">
         <v>202</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>797</v>
+        <v>460</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E203" s="2">
-        <v>44197</v>
+        <v>461</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>799</v>
+        <v>463</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>703</v>
+        <v>908</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E204" s="2">
-        <v>44333</v>
+        <v>909</v>
+      </c>
+      <c r="E204" s="3">
+        <v>43515</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>704</v>
+        <v>910</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
       <c r="B205" s="1">
         <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>734</v>
+        <v>465</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="E205" s="2">
-        <v>44373</v>
+        <v>616</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>736</v>
+        <v>467</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>13</v>
+      </c>
       <c r="B206" s="1">
         <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>943</v>
+        <v>469</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="E206" s="3">
-        <v>44393</v>
+        <v>470</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>945</v>
+        <v>472</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>13</v>
+      </c>
       <c r="B207" s="1">
         <v>206</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>936</v>
+        <v>474</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="E207" s="3">
-        <v>44453</v>
+        <v>616</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>938</v>
+        <v>476</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>13</v>
+      </c>
       <c r="B208" s="1">
         <v>207</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>629</v>
+        <v>478</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E208" s="2">
-        <v>44544</v>
+      <c r="E208" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>630</v>
+        <v>480</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>631</v>
+        <v>481</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>13</v>
+      </c>
       <c r="B209" s="1">
         <v>208</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>939</v>
+        <v>482</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E209" s="3">
-        <v>44562</v>
+        <v>483</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>940</v>
+        <v>484</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>942</v>
+        <v>485</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>13</v>
+      </c>
       <c r="B210" s="1">
         <v>209</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="E210" s="3">
-        <v>44589</v>
+        <v>486</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>226</v>
+        <v>489</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>952</v>
+        <v>490</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>13</v>
+      </c>
       <c r="B211" s="1">
         <v>210</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>947</v>
+        <v>491</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E211" s="3">
-        <v>44689</v>
+        <v>487</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>948</v>
+        <v>493</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>953</v>
+        <v>494</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>13</v>
+      </c>
       <c r="B212" s="1">
         <v>211</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>949</v>
+        <v>495</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E212" s="3">
-        <v>44706</v>
+        <v>496</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>757</v>
+        <v>498</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>954</v>
+        <v>499</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>624</v>
+      </c>
       <c r="B213" s="1">
         <v>212</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="E213" s="3">
-        <v>44706</v>
+        <v>696</v>
+      </c>
+      <c r="E213" s="2">
+        <v>43572</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>951</v>
+        <v>697</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>955</v>
+        <v>698</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -7858,19 +8298,19 @@
         <v>213</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>812</v>
+        <v>779</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>487</v>
+        <v>616</v>
       </c>
       <c r="E214" s="2">
-        <v>44750</v>
+        <v>43617</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>813</v>
+        <v>780</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>814</v>
+        <v>781</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -7878,16 +8318,19 @@
         <v>214</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>765</v>
+        <v>786</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>787</v>
       </c>
       <c r="E215" s="2">
-        <v>44760</v>
+        <v>43948</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -7895,19 +8338,19 @@
         <v>215</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>970</v>
+        <v>790</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E216" s="3">
-        <v>44927</v>
+        <v>616</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44158</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>971</v>
+        <v>791</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>972</v>
+        <v>792</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -7915,19 +8358,19 @@
         <v>216</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="E217" s="2">
-        <v>44957</v>
+        <v>44188</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>818</v>
+        <v>796</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -7935,19 +8378,16 @@
         <v>217</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="E218" s="3">
-        <v>44963</v>
+        <v>625</v>
+      </c>
+      <c r="E218" s="2">
+        <v>44303</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>968</v>
+        <v>626</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>969</v>
+        <v>627</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -7955,19 +8395,19 @@
         <v>218</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>819</v>
+        <v>682</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>820</v>
+        <v>119</v>
       </c>
       <c r="E219" s="2">
-        <v>45037</v>
+        <v>44420</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>821</v>
+        <v>683</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>822</v>
+        <v>684</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -7975,16 +8415,19 @@
         <v>219</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="E220" s="3">
-        <v>45062</v>
+        <v>632</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E220" s="2">
+        <v>44636</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>961</v>
+        <v>634</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>964</v>
+        <v>635</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -7992,16 +8435,16 @@
         <v>220</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="E221" s="3">
-        <v>45287</v>
+        <v>646</v>
+      </c>
+      <c r="E221" s="2">
+        <v>44781</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>963</v>
+        <v>647</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>965</v>
+        <v>648</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -8009,580 +8452,1339 @@
         <v>221</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>823</v>
+        <v>768</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>824</v>
+        <v>769</v>
       </c>
       <c r="E222" s="2">
-        <v>45292</v>
+        <v>44913</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>825</v>
+        <v>770</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>826</v>
+        <v>771</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>628</v>
+      </c>
       <c r="B223" s="1">
         <v>222</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>956</v>
+        <v>717</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="E223" s="3">
-        <v>45300</v>
+        <v>616</v>
+      </c>
+      <c r="E223" s="2">
+        <v>42219</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>958</v>
+        <v>718</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>959</v>
+        <v>719</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>500</v>
-      </c>
       <c r="B224" s="1">
         <v>223</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="E224" s="2">
-        <v>42552</v>
+        <v>976</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E224" s="3">
+        <v>42453</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>726</v>
+        <v>974</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>224</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>728</v>
+        <v>776</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="E225" s="2">
-        <v>42661</v>
+        <v>42914</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>225</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>501</v>
+        <v>731</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>503</v>
+        <v>616</v>
+      </c>
+      <c r="E226" s="2">
+        <v>42978</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>504</v>
+        <v>732</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>13</v>
-      </c>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>226</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>507</v>
+        <v>916</v>
+      </c>
+      <c r="E227" s="3">
+        <v>43232</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>508</v>
+        <v>342</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>13</v>
-      </c>
+        <v>922</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>227</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>510</v>
+        <v>917</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>511</v>
+        <v>918</v>
+      </c>
+      <c r="E228" s="3">
+        <v>43348</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>512</v>
+        <v>920</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>13</v>
-      </c>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>228</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>514</v>
+        <v>919</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>516</v>
+        <v>862</v>
+      </c>
+      <c r="E229" s="3">
+        <v>43713</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>517</v>
+        <v>921</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>13</v>
-      </c>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>229</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>519</v>
+        <v>1086</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>520</v>
+        <v>700</v>
+      </c>
+      <c r="E230" s="3">
+        <v>43779</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>521</v>
+        <v>1085</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>13</v>
-      </c>
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>230</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>523</v>
+        <v>699</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>524</v>
+        <v>700</v>
+      </c>
+      <c r="E231" s="2">
+        <v>43926</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>525</v>
+        <v>701</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>13</v>
-      </c>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>231</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>527</v>
+        <v>679</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>529</v>
+        <v>420</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44176</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>508</v>
+        <v>680</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>13</v>
-      </c>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>232</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>533</v>
+        <v>756</v>
+      </c>
+      <c r="E233" s="2">
+        <v>43922</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>534</v>
+        <v>757</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>233</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>672</v>
+        <v>925</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="E234" s="2">
-        <v>44081</v>
+        <v>700</v>
+      </c>
+      <c r="E234" s="3">
+        <v>43943</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>674</v>
+        <v>921</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>234</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>676</v>
+        <v>926</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="E235" s="2">
-        <v>44106</v>
+      <c r="E235" s="3">
+        <v>43951</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>677</v>
+        <v>927</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>235</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E236" s="2">
-        <v>44179</v>
+        <v>928</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E236" s="3">
+        <v>43968</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>754</v>
+        <v>929</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>13</v>
-      </c>
+        <v>934</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>236</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>540</v>
+        <v>930</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>542</v>
+        <v>621</v>
+      </c>
+      <c r="E237" s="3">
+        <v>44110</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>543</v>
+        <v>931</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>237</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>536</v>
+        <v>797</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>537</v>
+        <v>798</v>
+      </c>
+      <c r="E238" s="2">
+        <v>44197</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>538</v>
+        <v>799</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>238</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>807</v>
+        <v>703</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="E239" s="2">
-        <v>44481</v>
+        <v>44333</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>808</v>
+        <v>704</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>13</v>
-      </c>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>545</v>
+        <v>734</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>230</v>
+        <v>735</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44373</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>547</v>
+        <v>736</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>549</v>
-      </c>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>240</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>550</v>
+        <v>943</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>551</v>
+        <v>944</v>
+      </c>
+      <c r="E241" s="3">
+        <v>44393</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>552</v>
+        <v>945</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>13</v>
-      </c>
+        <v>941</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>241</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>554</v>
+        <v>936</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>555</v>
+        <v>937</v>
+      </c>
+      <c r="E242" s="3">
+        <v>44453</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>556</v>
+        <v>938</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>13</v>
-      </c>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>242</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>558</v>
+        <v>629</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E243" s="1" t="s">
-        <v>559</v>
+      <c r="E243" s="2">
+        <v>44544</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>560</v>
+        <v>630</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>13</v>
-      </c>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>243</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>562</v>
+        <v>939</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>564</v>
+        <v>487</v>
+      </c>
+      <c r="E244" s="3">
+        <v>44562</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>565</v>
+        <v>940</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>13</v>
-      </c>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>244</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>567</v>
+        <v>1090</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>568</v>
+        <v>1089</v>
+      </c>
+      <c r="E245" s="3">
+        <v>44562</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>569</v>
+        <v>1088</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>13</v>
-      </c>
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>245</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>573</v>
+        <v>946</v>
+      </c>
+      <c r="E246" s="3">
+        <v>44589</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>574</v>
+        <v>226</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>13</v>
-      </c>
+        <v>952</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>246</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>576</v>
+        <v>1093</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>578</v>
+        <v>633</v>
+      </c>
+      <c r="E247" s="3">
+        <v>44621</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>579</v>
+        <v>1092</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>13</v>
-      </c>
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>247</v>
       </c>
       <c r="C248" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E248" s="3">
+        <v>44689</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B249" s="1">
+        <v>248</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E249" s="3">
+        <v>44706</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B250" s="1">
+        <v>249</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="E250" s="3">
+        <v>44706</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B251" s="1">
+        <v>250</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E251" s="2">
+        <v>44750</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B252" s="1">
+        <v>251</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E252" s="2">
+        <v>44760</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B253" s="1">
+        <v>252</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E253" s="3">
+        <v>44909</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B254" s="1">
+        <v>253</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E254" s="3">
+        <v>44927</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B255" s="1">
+        <v>254</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="E255" s="2">
+        <v>44957</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B256" s="1">
+        <v>255</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E256" s="3">
+        <v>44963</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B257" s="1">
+        <v>256</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45037</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B258" s="1">
+        <v>257</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E258" s="3">
+        <v>45051</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B259" s="1">
+        <v>258</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="E259" s="3">
+        <v>45062</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B260" s="1">
+        <v>259</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="E260" s="3">
+        <v>45287</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B261" s="1">
+        <v>260</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45292</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B262" s="1">
+        <v>261</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="E262" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>500</v>
+      </c>
+      <c r="B263" s="1">
+        <v>262</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E263" s="2">
+        <v>42552</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B264" s="1">
+        <v>263</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E264" s="2">
+        <v>42661</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B265" s="1">
+        <v>264</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>13</v>
+      </c>
+      <c r="B266" s="1">
+        <v>265</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267" s="1">
+        <v>266</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>13</v>
+      </c>
+      <c r="B268" s="1">
+        <v>267</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>13</v>
+      </c>
+      <c r="B269" s="1">
+        <v>268</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>13</v>
+      </c>
+      <c r="B270" s="1">
+        <v>269</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>13</v>
+      </c>
+      <c r="B271" s="1">
+        <v>270</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>13</v>
+      </c>
+      <c r="B272" s="1">
+        <v>271</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B273" s="1">
+        <v>272</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E273" s="2">
+        <v>44081</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B274" s="1">
+        <v>273</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E274" s="2">
+        <v>44106</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B275" s="1">
+        <v>274</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E275" s="2">
+        <v>44179</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>13</v>
+      </c>
+      <c r="B276" s="1">
+        <v>275</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B277" s="1">
+        <v>276</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B278" s="1">
+        <v>277</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E278" s="2">
+        <v>44481</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>13</v>
+      </c>
+      <c r="B279" s="1">
+        <v>278</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>549</v>
+      </c>
+      <c r="B280" s="1">
+        <v>279</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>13</v>
+      </c>
+      <c r="B281" s="1">
+        <v>280</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>13</v>
+      </c>
+      <c r="B282" s="1">
+        <v>281</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>13</v>
+      </c>
+      <c r="B283" s="1">
+        <v>282</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>13</v>
+      </c>
+      <c r="B284" s="1">
+        <v>283</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>13</v>
+      </c>
+      <c r="B285" s="1">
+        <v>284</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>13</v>
+      </c>
+      <c r="B286" s="1">
+        <v>285</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" s="1">
+        <v>286</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="D287" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E248" s="1" t="s">
+      <c r="E287" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F248" s="1" t="s">
+      <c r="F287" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G248" s="1" t="s">
+      <c r="G287" s="1" t="s">
         <v>584</v>
       </c>
     </row>
@@ -8590,7 +9792,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A71 C240:G240 C48:G50 A48:A49 C54 A54:A55 C62:D62 F62:G62 A13:A14 A25 C25 C68 A68:A69 A79 C74 A85:A86 C79 A240:A248 C85:G86 A89 C89:G89 C94 F94:G94 A120 C173:G173 A172:A175 A179 C98:G100 A103 A125:A140 C124:G125 C113:G115 A142:A154 C142:G142 C119:G119 A7 A10 A237 C227:G233 A228:A231 A233 A177 A1:G1 A2 A62:A65 C63 C23:G23 A23 A156:A159 A224 C103:D103 F103:G103 A98 D112:G112 A51 A100 C13:G14 C7:G7 C10 E65 C19:G19 A18:A19 A30:A43 C30:G30 A46 C45:G46 C71:G71 A112:A117 A16 C16:G16 A167:A170 C166:G166 C246:G248 C245 E245:G245 C244:G244 C243 E243:G243 C242 E242:G242 C241 E241:G241 C176:G179 C175 E175:G175 C174 E174:G174 C172 E172:G172 C168:G170 C167 E167:G167 C159:G159 C158 E158:G158 C153:G157 C152 E152:G152 C151 C150 E150:G150 E151:G151 C149 E149:G149 C147:G148 C146 E146:G146 C145 E145:G145 C144:G144 C143 E143:G143 C140:G140 C139 E139:G139 C137:G138 C136 E136:G136 C132:G135 C131 E131:G131 C128:G130 C127 E127:G127 C126 E126:G126 C120 E120:G120 C117:G117 C116 E116:G116 C87 E87:G87 C80 E80:G80 E79:G79 E74:G74 C69 E69:G69 E68:G68 C64 E64:G64 E63:G63 C55 E55:G55 E54:G54 C51 E51:G51 C39:G41 C38 E38:G38 C43:G43 C42 E42:G42 C34:G37 C33 E33:G33 C32 E32:G32 C31 E31:G31 E25:G25 C18 E18:G18 E10:G10" numberStoredAsText="1"/>
+    <ignoredError sqref="A88 C279:G279 C65:G67 A65:A66 A71:A72 C79:D79 F79:G79 A14:A15 A31 C31 A85:A86 A97 C91 A104:A105 A279:A287 C104:G105 A109 C109:G109 C114 F114:G114 A151 C206:G206 A205:A208 A212 C124:G125 A130 A158:A173 C157:G158 C142:G144 A175:A187 C175:G175 C150:G150 A7 A10 A276 C266:G272 A267:A270 A272 A210 A1:G1 A2 A79:A82 C28:G28 A28 A189:A192 A263 C130:D130 F130:G130 A122 D140:G140 A68 A125 C14:G15 C7:G7 C10 E82 C22:G22 A22 A57:A60 C45:G45 A63 C62:G63 C88:G88 A147 A18 C18:G18 A200:A203 C199:G199 C285:G287 C284 E284:G284 C283:G283 C280:C282 E280:G282 C209:G212 C207:C208 E207:G208 C205 E205:G205 C201:G203 C200 E200:G200 C192:G192 C191 E191:G191 C186:G190 C182:C185 E182:G185 C180:G181 C178:C179 E178:G179 C177:G177 C176 E176:G176 C173:G173 C172 E172:G172 C170:G171 C169 E169:G169 C165:G168 C164 E164:G164 C161:G163 C159:C160 E159:G160 C151 E151:G151 C147:G147 C145 E145:G145 C106 E106:G106 C99 E99:G99 E91:G91 C85:C86 E85:G86 C80:C81 E80:G81 C71:C72 E71:G72 C68 E68:G68 C57:G58 C54 E54:G54 C60:G60 C59 E59:G59 C50:G53 C47:C49 E47:G49 E31:G31 C20 E20:G20 E10:G10 C55:G55 A47:A55 A45 E97:G97 C97 C122:G122 A140 A142:A145 A20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/paper_dataframe_markdown_backup.xlsx
+++ b/paper_dataframe_markdown_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Desktop\awesome-ai-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACA4471-385C-4C0A-8E8D-7CFDAC1EFD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C28C98-7BEC-452B-A6B9-8457AD59F2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="765" windowWidth="24270" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="1410" windowWidth="21180" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1105">
   <si>
     <t>Theme</t>
   </si>
@@ -3326,6 +3326,15 @@
   </si>
   <si>
     <t>[Link](http://arxiv.org/abs/2305.03458v1)</t>
+  </si>
+  <si>
+    <t>SCOTT: Self-Consistent Chain-of-Thought Distillation</t>
+  </si>
+  <si>
+    <t>Peifeng Wang et al.</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2305.01879)</t>
   </si>
 </sst>
 </file>
@@ -3769,10 +3778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G287"/>
+  <dimension ref="A1:G288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="E290" sqref="E290"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7414,65 +7423,62 @@
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>649</v>
+        <v>1102</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>650</v>
+        <v>256</v>
       </c>
       <c r="E174" s="2">
-        <v>45049</v>
+        <v>44927</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>651</v>
+        <v>1103</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>652</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>361</v>
-      </c>
       <c r="B175" s="1">
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>362</v>
+        <v>649</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>364</v>
+        <v>650</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45049</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>365</v>
+        <v>651</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>366</v>
+        <v>652</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="B176" s="1">
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>616</v>
+        <v>363</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -7483,19 +7489,19 @@
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>372</v>
+        <v>616</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -7506,19 +7512,19 @@
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>616</v>
+        <v>372</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -7529,19 +7535,19 @@
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -7552,19 +7558,19 @@
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>385</v>
+        <v>616</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -7575,19 +7581,19 @@
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -7598,19 +7604,19 @@
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>616</v>
+        <v>390</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -7621,19 +7627,19 @@
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -7644,19 +7650,19 @@
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -7667,19 +7673,19 @@
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -7690,19 +7696,19 @@
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>411</v>
+        <v>616</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -7713,19 +7719,19 @@
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -7736,19 +7742,19 @@
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -7759,19 +7765,19 @@
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -7782,19 +7788,19 @@
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>119</v>
+        <v>425</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -7805,19 +7811,19 @@
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>616</v>
+        <v>119</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -7828,39 +7834,42 @@
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>437</v>
+        <v>616</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>13</v>
+      </c>
       <c r="B193" s="1">
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>895</v>
+        <v>436</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="E193" s="3">
-        <v>45069</v>
+        <v>437</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>896</v>
+        <v>404</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>897</v>
+        <v>439</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -7868,59 +7877,59 @@
         <v>193</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="E194" s="2">
-        <v>45132</v>
+        <v>895</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E194" s="3">
+        <v>45069</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>657</v>
+        <v>896</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>658</v>
+        <v>897</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>440</v>
-      </c>
       <c r="B195" s="1">
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="E195" s="3">
-        <v>33604</v>
+        <v>656</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45132</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>900</v>
+        <v>657</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>911</v>
+        <v>658</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>440</v>
+      </c>
       <c r="B196" s="1">
         <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E196" s="3">
-        <v>35796</v>
+        <v>33604</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -7928,16 +7937,19 @@
         <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>902</v>
       </c>
       <c r="E197" s="3">
-        <v>36161</v>
+        <v>35796</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -7945,16 +7957,16 @@
         <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E198" s="3">
-        <v>41275</v>
+        <v>36161</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -7962,42 +7974,36 @@
         <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>443</v>
+        <v>906</v>
+      </c>
+      <c r="E199" s="3">
+        <v>41275</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>444</v>
+        <v>907</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>445</v>
+        <v>914</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>13</v>
-      </c>
       <c r="B200" s="1">
         <v>199</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>616</v>
+        <v>442</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -8008,19 +8014,19 @@
         <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>451</v>
+        <v>616</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -8031,19 +8037,19 @@
         <v>201</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -8054,62 +8060,62 @@
         <v>202</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>13</v>
+      </c>
       <c r="B204" s="1">
         <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>908</v>
+        <v>460</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="E204" s="3">
-        <v>43515</v>
+        <v>461</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>910</v>
+        <v>463</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>915</v>
+        <v>464</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>13</v>
-      </c>
       <c r="B205" s="1">
         <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>465</v>
+        <v>908</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>466</v>
+        <v>909</v>
+      </c>
+      <c r="E205" s="3">
+        <v>43515</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>467</v>
+        <v>910</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>468</v>
+        <v>915</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -8120,19 +8126,19 @@
         <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>470</v>
+        <v>616</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -8143,19 +8149,19 @@
         <v>206</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>616</v>
+        <v>470</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -8166,19 +8172,19 @@
         <v>207</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -8189,19 +8195,19 @@
         <v>208</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>483</v>
+        <v>616</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>230</v>
+        <v>479</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -8212,19 +8218,19 @@
         <v>209</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>488</v>
+        <v>230</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -8235,19 +8241,19 @@
         <v>210</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>487</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -8258,59 +8264,62 @@
         <v>211</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>624</v>
+        <v>13</v>
       </c>
       <c r="B213" s="1">
         <v>212</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E213" s="2">
-        <v>43572</v>
+        <v>495</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>697</v>
+        <v>498</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>698</v>
+        <v>499</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>624</v>
+      </c>
       <c r="B214" s="1">
         <v>213</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="E214" s="2">
-        <v>43617</v>
+        <v>43572</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>780</v>
+        <v>697</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>781</v>
+        <v>698</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -8318,19 +8327,19 @@
         <v>214</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>787</v>
+        <v>616</v>
       </c>
       <c r="E215" s="2">
-        <v>43948</v>
+        <v>43617</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -8338,19 +8347,19 @@
         <v>215</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>616</v>
+        <v>787</v>
       </c>
       <c r="E216" s="2">
-        <v>44158</v>
+        <v>43948</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -8358,19 +8367,19 @@
         <v>216</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>794</v>
+        <v>616</v>
       </c>
       <c r="E217" s="2">
-        <v>44188</v>
+        <v>44158</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -8378,16 +8387,19 @@
         <v>217</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>625</v>
+        <v>793</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="E218" s="2">
-        <v>44303</v>
+        <v>44188</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>626</v>
+        <v>795</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>627</v>
+        <v>796</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -8395,19 +8407,16 @@
         <v>218</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>119</v>
+        <v>625</v>
       </c>
       <c r="E219" s="2">
-        <v>44420</v>
+        <v>44303</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>683</v>
+        <v>626</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>684</v>
+        <v>627</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -8415,19 +8424,19 @@
         <v>219</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>632</v>
+        <v>682</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>633</v>
+        <v>119</v>
       </c>
       <c r="E220" s="2">
-        <v>44636</v>
+        <v>44420</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>635</v>
+        <v>684</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -8435,16 +8444,19 @@
         <v>220</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>646</v>
+        <v>632</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="E221" s="2">
-        <v>44781</v>
+        <v>44636</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -8452,62 +8464,59 @@
         <v>221</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>769</v>
+        <v>646</v>
       </c>
       <c r="E222" s="2">
-        <v>44913</v>
+        <v>44781</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>770</v>
+        <v>647</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>771</v>
+        <v>648</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>628</v>
-      </c>
       <c r="B223" s="1">
         <v>222</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>717</v>
+        <v>768</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>616</v>
+        <v>769</v>
       </c>
       <c r="E223" s="2">
-        <v>42219</v>
+        <v>44913</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>718</v>
+        <v>770</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>719</v>
+        <v>771</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>628</v>
+      </c>
       <c r="B224" s="1">
         <v>223</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>976</v>
+        <v>717</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="E224" s="3">
-        <v>42453</v>
+        <v>616</v>
+      </c>
+      <c r="E224" s="2">
+        <v>42219</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>974</v>
+        <v>718</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>973</v>
+        <v>719</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
@@ -8515,19 +8524,19 @@
         <v>224</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>776</v>
+        <v>976</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E225" s="2">
-        <v>42914</v>
+        <v>975</v>
+      </c>
+      <c r="E225" s="3">
+        <v>42453</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>777</v>
+        <v>974</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>778</v>
+        <v>973</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
@@ -8535,19 +8544,19 @@
         <v>225</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>731</v>
+        <v>776</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E226" s="2">
-        <v>42978</v>
+        <v>42914</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>732</v>
+        <v>777</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>733</v>
+        <v>778</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
@@ -8555,16 +8564,19 @@
         <v>226</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="E227" s="3">
-        <v>43232</v>
+        <v>731</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E227" s="2">
+        <v>42978</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>342</v>
+        <v>732</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>922</v>
+        <v>733</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
@@ -8572,19 +8584,16 @@
         <v>227</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E228" s="3">
-        <v>43348</v>
+        <v>43232</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>920</v>
+        <v>342</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
@@ -8592,19 +8601,19 @@
         <v>228</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>862</v>
+        <v>918</v>
       </c>
       <c r="E229" s="3">
-        <v>43713</v>
+        <v>43348</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
@@ -8612,19 +8621,19 @@
         <v>229</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1086</v>
+        <v>919</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>700</v>
+        <v>862</v>
       </c>
       <c r="E230" s="3">
-        <v>43779</v>
+        <v>43713</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>1085</v>
+        <v>921</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>1087</v>
+        <v>924</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
@@ -8632,19 +8641,19 @@
         <v>230</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>699</v>
+        <v>1086</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="E231" s="2">
-        <v>43926</v>
+      <c r="E231" s="3">
+        <v>43779</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>701</v>
+        <v>1085</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>702</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.25">
@@ -8652,19 +8661,19 @@
         <v>231</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="E232" s="2">
-        <v>44176</v>
+        <v>43926</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>680</v>
+        <v>701</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>681</v>
+        <v>702</v>
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
@@ -8672,16 +8681,19 @@
         <v>232</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>756</v>
+        <v>679</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="E233" s="2">
-        <v>43922</v>
+        <v>44176</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>757</v>
+        <v>680</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>758</v>
+        <v>681</v>
       </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
@@ -8689,19 +8701,16 @@
         <v>233</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E234" s="3">
-        <v>43943</v>
+        <v>756</v>
+      </c>
+      <c r="E234" s="2">
+        <v>43922</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>921</v>
+        <v>757</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>932</v>
+        <v>758</v>
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
@@ -8709,19 +8718,19 @@
         <v>234</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>621</v>
+        <v>700</v>
       </c>
       <c r="E235" s="3">
-        <v>43951</v>
+        <v>43943</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
@@ -8729,19 +8738,19 @@
         <v>235</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>700</v>
+        <v>621</v>
       </c>
       <c r="E236" s="3">
-        <v>43968</v>
+        <v>43951</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
@@ -8749,19 +8758,19 @@
         <v>236</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>621</v>
+        <v>700</v>
       </c>
       <c r="E237" s="3">
-        <v>44110</v>
+        <v>43968</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
@@ -8769,19 +8778,19 @@
         <v>237</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>797</v>
+        <v>930</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E238" s="2">
-        <v>44197</v>
+        <v>621</v>
+      </c>
+      <c r="E238" s="3">
+        <v>44110</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>799</v>
+        <v>931</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>800</v>
+        <v>935</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
@@ -8789,19 +8798,19 @@
         <v>238</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>703</v>
+        <v>797</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>532</v>
+        <v>798</v>
       </c>
       <c r="E239" s="2">
-        <v>44333</v>
+        <v>44197</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>704</v>
+        <v>799</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>705</v>
+        <v>800</v>
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
@@ -8809,19 +8818,19 @@
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>735</v>
+        <v>532</v>
       </c>
       <c r="E240" s="2">
-        <v>44373</v>
+        <v>44333</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
@@ -8829,19 +8838,19 @@
         <v>240</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>943</v>
+        <v>734</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="E241" s="3">
-        <v>44393</v>
+        <v>735</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44373</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>945</v>
+        <v>736</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>941</v>
+        <v>737</v>
       </c>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.25">
@@ -8849,19 +8858,19 @@
         <v>241</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="E242" s="3">
-        <v>44453</v>
+        <v>44393</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
@@ -8869,19 +8878,19 @@
         <v>242</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>629</v>
+        <v>936</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E243" s="2">
-        <v>44544</v>
+        <v>937</v>
+      </c>
+      <c r="E243" s="3">
+        <v>44453</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>630</v>
+        <v>938</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>631</v>
+        <v>942</v>
       </c>
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.25">
@@ -8889,19 +8898,19 @@
         <v>243</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>939</v>
+        <v>629</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E244" s="3">
-        <v>44562</v>
+        <v>616</v>
+      </c>
+      <c r="E244" s="2">
+        <v>44544</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>940</v>
+        <v>630</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>942</v>
+        <v>631</v>
       </c>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.25">
@@ -8909,19 +8918,19 @@
         <v>244</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1090</v>
+        <v>939</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1089</v>
+        <v>487</v>
       </c>
       <c r="E245" s="3">
         <v>44562</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1088</v>
+        <v>940</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>1091</v>
+        <v>942</v>
       </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
@@ -8929,16 +8938,19 @@
         <v>245</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>946</v>
+        <v>1090</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>1089</v>
       </c>
       <c r="E246" s="3">
-        <v>44589</v>
+        <v>44562</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>226</v>
+        <v>1088</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>952</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.25">
@@ -8946,19 +8958,16 @@
         <v>246</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>633</v>
+        <v>946</v>
       </c>
       <c r="E247" s="3">
-        <v>44621</v>
+        <v>44589</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1092</v>
+        <v>226</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>1094</v>
+        <v>952</v>
       </c>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
@@ -8966,19 +8975,19 @@
         <v>247</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>947</v>
+        <v>1093</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>238</v>
+        <v>633</v>
       </c>
       <c r="E248" s="3">
-        <v>44689</v>
+        <v>44621</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>948</v>
+        <v>1092</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>953</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.25">
@@ -8986,19 +8995,19 @@
         <v>248</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>238</v>
       </c>
       <c r="E249" s="3">
-        <v>44706</v>
+        <v>44689</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>757</v>
+        <v>948</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.25">
@@ -9006,16 +9015,19 @@
         <v>249</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="E250" s="3">
         <v>44706</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>951</v>
+        <v>757</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.25">
@@ -9023,19 +9035,16 @@
         <v>250</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E251" s="2">
-        <v>44750</v>
+        <v>950</v>
+      </c>
+      <c r="E251" s="3">
+        <v>44706</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>813</v>
+        <v>951</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>814</v>
+        <v>955</v>
       </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
@@ -9043,16 +9052,19 @@
         <v>251</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>765</v>
+        <v>812</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="E252" s="2">
-        <v>44760</v>
+        <v>44750</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>766</v>
+        <v>813</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>767</v>
+        <v>814</v>
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
@@ -9060,19 +9072,16 @@
         <v>252</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E253" s="3">
-        <v>44909</v>
+        <v>765</v>
+      </c>
+      <c r="E253" s="2">
+        <v>44760</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1097</v>
+        <v>766</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>1100</v>
+        <v>767</v>
       </c>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
@@ -9080,19 +9089,19 @@
         <v>253</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>970</v>
+        <v>1099</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>256</v>
+        <v>1098</v>
       </c>
       <c r="E254" s="3">
-        <v>44927</v>
+        <v>44909</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>971</v>
+        <v>1097</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>972</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
@@ -9100,19 +9109,19 @@
         <v>254</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>815</v>
+        <v>970</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="E255" s="2">
-        <v>44957</v>
+        <v>256</v>
+      </c>
+      <c r="E255" s="3">
+        <v>44927</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>817</v>
+        <v>971</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>818</v>
+        <v>972</v>
       </c>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.25">
@@ -9120,19 +9129,19 @@
         <v>255</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>966</v>
+        <v>815</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="E256" s="3">
-        <v>44963</v>
+        <v>816</v>
+      </c>
+      <c r="E256" s="2">
+        <v>44957</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>968</v>
+        <v>817</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>969</v>
+        <v>818</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -9140,19 +9149,19 @@
         <v>256</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>819</v>
+        <v>966</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="E257" s="2">
-        <v>45037</v>
+        <v>967</v>
+      </c>
+      <c r="E257" s="3">
+        <v>44963</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>821</v>
+        <v>968</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>822</v>
+        <v>969</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -9160,16 +9169,19 @@
         <v>257</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E258" s="3">
-        <v>45051</v>
+        <v>819</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45037</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1095</v>
+        <v>821</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>1101</v>
+        <v>822</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -9177,16 +9189,16 @@
         <v>258</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>960</v>
+        <v>1096</v>
       </c>
       <c r="E259" s="3">
-        <v>45062</v>
+        <v>45051</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>961</v>
+        <v>1095</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>964</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -9194,16 +9206,16 @@
         <v>259</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E260" s="3">
-        <v>45287</v>
+        <v>45062</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -9211,19 +9223,16 @@
         <v>260</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="E261" s="2">
-        <v>45292</v>
+        <v>962</v>
+      </c>
+      <c r="E261" s="3">
+        <v>45287</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>825</v>
+        <v>963</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>826</v>
+        <v>965</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -9231,56 +9240,59 @@
         <v>261</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>956</v>
+        <v>823</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="E262" s="3">
-        <v>45300</v>
+        <v>824</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45292</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>958</v>
+        <v>825</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>959</v>
+        <v>826</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>500</v>
-      </c>
       <c r="B263" s="1">
         <v>262</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="E263" s="2">
-        <v>42552</v>
+        <v>956</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="E263" s="3">
+        <v>45300</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>726</v>
+        <v>958</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>727</v>
+        <v>959</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>500</v>
+      </c>
       <c r="B264" s="1">
         <v>263</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E264" s="2">
-        <v>42661</v>
+        <v>42552</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -9288,42 +9300,36 @@
         <v>264</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>503</v>
+        <v>728</v>
+      </c>
+      <c r="E265" s="2">
+        <v>42661</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>504</v>
+        <v>729</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>505</v>
+        <v>730</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>13</v>
-      </c>
       <c r="B266" s="1">
         <v>265</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>390</v>
+        <v>502</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -9334,19 +9340,19 @@
         <v>266</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -9357,19 +9363,19 @@
         <v>267</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>515</v>
+        <v>202</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -9380,19 +9386,19 @@
         <v>268</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>207</v>
+        <v>515</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -9403,19 +9409,19 @@
         <v>269</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>411</v>
+        <v>207</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -9426,19 +9432,19 @@
         <v>270</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>528</v>
+        <v>411</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -9449,39 +9455,42 @@
         <v>271</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>13</v>
+      </c>
       <c r="B273" s="1">
         <v>272</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>672</v>
+        <v>531</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="E273" s="2">
-        <v>44081</v>
+        <v>532</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>674</v>
+        <v>534</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>675</v>
+        <v>535</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -9489,19 +9498,19 @@
         <v>273</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>621</v>
+        <v>673</v>
       </c>
       <c r="E274" s="2">
-        <v>44106</v>
+        <v>44081</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -9509,59 +9518,59 @@
         <v>274</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>753</v>
+        <v>676</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="E275" s="2">
-        <v>44179</v>
+        <v>44106</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>754</v>
+        <v>677</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>755</v>
+        <v>678</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>13</v>
-      </c>
       <c r="B276" s="1">
         <v>275</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>542</v>
+        <v>753</v>
+      </c>
+      <c r="E276" s="2">
+        <v>44179</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>543</v>
+        <v>754</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>544</v>
+        <v>755</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>13</v>
+      </c>
       <c r="B277" s="1">
         <v>276</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>616</v>
+        <v>541</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -9569,85 +9578,82 @@
         <v>277</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="E278" s="2">
-        <v>44481</v>
+        <v>536</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>808</v>
+        <v>538</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>809</v>
+        <v>539</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>13</v>
-      </c>
       <c r="B279" s="1">
         <v>278</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>230</v>
+        <v>807</v>
+      </c>
+      <c r="E279" s="2">
+        <v>44481</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>547</v>
+        <v>808</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>548</v>
+        <v>809</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="B280" s="1">
         <v>279</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>616</v>
+        <v>546</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>551</v>
+        <v>230</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>13</v>
+        <v>549</v>
       </c>
       <c r="B281" s="1">
         <v>280</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -9658,19 +9664,19 @@
         <v>281</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -9681,19 +9687,19 @@
         <v>282</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>563</v>
+        <v>616</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -9704,19 +9710,19 @@
         <v>283</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>616</v>
+        <v>563</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -9727,19 +9733,19 @@
         <v>284</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>572</v>
+        <v>616</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -9750,19 +9756,19 @@
         <v>285</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -9773,18 +9779,41 @@
         <v>286</v>
       </c>
       <c r="C287" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>13</v>
+      </c>
+      <c r="B288" s="1">
+        <v>287</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="D288" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E287" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F287" s="1" t="s">
+      <c r="F288" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G287" s="1" t="s">
+      <c r="G288" s="1" t="s">
         <v>584</v>
       </c>
     </row>
@@ -9792,7 +9821,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A88 C279:G279 C65:G67 A65:A66 A71:A72 C79:D79 F79:G79 A14:A15 A31 C31 A85:A86 A97 C91 A104:A105 A279:A287 C104:G105 A109 C109:G109 C114 F114:G114 A151 C206:G206 A205:A208 A212 C124:G125 A130 A158:A173 C157:G158 C142:G144 A175:A187 C175:G175 C150:G150 A7 A10 A276 C266:G272 A267:A270 A272 A210 A1:G1 A2 A79:A82 C28:G28 A28 A189:A192 A263 C130:D130 F130:G130 A122 D140:G140 A68 A125 C14:G15 C7:G7 C10 E82 C22:G22 A22 A57:A60 C45:G45 A63 C62:G63 C88:G88 A147 A18 C18:G18 A200:A203 C199:G199 C285:G287 C284 E284:G284 C283:G283 C280:C282 E280:G282 C209:G212 C207:C208 E207:G208 C205 E205:G205 C201:G203 C200 E200:G200 C192:G192 C191 E191:G191 C186:G190 C182:C185 E182:G185 C180:G181 C178:C179 E178:G179 C177:G177 C176 E176:G176 C173:G173 C172 E172:G172 C170:G171 C169 E169:G169 C165:G168 C164 E164:G164 C161:G163 C159:C160 E159:G160 C151 E151:G151 C147:G147 C145 E145:G145 C106 E106:G106 C99 E99:G99 E91:G91 C85:C86 E85:G86 C80:C81 E80:G81 C71:C72 E71:G72 C68 E68:G68 C57:G58 C54 E54:G54 C60:G60 C59 E59:G59 C50:G53 C47:C49 E47:G49 E31:G31 C20 E20:G20 E10:G10 C55:G55 A47:A55 A45 E97:G97 C97 C122:G122 A140 A142:A145 A20" numberStoredAsText="1"/>
+    <ignoredError sqref="A88 C280:G280 C65:G67 A65:A66 A71:A72 C79:D79 F79:G79 A14:A15 A31 C31 A85:A86 A97 C91 A104:A105 A280:A288 C104:G105 A109 C109:G109 C114 F114:G114 A151 C207:G207 A206:A209 A213 C124:G125 A130 A158:A173 C157:G158 C142:G144 A176:A188 C176:G176 C150:G150 A7 A10 A277 C267:G273 A268:A271 A273 A211 A1:G1 A2 A79:A82 C28:G28 A28 A190:A193 A264 C130:D130 F130:G130 A122 D140:G140 A68 A125 C14:G15 C7:G7 C10 E82 C22:G22 A22 A57:A60 C45:G45 A63 C62:G63 C88:G88 A147 A18 C18:G18 A201:A204 C200:G200 C286:G288 C285 E285:G285 C284:G284 C281:C283 E281:G283 C210:G213 C208:C209 E208:G209 C206 E206:G206 C202:G204 C201 E201:G201 C193:G193 C192 E192:G192 C187:G191 C183:C186 E183:G186 C181:G182 C179:C180 E179:G180 C178:G178 C177 E177:G177 C173:F173 C172 E172:G172 C170:G171 C169 E169:G169 C165:G168 C164 E164:G164 C161:G163 C159:C160 E159:G160 C151 E151:G151 C147:G147 C145 E145:G145 C106 E106:G106 C99 E99:G99 E91:G91 C85:C86 E85:G86 C80:C81 E80:G81 C71:C72 E71:G72 C68 E68:G68 C57:G58 C54 E54:G54 C60:G60 C59 E59:G59 C50:G53 C47:C49 E47:G49 E31:G31 C20 E20:G20 E10:G10 C55:G55 A47:A55 A45 E97:G97 C97 C122:G122 A140 A142:A145 A20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/paper_dataframe_markdown_backup.xlsx
+++ b/paper_dataframe_markdown_backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Desktop\awesome-ai-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C28C98-7BEC-452B-A6B9-8457AD59F2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459885EE-6A55-4F70-9BDC-C6202DCAED9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1410" windowWidth="21180" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1132">
   <si>
     <t>Theme</t>
   </si>
@@ -3335,6 +3335,87 @@
   </si>
   <si>
     <t>[Link](http://arxiv.org/abs/2305.01879)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2103.07191v2)</t>
+  </si>
+  <si>
+    <t>Arkil Patel et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	NAACL 2021</t>
+  </si>
+  <si>
+    <t>Are NLP Models really able to Solve Simple Math Word Problems?</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2106.15772v1)</t>
+  </si>
+  <si>
+    <t>Shen-Yun Miao et al</t>
+  </si>
+  <si>
+    <t>A Diverse Corpus for Evaluating and Developing English Math Word Problem Solvers</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2110.14168v2)</t>
+  </si>
+  <si>
+    <t>Karl Cobbe et al</t>
+  </si>
+  <si>
+    <t>Training Verifiers to Solve Math Word Problems</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2204.02311v5)</t>
+  </si>
+  <si>
+    <t>Aakanksha Chowdhery et al</t>
+  </si>
+  <si>
+    <t>JMLR 2023</t>
+  </si>
+  <si>
+    <t>PaLM: Scaling Language Modeling with Pathways</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2211.01562v3)</t>
+  </si>
+  <si>
+    <t>Peifeng Wang et al</t>
+  </si>
+  <si>
+    <t>ICLR 2023</t>
+  </si>
+  <si>
+    <t>PINTO: Faithful Language Reasoning Using Prompt-Generated Rationales</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2310.11453v1)</t>
+  </si>
+  <si>
+    <t>Hongyu Wang et al</t>
+  </si>
+  <si>
+    <t>BitNet: Scaling 1-bit Transformers for Large Language Models</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2402.17764v1)</t>
+  </si>
+  <si>
+    <t>Shuming Ma et al</t>
+  </si>
+  <si>
+    <t>The Era of 1-bit LLMs: All Large Language Models are in 1.58 Bits</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2402.10654v1)</t>
+  </si>
+  <si>
+    <t>Dingzirui Wang et al</t>
+  </si>
+  <si>
+    <t>Enhancing Numerical Reasoning with the Guidance of Reliable Reasoning Processes</t>
   </si>
 </sst>
 </file>
@@ -3729,7 +3810,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -3778,10 +3859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G288"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G175" sqref="G175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4607,19 +4688,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>703</v>
+        <v>1108</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>794</v>
+        <v>1107</v>
       </c>
       <c r="E40" s="3">
-        <v>44333</v>
+        <v>44267</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>704</v>
+        <v>1106</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>705</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4627,16 +4708,19 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="E41" s="2">
-        <v>44336</v>
+        <v>703</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44333</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>805</v>
+        <v>704</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>806</v>
+        <v>705</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4644,19 +4728,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E42" s="3">
-        <v>44369</v>
+        <v>804</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44336</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1011</v>
+        <v>805</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1015</v>
+        <v>806</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4664,19 +4745,19 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1009</v>
+        <v>532</v>
       </c>
       <c r="E43" s="3">
-        <v>44440</v>
+        <v>44369</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>927</v>
+        <v>1011</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4684,42 +4765,39 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1008</v>
+        <v>1111</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>532</v>
+        <v>609</v>
       </c>
       <c r="E44" s="3">
-        <v>44442</v>
+        <v>44377</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1007</v>
+        <v>1110</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1013</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
       <c r="B45" s="1">
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>1010</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>59</v>
+        <v>1009</v>
+      </c>
+      <c r="E45" s="3">
+        <v>44440</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>60</v>
+        <v>927</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>61</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4727,111 +4805,102 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>238</v>
+        <v>532</v>
       </c>
       <c r="E46" s="3">
-        <v>44841</v>
+        <v>44442</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>927</v>
+        <v>1007</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>616</v>
+        <v>58</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
       <c r="B48" s="1">
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>67</v>
+        <v>1016</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>68</v>
+        <v>238</v>
+      </c>
+      <c r="E48" s="3">
+        <v>44841</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>65</v>
+        <v>927</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>69</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
       <c r="B49" s="1">
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>71</v>
+        <v>1114</v>
+      </c>
+      <c r="E49" s="3">
+        <v>44496</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>72</v>
+        <v>1113</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>73</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1">
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>75</v>
+        <v>616</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4842,19 +4911,19 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>80</v>
+        <v>616</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4865,19 +4934,19 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>85</v>
+        <v>616</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4888,19 +4957,19 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4911,60 +4980,65 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>616</v>
+        <v>80</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="B55" s="1">
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
       <c r="B56" s="1">
         <v>55</v>
       </c>
-      <c r="C56" t="s">
-        <v>978</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56" s="3">
-        <v>42794</v>
-      </c>
-      <c r="F56" t="s">
-        <v>977</v>
-      </c>
-      <c r="G56" t="s">
-        <v>979</v>
+      <c r="C56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4975,65 +5049,60 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>105</v>
+        <v>616</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B58" s="1">
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
       <c r="B59" s="1">
         <v>58</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>117</v>
+      <c r="C59" t="s">
+        <v>978</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" s="3">
+        <v>42794</v>
+      </c>
+      <c r="F59" t="s">
+        <v>977</v>
+      </c>
+      <c r="G59" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5044,62 +5113,65 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="B61" s="1">
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>833</v>
+        <v>109</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="E61" s="3">
-        <v>37987</v>
+        <v>110</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>835</v>
+        <v>112</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>836</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
       <c r="B62" s="1">
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>124</v>
+        <v>616</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -5110,62 +5182,62 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
       <c r="B64" s="1">
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E64" s="3">
-        <v>40816</v>
+        <v>37987</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>13</v>
-      </c>
       <c r="B65" s="1">
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -5176,42 +5248,39 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>13</v>
-      </c>
       <c r="B67" s="1">
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>143</v>
+        <v>837</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>145</v>
+        <v>838</v>
+      </c>
+      <c r="E67" s="3">
+        <v>40816</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>146</v>
+        <v>839</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>147</v>
+        <v>840</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -5222,19 +5291,19 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>616</v>
+        <v>134</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -5245,36 +5314,42 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E69" s="2">
-        <v>42327</v>
+        <v>138</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>586</v>
+        <v>141</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>587</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
       <c r="B70" s="1">
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>724</v>
+        <v>144</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5285,19 +5360,19 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -5308,19 +5383,16 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>157</v>
+        <v>585</v>
+      </c>
+      <c r="E72" s="2">
+        <v>42327</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>158</v>
+        <v>586</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -5328,59 +5400,65 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>588</v>
+        <v>152</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E73" s="2">
-        <v>42684</v>
+        <v>724</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>590</v>
+        <v>154</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>591</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
       <c r="B74" s="1">
         <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>738</v>
+        <v>152</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="E74" s="2">
-        <v>42688</v>
+        <v>616</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>740</v>
+        <v>154</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>741</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
       <c r="B75" s="1">
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>841</v>
+        <v>156</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E75" s="3">
-        <v>42680</v>
+        <v>616</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>842</v>
+        <v>158</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>843</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -5388,19 +5466,19 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>844</v>
+        <v>588</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="E76" s="3">
-        <v>42736</v>
+        <v>589</v>
+      </c>
+      <c r="E76" s="2">
+        <v>42684</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>845</v>
+        <v>590</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>846</v>
+        <v>591</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5408,19 +5486,19 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>592</v>
+        <v>738</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>593</v>
+        <v>739</v>
       </c>
       <c r="E77" s="2">
-        <v>42825</v>
+        <v>42688</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>594</v>
+        <v>740</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>595</v>
+        <v>741</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5428,85 +5506,76 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E78" s="2">
-        <v>42839</v>
+        <v>841</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E78" s="3">
+        <v>42680</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>690</v>
+        <v>842</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>691</v>
+        <v>843</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>13</v>
-      </c>
       <c r="B79" s="1">
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>160</v>
+        <v>844</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E79" s="2">
-        <v>42854</v>
+        <v>593</v>
+      </c>
+      <c r="E79" s="3">
+        <v>42736</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>162</v>
+        <v>845</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>163</v>
+        <v>846</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>13</v>
-      </c>
       <c r="B80" s="1">
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>164</v>
+        <v>592</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>165</v>
+        <v>593</v>
+      </c>
+      <c r="E80" s="2">
+        <v>42825</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>166</v>
+        <v>594</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>167</v>
+        <v>595</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>13</v>
-      </c>
       <c r="B81" s="1">
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>169</v>
+        <v>689</v>
+      </c>
+      <c r="E81" s="2">
+        <v>42839</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>170</v>
+        <v>690</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>171</v>
+        <v>691</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -5517,59 +5586,65 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
+      </c>
+      <c r="E82" s="2">
+        <v>42854</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
       <c r="B83" s="1">
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>831</v>
+        <v>164</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E83" s="2">
-        <v>43101</v>
+        <v>616</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>830</v>
+        <v>166</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>832</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
       <c r="B84" s="1">
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>692</v>
+        <v>168</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E84" s="2">
-        <v>43122</v>
+        <v>616</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>694</v>
+        <v>170</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>695</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -5580,42 +5655,39 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>13</v>
-      </c>
       <c r="B86" s="1">
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>180</v>
+        <v>831</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>181</v>
+        <v>461</v>
+      </c>
+      <c r="E86" s="2">
+        <v>43101</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>182</v>
+        <v>830</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>183</v>
+        <v>832</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5623,16 +5695,19 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>602</v>
+        <v>692</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>693</v>
       </c>
       <c r="E87" s="2">
-        <v>43233</v>
+        <v>43122</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>603</v>
+        <v>694</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>604</v>
+        <v>695</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -5643,39 +5718,42 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>185</v>
+        <v>616</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
       <c r="B89" s="1">
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="E89" s="3">
-        <v>43262</v>
+        <v>616</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5683,16 +5761,16 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="E90" s="3">
-        <v>43329</v>
+        <v>602</v>
+      </c>
+      <c r="E90" s="2">
+        <v>43233</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>849</v>
+        <v>603</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>850</v>
+        <v>604</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5703,19 +5781,19 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>616</v>
+        <v>185</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -5723,19 +5801,19 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>605</v>
+        <v>184</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E92" s="2">
-        <v>43466</v>
+        <v>847</v>
+      </c>
+      <c r="E92" s="3">
+        <v>43262</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>606</v>
+        <v>187</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>607</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5743,39 +5821,39 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>1019</v>
+        <v>848</v>
       </c>
       <c r="E93" s="3">
-        <v>43466</v>
+        <v>43329</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1018</v>
+        <v>849</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1021</v>
+        <v>850</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
       <c r="B94" s="1">
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>742</v>
+        <v>189</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E94" s="2">
-        <v>43496</v>
+      <c r="E94" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>743</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -5783,16 +5861,19 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>744</v>
+        <v>605</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E95" s="2">
-        <v>43576</v>
+        <v>43466</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>745</v>
+        <v>606</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>746</v>
+        <v>607</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5800,39 +5881,39 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>851</v>
+        <v>1020</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>1019</v>
       </c>
       <c r="E96" s="3">
-        <v>43577</v>
+        <v>43466</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>852</v>
+        <v>1018</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>853</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>13</v>
-      </c>
       <c r="B97" s="1">
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>193</v>
+        <v>742</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>194</v>
+      <c r="E97" s="2">
+        <v>43496</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>196</v>
+        <v>743</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -5840,59 +5921,56 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E98" s="3">
-        <v>43622</v>
+        <v>744</v>
+      </c>
+      <c r="E98" s="2">
+        <v>43576</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1022</v>
+        <v>745</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>1024</v>
+        <v>746</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>13</v>
-      </c>
       <c r="B99" s="1">
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>198</v>
+        <v>851</v>
+      </c>
+      <c r="E99" s="3">
+        <v>43577</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>199</v>
+        <v>852</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>200</v>
+        <v>853</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
       <c r="B100" s="1">
         <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="E100" s="3">
-        <v>43689</v>
+        <v>193</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>855</v>
+        <v>195</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>856</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5900,36 +5978,42 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>612</v>
+        <v>1023</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="E101" s="2">
-        <v>43697</v>
+        <v>75</v>
+      </c>
+      <c r="E101" s="3">
+        <v>43622</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>614</v>
+        <v>1022</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>615</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
       <c r="B102" s="1">
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E102" s="2">
-        <v>43699</v>
+        <v>197</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>828</v>
+        <v>199</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>829</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -5937,125 +6021,119 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E103" s="2">
-        <v>43704</v>
+        <v>854</v>
+      </c>
+      <c r="E103" s="3">
+        <v>43689</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>82</v>
+        <v>855</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>83</v>
+        <v>856</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>13</v>
-      </c>
       <c r="B104" s="1">
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>201</v>
+        <v>612</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>203</v>
+        <v>613</v>
+      </c>
+      <c r="E104" s="2">
+        <v>43697</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>204</v>
+        <v>614</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>205</v>
+        <v>615</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>13</v>
-      </c>
       <c r="B105" s="1">
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>208</v>
+        <v>827</v>
+      </c>
+      <c r="E105" s="2">
+        <v>43699</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>209</v>
+        <v>828</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>210</v>
+        <v>829</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>13</v>
-      </c>
       <c r="B106" s="1">
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>212</v>
+      <c r="E106" s="2">
+        <v>43704</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
       <c r="B107" s="1">
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1026</v>
+        <v>201</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E107" s="3">
-        <v>43769</v>
+        <v>202</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1025</v>
+        <v>204</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>1027</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
       <c r="B108" s="1">
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="E108" s="2">
-        <v>43775</v>
+        <v>206</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>618</v>
+        <v>209</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>619</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -6066,19 +6144,19 @@
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>216</v>
+        <v>616</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -6086,19 +6164,19 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>857</v>
+        <v>1026</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>858</v>
+        <v>700</v>
       </c>
       <c r="E110" s="3">
-        <v>43831</v>
+        <v>43769</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>859</v>
+        <v>1025</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>860</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -6106,39 +6184,39 @@
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>783</v>
+        <v>617</v>
       </c>
       <c r="E111" s="2">
-        <v>43894</v>
+        <v>43775</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>784</v>
+        <v>618</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>785</v>
+        <v>619</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
       <c r="B112" s="1">
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>861</v>
+        <v>215</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="E112" s="3">
-        <v>43913</v>
+        <v>216</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>863</v>
+        <v>218</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>864</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -6146,42 +6224,39 @@
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>620</v>
+        <v>857</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E113" s="2">
-        <v>43931</v>
+        <v>858</v>
+      </c>
+      <c r="E113" s="3">
+        <v>43831</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>622</v>
+        <v>859</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>623</v>
+        <v>860</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>13</v>
-      </c>
       <c r="B114" s="1">
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>220</v>
+        <v>782</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>616</v>
+        <v>783</v>
       </c>
       <c r="E114" s="2">
-        <v>43938</v>
+        <v>43894</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>221</v>
+        <v>784</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>222</v>
+        <v>785</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -6189,19 +6264,19 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>700</v>
+        <v>862</v>
       </c>
       <c r="E115" s="3">
-        <v>43954</v>
+        <v>43913</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -6209,39 +6284,42 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1030</v>
+        <v>620</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E116" s="3">
-        <v>44112</v>
+        <v>621</v>
+      </c>
+      <c r="E116" s="2">
+        <v>43931</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1028</v>
+        <v>622</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>1031</v>
+        <v>623</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>13</v>
+      </c>
       <c r="B117" s="1">
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>868</v>
+        <v>220</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E117" s="3">
-        <v>44141</v>
+        <v>616</v>
+      </c>
+      <c r="E117" s="2">
+        <v>43938</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>869</v>
+        <v>221</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>870</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -6249,19 +6327,19 @@
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1034</v>
+        <v>865</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1033</v>
+        <v>700</v>
       </c>
       <c r="E118" s="3">
-        <v>44184</v>
+        <v>43954</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1032</v>
+        <v>866</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>1035</v>
+        <v>867</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -6269,19 +6347,19 @@
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="E119" s="3">
-        <v>44197</v>
+        <v>44112</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -6289,16 +6367,19 @@
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="E120" s="2">
-        <v>44306</v>
+        <v>868</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E120" s="3">
+        <v>44141</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>802</v>
+        <v>869</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>803</v>
+        <v>870</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -6306,42 +6387,39 @@
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>794</v>
+        <v>1033</v>
       </c>
       <c r="E121" s="3">
-        <v>44350</v>
+        <v>44184</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>13</v>
-      </c>
       <c r="B122" s="1">
         <v>121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>223</v>
+        <v>1038</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>225</v>
+        <v>1037</v>
+      </c>
+      <c r="E122" s="3">
+        <v>44197</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>226</v>
+        <v>1036</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>227</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -6349,39 +6427,36 @@
         <v>122</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E123" s="3">
-        <v>44518</v>
+        <v>801</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44306</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1043</v>
+        <v>802</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1045</v>
+        <v>803</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>13</v>
-      </c>
       <c r="B124" s="1">
         <v>123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>228</v>
+        <v>1041</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>230</v>
+        <v>794</v>
+      </c>
+      <c r="E124" s="3">
+        <v>44350</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>231</v>
+        <v>1040</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>232</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -6392,19 +6467,19 @@
         <v>124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -6412,56 +6487,62 @@
         <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="E126" s="2">
-        <v>44631</v>
+        <v>1044</v>
+      </c>
+      <c r="E126" s="3">
+        <v>44518</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>763</v>
+        <v>1043</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>764</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
       <c r="B127" s="1">
         <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1047</v>
+        <v>228</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="E127" s="3">
-        <v>44633</v>
+        <v>229</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1046</v>
+        <v>231</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1048</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
       <c r="B128" s="1">
         <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1051</v>
+        <v>233</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E128" s="3">
-        <v>44665</v>
+        <v>234</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1049</v>
+        <v>235</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1052</v>
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -6469,42 +6550,36 @@
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="E129" s="3">
-        <v>44641</v>
+        <v>762</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44631</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>873</v>
+        <v>763</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>874</v>
+        <v>764</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>13</v>
-      </c>
       <c r="B130" s="1">
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>237</v>
+        <v>1047</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E130" s="2">
-        <v>44667</v>
+        <v>633</v>
+      </c>
+      <c r="E130" s="3">
+        <v>44633</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>239</v>
+        <v>1046</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>240</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -6512,19 +6587,19 @@
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>750</v>
+        <v>1051</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E131" s="2">
-        <v>44676</v>
+        <v>1050</v>
+      </c>
+      <c r="E131" s="3">
+        <v>44665</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>751</v>
+        <v>1049</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>752</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -6532,19 +6607,19 @@
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>636</v>
+        <v>871</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="E132" s="2">
-        <v>44684</v>
+        <v>872</v>
+      </c>
+      <c r="E132" s="3">
+        <v>44641</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>638</v>
+        <v>873</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>639</v>
+        <v>874</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -6552,36 +6627,42 @@
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>706</v>
+        <v>1118</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E133" s="2">
-        <v>44689</v>
+        <v>1117</v>
+      </c>
+      <c r="E133" s="3">
+        <v>44656</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>707</v>
+        <v>1116</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>708</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
       <c r="B134" s="1">
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>640</v>
+        <v>237</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="E134" s="2">
-        <v>44704</v>
+        <v>44667</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>641</v>
+        <v>239</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>642</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -6589,16 +6670,19 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>643</v>
+        <v>750</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>700</v>
       </c>
       <c r="E135" s="2">
-        <v>44710</v>
+        <v>44676</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>644</v>
+        <v>751</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>645</v>
+        <v>752</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -6606,19 +6690,19 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E136" s="3">
-        <v>44710</v>
+        <v>637</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44684</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -6626,16 +6710,19 @@
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>810</v>
+        <v>706</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="E137" s="2">
-        <v>44734</v>
+        <v>44689</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>267</v>
+        <v>707</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>811</v>
+        <v>708</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -6643,19 +6730,16 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E138" s="3">
-        <v>44820</v>
+        <v>640</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44704</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1053</v>
+        <v>641</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1058</v>
+        <v>642</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -6663,39 +6747,36 @@
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="E139" s="3">
-        <v>44840</v>
+        <v>643</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44710</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>876</v>
+        <v>644</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>877</v>
+        <v>645</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>13</v>
-      </c>
       <c r="B140" s="1">
         <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>241</v>
+        <v>643</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>243</v>
+        <v>119</v>
+      </c>
+      <c r="E140" s="3">
+        <v>44710</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>244</v>
+        <v>644</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>245</v>
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -6703,62 +6784,53 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E141" s="3">
-        <v>44847</v>
+        <v>810</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44734</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1056</v>
+        <v>267</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1059</v>
+        <v>811</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>13</v>
-      </c>
       <c r="B142" s="1">
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>246</v>
+        <v>1055</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>248</v>
+        <v>1054</v>
+      </c>
+      <c r="E142" s="3">
+        <v>44820</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>249</v>
+        <v>1053</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>250</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>13</v>
-      </c>
       <c r="B143" s="1">
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>253</v>
+        <v>875</v>
+      </c>
+      <c r="E143" s="3">
+        <v>44840</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>239</v>
+        <v>876</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>254</v>
+        <v>877</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -6769,42 +6841,36 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>13</v>
-      </c>
       <c r="B145" s="1">
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>261</v>
+        <v>1057</v>
+      </c>
+      <c r="E145" s="3">
+        <v>44847</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>262</v>
+        <v>1056</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>263</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -6812,19 +6878,19 @@
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1062</v>
+        <v>1122</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1061</v>
+        <v>1121</v>
       </c>
       <c r="E146" s="3">
-        <v>45016</v>
+        <v>44868</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1060</v>
+        <v>1120</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1065</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -6835,53 +6901,65 @@
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
       <c r="B148" s="1">
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E148" s="2">
-        <v>45053</v>
+        <v>251</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>654</v>
+        <v>239</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>655</v>
+        <v>254</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
       <c r="B149" s="1">
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E149" s="3">
-        <v>45069</v>
+        <v>255</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1063</v>
+        <v>258</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>1066</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -6892,62 +6970,62 @@
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>252</v>
+        <v>616</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>13</v>
-      </c>
       <c r="B151" s="1">
         <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>272</v>
+        <v>1062</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>273</v>
+        <v>1061</v>
+      </c>
+      <c r="E151" s="3">
+        <v>45016</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>244</v>
+        <v>1060</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>274</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
       <c r="B152" s="1">
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1068</v>
+        <v>264</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E152" s="3">
-        <v>45082</v>
+        <v>265</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1067</v>
+        <v>267</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>1069</v>
+        <v>268</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -6955,19 +7033,16 @@
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="E153" s="3">
-        <v>45190</v>
+        <v>653</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45053</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>880</v>
+        <v>654</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>881</v>
+        <v>655</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -6975,194 +7050,182 @@
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E154" s="2">
-        <v>45209</v>
+        <v>1064</v>
+      </c>
+      <c r="E154" s="3">
+        <v>45069</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>660</v>
+        <v>1063</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>661</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
       <c r="B155" s="1">
         <v>154</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E155" s="2">
-        <v>45364</v>
+        <v>269</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>663</v>
+        <v>244</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>664</v>
+        <v>271</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
       <c r="B156" s="1">
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1072</v>
+        <v>272</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E156" s="3">
-        <v>45376</v>
+        <v>616</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1070</v>
+        <v>244</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>1073</v>
+        <v>274</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>275</v>
-      </c>
       <c r="B157" s="1">
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>276</v>
+        <v>1068</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
+      </c>
+      <c r="E157" s="3">
+        <v>45082</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>279</v>
+        <v>1067</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>280</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>13</v>
-      </c>
       <c r="B158" s="1">
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>281</v>
+        <v>878</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>283</v>
+        <v>879</v>
+      </c>
+      <c r="E158" s="3">
+        <v>45190</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>284</v>
+        <v>880</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>285</v>
+        <v>881</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>13</v>
-      </c>
       <c r="B159" s="1">
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>286</v>
+        <v>659</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>287</v>
+      <c r="E159" s="2">
+        <v>45209</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>288</v>
+        <v>660</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>289</v>
+        <v>661</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>290</v>
-      </c>
       <c r="B160" s="1">
         <v>159</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>292</v>
+        <v>662</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45364</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>293</v>
+        <v>663</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>294</v>
+        <v>664</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>295</v>
-      </c>
       <c r="B161" s="1">
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>296</v>
+        <v>1072</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>298</v>
+        <v>1071</v>
+      </c>
+      <c r="E161" s="3">
+        <v>45376</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>299</v>
+        <v>1070</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>300</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="B162" s="1">
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -7173,19 +7236,19 @@
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -7196,88 +7259,88 @@
         <v>163</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="B165" s="1">
         <v>164</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>321</v>
+        <v>616</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>13</v>
+        <v>295</v>
       </c>
       <c r="B166" s="1">
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="B167" s="1">
         <v>166</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -7288,19 +7351,19 @@
         <v>167</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -7311,19 +7374,19 @@
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -7334,19 +7397,19 @@
         <v>169</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -7357,42 +7420,42 @@
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>350</v>
+        <v>119</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="B172" s="1">
         <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>616</v>
+        <v>331</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -7403,82 +7466,88 @@
         <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>43</v>
+        <v>336</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
       <c r="B174" s="1">
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1102</v>
+        <v>340</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E174" s="2">
-        <v>44927</v>
+        <v>616</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1103</v>
+        <v>342</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>1104</v>
+        <v>343</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
       <c r="B175" s="1">
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>649</v>
+        <v>344</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E175" s="2">
-        <v>45049</v>
+        <v>345</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>651</v>
+        <v>347</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>652</v>
+        <v>348</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>361</v>
+        <v>13</v>
       </c>
       <c r="B176" s="1">
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -7489,19 +7558,19 @@
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -7512,88 +7581,82 @@
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>13</v>
-      </c>
       <c r="B179" s="1">
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>376</v>
+        <v>1102</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>377</v>
+        <v>256</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44927</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>378</v>
+        <v>1103</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>379</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>13</v>
-      </c>
       <c r="B180" s="1">
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>380</v>
+        <v>649</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>381</v>
+        <v>650</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45049</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>382</v>
+        <v>651</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>383</v>
+        <v>652</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="B181" s="1">
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -7604,19 +7667,19 @@
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>390</v>
+        <v>616</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -7627,19 +7690,19 @@
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>616</v>
+        <v>372</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -7650,19 +7713,19 @@
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -7673,19 +7736,19 @@
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -7696,19 +7759,19 @@
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>616</v>
+        <v>385</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -7719,19 +7782,19 @@
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -7742,19 +7805,19 @@
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>416</v>
+        <v>616</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -7765,19 +7828,19 @@
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>420</v>
+        <v>616</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -7788,19 +7851,19 @@
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>425</v>
+        <v>616</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -7811,19 +7874,19 @@
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>119</v>
+        <v>616</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -7834,19 +7897,19 @@
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>616</v>
+        <v>411</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -7857,116 +7920,134 @@
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>438</v>
+        <v>359</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>13</v>
+      </c>
       <c r="B194" s="1">
         <v>193</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>895</v>
+        <v>419</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="E194" s="3">
-        <v>45069</v>
+        <v>420</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>896</v>
+        <v>422</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>897</v>
+        <v>423</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>13</v>
+      </c>
       <c r="B195" s="1">
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="E195" s="2">
-        <v>45132</v>
+        <v>424</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>657</v>
+        <v>427</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>658</v>
+        <v>428</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>440</v>
+        <v>13</v>
       </c>
       <c r="B196" s="1">
         <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>898</v>
+        <v>429</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="E196" s="3">
-        <v>33604</v>
+        <v>119</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>900</v>
+        <v>431</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>911</v>
+        <v>432</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>13</v>
+      </c>
       <c r="B197" s="1">
         <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>901</v>
+        <v>433</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="E197" s="3">
-        <v>35796</v>
+        <v>616</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>903</v>
+        <v>408</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>912</v>
+        <v>435</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
       <c r="B198" s="1">
         <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="E198" s="3">
-        <v>36161</v>
+        <v>436</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>905</v>
+        <v>404</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>913</v>
+        <v>439</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -7974,16 +8055,19 @@
         <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>906</v>
+        <v>895</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="E199" s="3">
-        <v>41275</v>
+        <v>45069</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -7991,111 +8075,93 @@
         <v>199</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>443</v>
+        <v>656</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45132</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>444</v>
+        <v>657</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>445</v>
+        <v>658</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>13</v>
-      </c>
       <c r="B201" s="1">
         <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>447</v>
+        <v>1125</v>
+      </c>
+      <c r="E201" s="3">
+        <v>45216</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>448</v>
+        <v>1124</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>449</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>13</v>
-      </c>
       <c r="B202" s="1">
         <v>201</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>452</v>
+        <v>1128</v>
+      </c>
+      <c r="E202" s="3">
+        <v>45349</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>453</v>
+        <v>1127</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>454</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>13</v>
+        <v>440</v>
       </c>
       <c r="B203" s="1">
         <v>202</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>455</v>
+        <v>898</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>457</v>
+        <v>899</v>
+      </c>
+      <c r="E203" s="3">
+        <v>33604</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>458</v>
+        <v>900</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>459</v>
+        <v>911</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>13</v>
-      </c>
       <c r="B204" s="1">
         <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>460</v>
+        <v>901</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>462</v>
+        <v>902</v>
+      </c>
+      <c r="E204" s="3">
+        <v>35796</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>463</v>
+        <v>903</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>464</v>
+        <v>912</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -8103,65 +8169,53 @@
         <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="E205" s="3">
-        <v>43515</v>
+        <v>36161</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>13</v>
-      </c>
       <c r="B206" s="1">
         <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>466</v>
+        <v>906</v>
+      </c>
+      <c r="E206" s="3">
+        <v>41275</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>467</v>
+        <v>907</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>468</v>
+        <v>914</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>13</v>
-      </c>
       <c r="B207" s="1">
         <v>206</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -8172,19 +8226,19 @@
         <v>207</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -8195,19 +8249,19 @@
         <v>208</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>616</v>
+        <v>451</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -8218,19 +8272,19 @@
         <v>209</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>230</v>
+        <v>457</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -8241,42 +8295,39 @@
         <v>210</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>13</v>
-      </c>
       <c r="B212" s="1">
         <v>211</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>491</v>
+        <v>908</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>492</v>
+        <v>909</v>
+      </c>
+      <c r="E212" s="3">
+        <v>43515</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>493</v>
+        <v>910</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>494</v>
+        <v>915</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -8287,176 +8338,200 @@
         <v>212</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>496</v>
+        <v>616</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>624</v>
+        <v>13</v>
       </c>
       <c r="B214" s="1">
         <v>213</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E214" s="2">
-        <v>43572</v>
+        <v>469</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>697</v>
+        <v>472</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>698</v>
+        <v>473</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>13</v>
+      </c>
       <c r="B215" s="1">
         <v>214</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>779</v>
+        <v>474</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E215" s="2">
-        <v>43617</v>
+      <c r="E215" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>780</v>
+        <v>476</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>781</v>
+        <v>477</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>13</v>
+      </c>
       <c r="B216" s="1">
         <v>215</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>786</v>
+        <v>478</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="E216" s="2">
-        <v>43948</v>
+        <v>616</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>788</v>
+        <v>480</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>789</v>
+        <v>481</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>13</v>
+      </c>
       <c r="B217" s="1">
         <v>216</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>790</v>
+        <v>482</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E217" s="2">
-        <v>44158</v>
+        <v>483</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>791</v>
+        <v>484</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>792</v>
+        <v>485</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>13</v>
+      </c>
       <c r="B218" s="1">
         <v>217</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>793</v>
+        <v>486</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="E218" s="2">
-        <v>44188</v>
+        <v>487</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>795</v>
+        <v>489</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>796</v>
+        <v>490</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>13</v>
+      </c>
       <c r="B219" s="1">
         <v>218</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E219" s="2">
-        <v>44303</v>
+        <v>491</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>626</v>
+        <v>493</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>627</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>13</v>
+      </c>
       <c r="B220" s="1">
         <v>219</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>682</v>
+        <v>495</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E220" s="2">
-        <v>44420</v>
+        <v>496</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>683</v>
+        <v>498</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>684</v>
+        <v>499</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>624</v>
+      </c>
       <c r="B221" s="1">
         <v>220</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>633</v>
+        <v>696</v>
       </c>
       <c r="E221" s="2">
-        <v>44636</v>
+        <v>43572</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>634</v>
+        <v>697</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>635</v>
+        <v>698</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -8464,16 +8539,19 @@
         <v>221</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>646</v>
+        <v>779</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="E222" s="2">
-        <v>44781</v>
+        <v>43617</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>647</v>
+        <v>780</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>648</v>
+        <v>781</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -8481,356 +8559,353 @@
         <v>222</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="E223" s="2">
-        <v>44913</v>
+        <v>43948</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>628</v>
-      </c>
       <c r="B224" s="1">
         <v>223</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>717</v>
+        <v>790</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E224" s="2">
-        <v>42219</v>
+        <v>44158</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>718</v>
+        <v>791</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>224</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>976</v>
+        <v>793</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="E225" s="3">
-        <v>42453</v>
+        <v>794</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44188</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>974</v>
+        <v>795</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>225</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="E226" s="2">
-        <v>42914</v>
+        <v>44303</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>777</v>
+        <v>626</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>226</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>731</v>
+        <v>682</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>616</v>
+        <v>119</v>
       </c>
       <c r="E227" s="2">
-        <v>42978</v>
+        <v>44420</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>732</v>
+        <v>683</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>227</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="E228" s="3">
-        <v>43232</v>
+        <v>632</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44636</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>342</v>
+        <v>634</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>228</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="E229" s="3">
-        <v>43348</v>
+        <v>646</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44781</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>920</v>
+        <v>647</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>229</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>919</v>
+        <v>768</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="E230" s="3">
-        <v>43713</v>
+        <v>769</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44913</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>921</v>
+        <v>770</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>628</v>
+      </c>
       <c r="B231" s="1">
         <v>230</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1086</v>
+        <v>717</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E231" s="3">
-        <v>43779</v>
+        <v>616</v>
+      </c>
+      <c r="E231" s="2">
+        <v>42219</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1085</v>
+        <v>718</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>231</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>699</v>
+        <v>976</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E232" s="2">
-        <v>43926</v>
+        <v>975</v>
+      </c>
+      <c r="E232" s="3">
+        <v>42453</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>701</v>
+        <v>974</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>232</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>679</v>
+        <v>776</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>420</v>
+        <v>616</v>
       </c>
       <c r="E233" s="2">
-        <v>44176</v>
+        <v>42914</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>680</v>
+        <v>777</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>233</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>756</v>
+        <v>731</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="E234" s="2">
-        <v>43922</v>
+        <v>42978</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>234</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>700</v>
+        <v>916</v>
       </c>
       <c r="E235" s="3">
-        <v>43943</v>
+        <v>43232</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>921</v>
+        <v>342</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>235</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>621</v>
+        <v>918</v>
       </c>
       <c r="E236" s="3">
-        <v>43951</v>
+        <v>43348</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>236</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>700</v>
+        <v>862</v>
       </c>
       <c r="E237" s="3">
-        <v>43968</v>
+        <v>43713</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>237</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>930</v>
+        <v>1086</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>621</v>
+        <v>700</v>
       </c>
       <c r="E238" s="3">
-        <v>44110</v>
+        <v>43779</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>931</v>
+        <v>1085</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>238</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>797</v>
+        <v>699</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>798</v>
+        <v>700</v>
       </c>
       <c r="E239" s="2">
-        <v>44197</v>
+        <v>43926</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>799</v>
+        <v>701</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>703</v>
+        <v>679</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>532</v>
+        <v>420</v>
       </c>
       <c r="E240" s="2">
-        <v>44333</v>
+        <v>44176</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
@@ -8838,19 +8913,16 @@
         <v>240</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>735</v>
+        <v>756</v>
       </c>
       <c r="E241" s="2">
-        <v>44373</v>
+        <v>43922</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>736</v>
+        <v>757</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.25">
@@ -8858,19 +8930,19 @@
         <v>241</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>944</v>
+        <v>700</v>
       </c>
       <c r="E242" s="3">
-        <v>44393</v>
+        <v>43943</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>945</v>
+        <v>921</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
@@ -8878,19 +8950,19 @@
         <v>242</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>937</v>
+        <v>621</v>
       </c>
       <c r="E243" s="3">
-        <v>44453</v>
+        <v>43951</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.25">
@@ -8898,19 +8970,19 @@
         <v>243</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>629</v>
+        <v>928</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E244" s="2">
-        <v>44544</v>
+        <v>700</v>
+      </c>
+      <c r="E244" s="3">
+        <v>43968</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>630</v>
+        <v>929</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>631</v>
+        <v>934</v>
       </c>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.25">
@@ -8918,19 +8990,19 @@
         <v>244</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>487</v>
+        <v>621</v>
       </c>
       <c r="E245" s="3">
-        <v>44562</v>
+        <v>44110</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
@@ -8938,19 +9010,19 @@
         <v>245</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1090</v>
+        <v>797</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E246" s="3">
-        <v>44562</v>
+        <v>798</v>
+      </c>
+      <c r="E246" s="2">
+        <v>44197</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1088</v>
+        <v>799</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>1091</v>
+        <v>800</v>
       </c>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.25">
@@ -8958,16 +9030,19 @@
         <v>246</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="E247" s="3">
-        <v>44589</v>
+        <v>734</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E247" s="2">
+        <v>44373</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>226</v>
+        <v>736</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>952</v>
+        <v>737</v>
       </c>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
@@ -8975,19 +9050,19 @@
         <v>247</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1093</v>
+        <v>943</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>633</v>
+        <v>944</v>
       </c>
       <c r="E248" s="3">
-        <v>44621</v>
+        <v>44393</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1092</v>
+        <v>945</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>1094</v>
+        <v>941</v>
       </c>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.25">
@@ -8995,19 +9070,19 @@
         <v>248</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>238</v>
+        <v>937</v>
       </c>
       <c r="E249" s="3">
-        <v>44689</v>
+        <v>44453</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.25">
@@ -9015,19 +9090,19 @@
         <v>249</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>949</v>
+        <v>629</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E250" s="3">
-        <v>44706</v>
+        <v>616</v>
+      </c>
+      <c r="E250" s="2">
+        <v>44544</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>757</v>
+        <v>630</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>954</v>
+        <v>631</v>
       </c>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.25">
@@ -9035,16 +9110,19 @@
         <v>250</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>950</v>
+        <v>939</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="E251" s="3">
-        <v>44706</v>
+        <v>44562</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
@@ -9052,19 +9130,19 @@
         <v>251</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>812</v>
+        <v>1090</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E252" s="2">
-        <v>44750</v>
+        <v>1089</v>
+      </c>
+      <c r="E252" s="3">
+        <v>44562</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>813</v>
+        <v>1088</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>814</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
@@ -9072,16 +9150,16 @@
         <v>252</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E253" s="2">
-        <v>44760</v>
+        <v>946</v>
+      </c>
+      <c r="E253" s="3">
+        <v>44589</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>766</v>
+        <v>226</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>767</v>
+        <v>952</v>
       </c>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
@@ -9089,19 +9167,19 @@
         <v>253</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1098</v>
+        <v>633</v>
       </c>
       <c r="E254" s="3">
-        <v>44909</v>
+        <v>44621</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
@@ -9109,19 +9187,19 @@
         <v>254</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>970</v>
+        <v>947</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="E255" s="3">
-        <v>44927</v>
+        <v>44689</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>972</v>
+        <v>953</v>
       </c>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.25">
@@ -9129,19 +9207,19 @@
         <v>255</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>815</v>
+        <v>949</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="E256" s="2">
-        <v>44957</v>
+        <v>238</v>
+      </c>
+      <c r="E256" s="3">
+        <v>44706</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>817</v>
+        <v>757</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>818</v>
+        <v>954</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -9149,19 +9227,16 @@
         <v>256</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="E257" s="3">
-        <v>44963</v>
+        <v>44706</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -9169,19 +9244,19 @@
         <v>257</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>820</v>
+        <v>487</v>
       </c>
       <c r="E258" s="2">
-        <v>45037</v>
+        <v>44750</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -9189,16 +9264,16 @@
         <v>258</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E259" s="3">
-        <v>45051</v>
+        <v>765</v>
+      </c>
+      <c r="E259" s="2">
+        <v>44760</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1095</v>
+        <v>766</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>1101</v>
+        <v>767</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -9206,16 +9281,19 @@
         <v>259</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>960</v>
+        <v>1099</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>1098</v>
       </c>
       <c r="E260" s="3">
-        <v>45062</v>
+        <v>44909</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>961</v>
+        <v>1097</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>964</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -9223,16 +9301,19 @@
         <v>260</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>962</v>
+        <v>970</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="E261" s="3">
-        <v>45287</v>
+        <v>44927</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -9240,19 +9321,19 @@
         <v>261</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="E262" s="2">
-        <v>45292</v>
+        <v>44957</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -9260,39 +9341,39 @@
         <v>262</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="E263" s="3">
-        <v>45300</v>
+        <v>44963</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>500</v>
-      </c>
       <c r="B264" s="1">
         <v>263</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>725</v>
+        <v>819</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="E264" s="2">
-        <v>42552</v>
+        <v>45037</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>726</v>
+        <v>821</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>727</v>
+        <v>822</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -9300,16 +9381,16 @@
         <v>264</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="E265" s="2">
-        <v>42661</v>
+        <v>1096</v>
+      </c>
+      <c r="E265" s="3">
+        <v>45051</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>729</v>
+        <v>1095</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>730</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -9317,237 +9398,219 @@
         <v>265</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>503</v>
+        <v>960</v>
+      </c>
+      <c r="E266" s="3">
+        <v>45062</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>504</v>
+        <v>961</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>505</v>
+        <v>964</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>13</v>
-      </c>
       <c r="B267" s="1">
         <v>266</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>507</v>
+        <v>962</v>
+      </c>
+      <c r="E267" s="3">
+        <v>45287</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>508</v>
+        <v>963</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>509</v>
+        <v>965</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>13</v>
-      </c>
       <c r="B268" s="1">
         <v>267</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>510</v>
+        <v>823</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>511</v>
+        <v>824</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45292</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>512</v>
+        <v>825</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>513</v>
+        <v>826</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>13</v>
-      </c>
       <c r="B269" s="1">
         <v>268</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>514</v>
+        <v>956</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>516</v>
+        <v>957</v>
+      </c>
+      <c r="E269" s="3">
+        <v>45300</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>517</v>
+        <v>958</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>518</v>
+        <v>959</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>13</v>
-      </c>
       <c r="B270" s="1">
         <v>269</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>519</v>
+        <v>1131</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>520</v>
+        <v>1071</v>
+      </c>
+      <c r="E270" s="3">
+        <v>45338</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>521</v>
+        <v>1130</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>522</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="B271" s="1">
         <v>270</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>524</v>
+        <v>725</v>
+      </c>
+      <c r="E271" s="2">
+        <v>42552</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>525</v>
+        <v>726</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>526</v>
+        <v>727</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>13</v>
-      </c>
       <c r="B272" s="1">
         <v>271</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>529</v>
+        <v>728</v>
+      </c>
+      <c r="E272" s="2">
+        <v>42661</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>508</v>
+        <v>729</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>530</v>
+        <v>730</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>13</v>
-      </c>
       <c r="B273" s="1">
         <v>272</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>13</v>
+      </c>
       <c r="B274" s="1">
         <v>273</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>672</v>
+        <v>506</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="E274" s="2">
-        <v>44081</v>
+        <v>390</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>674</v>
+        <v>508</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>675</v>
+        <v>509</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>13</v>
+      </c>
       <c r="B275" s="1">
         <v>274</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>676</v>
+        <v>510</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E275" s="2">
-        <v>44106</v>
+        <v>202</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>677</v>
+        <v>512</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>678</v>
+        <v>513</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>13</v>
+      </c>
       <c r="B276" s="1">
         <v>275</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E276" s="2">
-        <v>44179</v>
+        <v>514</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>754</v>
+        <v>517</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>755</v>
+        <v>518</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -9558,56 +9621,65 @@
         <v>276</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>541</v>
+        <v>207</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>13</v>
+      </c>
       <c r="B278" s="1">
         <v>277</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>616</v>
+        <v>411</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>13</v>
+      </c>
       <c r="B279" s="1">
         <v>278</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="E279" s="2">
-        <v>44481</v>
+        <v>527</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>808</v>
+        <v>508</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>809</v>
+        <v>530</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -9618,88 +9690,76 @@
         <v>279</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>230</v>
+        <v>533</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>549</v>
-      </c>
       <c r="B281" s="1">
         <v>280</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>550</v>
+        <v>672</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>551</v>
+        <v>673</v>
+      </c>
+      <c r="E281" s="2">
+        <v>44081</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>552</v>
+        <v>674</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>553</v>
+        <v>675</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>13</v>
-      </c>
       <c r="B282" s="1">
         <v>281</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>554</v>
+        <v>676</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>555</v>
+        <v>621</v>
+      </c>
+      <c r="E282" s="2">
+        <v>44106</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>556</v>
+        <v>677</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>557</v>
+        <v>678</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>13</v>
-      </c>
       <c r="B283" s="1">
         <v>282</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>559</v>
+        <v>753</v>
+      </c>
+      <c r="E283" s="2">
+        <v>44179</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>560</v>
+        <v>754</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>561</v>
+        <v>755</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -9710,65 +9770,56 @@
         <v>283</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>13</v>
-      </c>
       <c r="B285" s="1">
         <v>284</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>13</v>
-      </c>
       <c r="B286" s="1">
         <v>285</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>573</v>
+        <v>807</v>
+      </c>
+      <c r="E286" s="2">
+        <v>44481</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>574</v>
+        <v>808</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>575</v>
+        <v>809</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -9779,41 +9830,202 @@
         <v>286</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>578</v>
+        <v>230</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>13</v>
+        <v>549</v>
       </c>
       <c r="B288" s="1">
         <v>287</v>
       </c>
       <c r="C288" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>13</v>
+      </c>
+      <c r="B289" s="1">
+        <v>288</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" s="1">
+        <v>289</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>13</v>
+      </c>
+      <c r="B291" s="1">
+        <v>290</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>13</v>
+      </c>
+      <c r="B292" s="1">
+        <v>291</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>13</v>
+      </c>
+      <c r="B293" s="1">
+        <v>292</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>13</v>
+      </c>
+      <c r="B294" s="1">
+        <v>293</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>13</v>
+      </c>
+      <c r="B295" s="1">
+        <v>294</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="D295" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E288" s="1" t="s">
+      <c r="E295" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F288" s="1" t="s">
+      <c r="F295" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G288" s="1" t="s">
+      <c r="G295" s="1" t="s">
         <v>584</v>
       </c>
     </row>
@@ -9821,7 +10033,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A88 C280:G280 C65:G67 A65:A66 A71:A72 C79:D79 F79:G79 A14:A15 A31 C31 A85:A86 A97 C91 A104:A105 A280:A288 C104:G105 A109 C109:G109 C114 F114:G114 A151 C207:G207 A206:A209 A213 C124:G125 A130 A158:A173 C157:G158 C142:G144 A176:A188 C176:G176 C150:G150 A7 A10 A277 C267:G273 A268:A271 A273 A211 A1:G1 A2 A79:A82 C28:G28 A28 A190:A193 A264 C130:D130 F130:G130 A122 D140:G140 A68 A125 C14:G15 C7:G7 C10 E82 C22:G22 A22 A57:A60 C45:G45 A63 C62:G63 C88:G88 A147 A18 C18:G18 A201:A204 C200:G200 C286:G288 C285 E285:G285 C284:G284 C281:C283 E281:G283 C210:G213 C208:C209 E208:G209 C206 E206:G206 C202:G204 C201 E201:G201 C193:G193 C192 E192:G192 C187:G191 C183:C186 E183:G186 C181:G182 C179:C180 E179:G180 C178:G178 C177 E177:G177 C173:F173 C172 E172:G172 C170:G171 C169 E169:G169 C165:G168 C164 E164:G164 C161:G163 C159:C160 E159:G160 C151 E151:G151 C147:G147 C145 E145:G145 C106 E106:G106 C99 E99:G99 E91:G91 C85:C86 E85:G86 C80:C81 E80:G81 C71:C72 E71:G72 C68 E68:G68 C57:G58 C54 E54:G54 C60:G60 C59 E59:G59 C50:G53 C47:C49 E47:G49 E31:G31 C20 E20:G20 E10:G10 C55:G55 A47:A55 A45 E97:G97 C97 C122:G122 A140 A142:A145 A20" numberStoredAsText="1"/>
+    <ignoredError sqref="A91 C287:G287 C68:G70 A68:A69 A74:A75 C82:D82 F82:G82 A14:A15 A31 C31 A88:A89 A100 C94 A107:A108 A287:A295 C107:G108 A112 C112:G112 C117 F117:G117 A156 C214:G214 A213:A216 A220 C127:G128 A134 A163:A178 C162:G163 C147:G149 A181:A193 C181:G181 C155:G155 A7 A10 A284 C274:G280 A275:A278 A280 A218 A1:G1 A2 A82:A85 C28:G28 A28 A195:A198 A271 C134:D134 F134:G134 A125 D144:G144 A71 A128 C14:G15 C7:G7 C10 E85 C22:G22 A22 A60:A63 C47:G47 A66 C65:G66 C91:G91 A152 A18 C18:G18 A208:A211 C207:G207 C293:G295 C292 E292:G292 C291:G291 C288:C290 E288:G290 C217:G220 C215:C216 E215:G216 C213 E213:G213 C209:G211 C208 E208:G208 C198:G198 C197 E197:G197 C192:G196 C188:C191 E188:G191 C186:G187 C184:C185 E184:G185 C183:G183 C182 E182:G182 C178:F178 C177 E177:G177 C175:G176 C174 E174:G174 C170:G173 C169 E169:G169 C166:G168 C164:C165 E164:G165 C156 E156:G156 C152:G152 C150 E150:G150 C109 E109:G109 C102 E102:G102 E94:G94 C88:C89 E88:G89 C83:C84 E83:G84 C74:C75 E74:G75 C71 E71:G71 C60:G61 C57 E57:G57 C63:G63 C62 E62:G62 C53:G56 C50:C52 E50:G52 E31:G31 C20 E20:G20 E10:G10 C58:G58 A50:A58 A47 E100:G100 C100 C125:G125 A144 A147:A150 A20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/paper_dataframe_markdown_backup.xlsx
+++ b/paper_dataframe_markdown_backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Desktop\awesome-ai-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459885EE-6A55-4F70-9BDC-C6202DCAED9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5660CBD-C64C-459C-895F-EFC021712F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1231">
   <si>
     <t>Theme</t>
   </si>
@@ -3416,6 +3416,330 @@
   </si>
   <si>
     <t>Enhancing Numerical Reasoning with the Guidance of Reliable Reasoning Processes</t>
+  </si>
+  <si>
+    <t>[Link](https://bmcbioinformatics.biomedcentral.com/articles/10.1186/s12859-015-0564-6)</t>
+  </si>
+  <si>
+    <t>George Tsatsaronis et al</t>
+  </si>
+  <si>
+    <t>An overview of the BIOASQ large-scale biomedical semantic indexing and question answering competition</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2103.03874v2)</t>
+  </si>
+  <si>
+    <t>Dan Hendrycks et al</t>
+  </si>
+  <si>
+    <t>Measuring Mathematical Problem Solving With the MATH Dataset</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2307.10635v3)</t>
+  </si>
+  <si>
+    <t>Xiaoxuan Wang et al</t>
+  </si>
+  <si>
+    <t>ICML  2024</t>
+  </si>
+  <si>
+    <t>SciBench: Evaluating College-Level Scientific Problem-Solving Abilities of Large Language Models</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2311.16502v4)</t>
+  </si>
+  <si>
+    <t>Xiang Yue et al</t>
+  </si>
+  <si>
+    <t>CVPR  2024</t>
+  </si>
+  <si>
+    <t>MMMU: A Massive Multi-discipline Multimodal Understanding and Reasoning Benchmark for Expert AGI</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2406.01574v6)</t>
+  </si>
+  <si>
+    <t>Yubo Wang et al</t>
+  </si>
+  <si>
+    <t>NeurIPS  2024</t>
+  </si>
+  <si>
+    <t>MMLU-Pro: A More Robust and Challenging Multi-Task Language Understanding Benchmark</t>
+  </si>
+  <si>
+    <t>[Link](https://ieeexplore.ieee.org/document/10161229)</t>
+  </si>
+  <si>
+    <t>Connor M. Watson et al</t>
+  </si>
+  <si>
+    <t>ICRA 2023</t>
+  </si>
+  <si>
+    <t>Image Segmentation for Continuum Robots from a Kinematic Prior</t>
+  </si>
+  <si>
+    <t>[Link](https://www.sciencedirect.com/science/article/abs/pii/S0079742108605368)</t>
+  </si>
+  <si>
+    <t>Michael McCloskey et al</t>
+  </si>
+  <si>
+    <t>Psychology of Learning and Motivation 1989</t>
+  </si>
+  <si>
+    <t>Catastrophic Interference in Connectionist Networks</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1602.04938v3)</t>
+  </si>
+  <si>
+    <t>Marco Tulio Ribeiro et al</t>
+  </si>
+  <si>
+    <t>"Why Should I Trust You?": Explaining the Predictions of Any Classifier</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1807.02910v3)</t>
+  </si>
+  <si>
+    <t>Gregory Plumb et al</t>
+  </si>
+  <si>
+    <t>ICML 2019</t>
+  </si>
+  <si>
+    <t>Model Agnostic Supervised Local Explanations</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1806.08049v1)</t>
+  </si>
+  <si>
+    <t>David Alvarez-Melis et al</t>
+  </si>
+  <si>
+    <t>On the Robustness of Interpretability Methods</t>
+  </si>
+  <si>
+    <t>[Link](https://ojs.aaai.org/index.php/AAAI/article/view/11491)</t>
+  </si>
+  <si>
+    <t>Anchors: High-Precision Model-Agnostic Explanations</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1705.07874v2)</t>
+  </si>
+  <si>
+    <t>Scott Lundberg et al</t>
+  </si>
+  <si>
+    <t>A Unified Approach to Interpreting Model Predictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICML Workshop 2018 </t>
+  </si>
+  <si>
+    <t>Michael I. Jordan et al</t>
+  </si>
+  <si>
+    <t>IJCNN 1993</t>
+  </si>
+  <si>
+    <t>Hierarchical mixtures of experts and the em algorithm</t>
+  </si>
+  <si>
+    <t>Consistent Estimators for Learning to Defer to an Expert</t>
+  </si>
+  <si>
+    <t>Hussein Mozannar et al</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2006.01862v3)</t>
+  </si>
+  <si>
+    <t>Who Should Predict? Exact Algorithms For Learning to Defer to Humans</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2301.06197v2)</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1902.00751v2)</t>
+  </si>
+  <si>
+    <t>Neil Houlsby et al</t>
+  </si>
+  <si>
+    <t>Parameter-Efficient Transfer Learning for NLP</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1906.00408v1)</t>
+  </si>
+  <si>
+    <t>Danielle Saunders et al</t>
+  </si>
+  <si>
+    <t>Domain Adaptive Inference for Neural Machine Translation</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1909.03329v2)</t>
+  </si>
+  <si>
+    <t>Fan-Keng Sun et al</t>
+  </si>
+  <si>
+    <t>EMNLP 2020</t>
+  </si>
+  <si>
+    <t>LAMOL: LAnguage MOdeling for Lifelong Language Learning</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/1910.03771v5)</t>
+  </si>
+  <si>
+    <t>Thomas Wolf et al</t>
+  </si>
+  <si>
+    <t>HuggingFace's Transformers: State-of-the-art Natural Language Processing</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2105.03023v2)</t>
+  </si>
+  <si>
+    <t>Alisa Liu et al</t>
+  </si>
+  <si>
+    <t>DExperts: Decoding-Time Controlled Text Generation with Experts and Anti-Experts</t>
+  </si>
+  <si>
+    <t>Given a language model (LM), maximum probability is a poor decoding objective
+for open-ended generation, because it produces short and repetitive text. On
+the other hand, sampling can often produce incoherent text that drifts from the
+original topics. We propose contrastive decoding (CD), a reliable decoding
+approach that optimizes a contrastive objective subject to a plausibility
+constraint. The contrastive objective returns the difference between the
+likelihood under a large LM (called the expert, e.g. OPT-13B) and a small LM
+(called the amateur, e.g. OPT-125M), and the constraint ensures that the
+outputs are plausible. CD is inspired by the fact that the failures of larger
+LMs (e.g., repetition, incoherence) are even more prevalent in smaller LMs, and
+that this difference signals which texts should be preferred. CD requires zero
+additional training, and produces higher quality text than decoding from the
+larger LM alone. It also works across model scales (OPT-13B and GPT2-1.5B) and
+significantly outperforms four strong decoding algorithms (e.g., nucleus,
+top-k) in automatic and human evaluations across wikipedia, news and story
+domains.</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2210.15097v2)</t>
+  </si>
+  <si>
+    <t>Xiang Lisa Li et al</t>
+  </si>
+  <si>
+    <t>Contrastive Decoding: Open-ended Text Generation as Optimization</t>
+  </si>
+  <si>
+    <t>Inference from large autoregressive models like Transformers is slow -
+decoding K tokens takes K serial runs of the model. In this work we introduce
+speculative decoding - an algorithm to sample from autoregressive models faster
+without any changes to the outputs, by computing several tokens in parallel. At
+the heart of our approach lie the observations that (1) hard language-modeling
+tasks often include easier subtasks that can be approximated well by more
+efficient models, and (2) using speculative execution and a novel sampling
+method, we can make exact decoding from the large models faster, by running
+them in parallel on the outputs of the approximation models, potentially
+generating several tokens concurrently, and without changing the distribution.
+Our method can accelerate existing off-the-shelf models without retraining or
+architecture changes. We demonstrate it on T5-XXL and show a 2X-3X acceleration
+compared to the standard T5X implementation, with identical outputs.</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2211.17192v2)</t>
+  </si>
+  <si>
+    <t>Yaniv Leviathan et al</t>
+  </si>
+  <si>
+    <t>ICML  2023</t>
+  </si>
+  <si>
+    <t>Fast Inference from Transformers via Speculative Decoding</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2302.04761v1)</t>
+  </si>
+  <si>
+    <t>Timo Schick et al</t>
+  </si>
+  <si>
+    <t>Toolformer: Language Models Can Teach Themselves to Use Tools</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2306.04751v2)</t>
+  </si>
+  <si>
+    <t>How Far Can Camels Go? Exploring the State of Instruction Tuning on Open Resources</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2307.09288v2)</t>
+  </si>
+  <si>
+    <t>Llama 2: Open Foundation and Fine-Tuned Chat Models</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2308.10848v3)</t>
+  </si>
+  <si>
+    <t>Weize Chen et al</t>
+  </si>
+  <si>
+    <t>AgentVerse: Facilitating Multi-Agent Collaboration and Exploring Emergent Behaviors</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2308.00951v2)</t>
+  </si>
+  <si>
+    <t>Joan Puigcerver et al</t>
+  </si>
+  <si>
+    <t>From Sparse to Soft Mixtures of Experts</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2403.03870v2)</t>
+  </si>
+  <si>
+    <t>Shannon Zejiang Shen et al</t>
+  </si>
+  <si>
+    <t>Learning to Decode Collaboratively with Multiple Language Models</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2401.08565v4)</t>
+  </si>
+  <si>
+    <t>Tuning Language Models by Proxy</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2311.16079v1)</t>
+  </si>
+  <si>
+    <t>Zeming Chen et al</t>
+  </si>
+  <si>
+    <t>MEDITRON-70B: Scaling Medical Pretraining for Large Language Models</t>
+  </si>
+  <si>
+    <t>[Link](http://arxiv.org/abs/2310.10631v3)</t>
+  </si>
+  <si>
+    <t>Zhangir Azerbayev et al</t>
+  </si>
+  <si>
+    <t>Llemma: An Open Language Model For Mathematics</t>
   </si>
 </sst>
 </file>
@@ -3859,10 +4183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B2" sqref="B2:B326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4314,47 +4638,47 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>1177</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>44</v>
+        <v>532</v>
+      </c>
+      <c r="E22" s="3">
+        <v>43984</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>45</v>
+        <v>1178</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>616</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>304</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4362,19 +4686,19 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1080</v>
+        <v>301</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E24" s="3">
-        <v>44356</v>
+        <v>616</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1078</v>
+        <v>303</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1081</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4382,19 +4706,19 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>759</v>
+        <v>1080</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="E25" s="2">
-        <v>44375</v>
+        <v>1079</v>
+      </c>
+      <c r="E25" s="3">
+        <v>44356</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>760</v>
+        <v>1078</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>761</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4402,19 +4726,19 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1083</v>
+        <v>759</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="3">
-        <v>44591</v>
+        <v>721</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44375</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1082</v>
+        <v>760</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1084</v>
+        <v>761</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4422,42 +4746,39 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>892</v>
+        <v>1083</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>265</v>
+        <v>119</v>
       </c>
       <c r="E27" s="3">
-        <v>45033</v>
+        <v>44591</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>893</v>
+        <v>1082</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>1180</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>1061</v>
+      </c>
+      <c r="E28" s="3">
+        <v>44941</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>51</v>
+        <v>1178</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>52</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4465,122 +4786,125 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>709</v>
+        <v>892</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="E29" s="2">
-        <v>38353</v>
+        <v>265</v>
+      </c>
+      <c r="E29" s="3">
+        <v>45033</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>711</v>
+        <v>893</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>986</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="E30" s="3">
-        <v>43101</v>
+        <v>49</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>984</v>
+        <v>51</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>987</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>709</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>54</v>
+        <v>710</v>
+      </c>
+      <c r="E31" s="2">
+        <v>38353</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>55</v>
+        <v>711</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>599</v>
+        <v>1134</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E32" s="2">
-        <v>43213</v>
+        <v>724</v>
+      </c>
+      <c r="E32" s="3">
+        <v>42124</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>600</v>
+        <v>1133</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="E33" s="3">
-        <v>43406</v>
+        <v>43101</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>995</v>
+        <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="E34" s="3">
-        <v>43525</v>
+        <v>616</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>994</v>
+        <v>55</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>996</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4588,19 +4912,19 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="E35" s="2">
-        <v>43576</v>
+        <v>43213</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4608,19 +4932,19 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>889</v>
+        <v>991</v>
       </c>
       <c r="E36" s="3">
-        <v>43615</v>
+        <v>43406</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4628,19 +4952,19 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>80</v>
+        <v>889</v>
       </c>
       <c r="E37" s="3">
-        <v>43763</v>
+        <v>43525</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4648,19 +4972,19 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>747</v>
+        <v>608</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>700</v>
+        <v>609</v>
       </c>
       <c r="E38" s="2">
-        <v>43930</v>
+        <v>43576</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>748</v>
+        <v>610</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>749</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4668,19 +4992,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1004</v>
+        <v>889</v>
       </c>
       <c r="E39" s="3">
-        <v>44202</v>
+        <v>43615</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4688,19 +5012,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1108</v>
+        <v>1001</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1107</v>
+        <v>80</v>
       </c>
       <c r="E40" s="3">
-        <v>44267</v>
+        <v>43763</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1106</v>
+        <v>1000</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1105</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4708,19 +5032,19 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>703</v>
+        <v>747</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="E41" s="3">
-        <v>44333</v>
+        <v>700</v>
+      </c>
+      <c r="E41" s="2">
+        <v>43930</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>704</v>
+        <v>748</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>705</v>
+        <v>749</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4728,36 +5052,39 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="E42" s="2">
-        <v>44336</v>
+        <v>1005</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E42" s="3">
+        <v>44202</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>805</v>
+        <v>1003</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1012</v>
+        <v>1137</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>532</v>
+        <v>1079</v>
       </c>
       <c r="E43" s="3">
-        <v>44369</v>
+        <v>44260</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1011</v>
+        <v>1136</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1015</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4765,19 +5092,19 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>609</v>
+        <v>1107</v>
       </c>
       <c r="E44" s="3">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4785,19 +5112,19 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1010</v>
+        <v>703</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1009</v>
+        <v>794</v>
       </c>
       <c r="E45" s="3">
-        <v>44440</v>
+        <v>44333</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>927</v>
+        <v>704</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1014</v>
+        <v>705</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4805,42 +5132,36 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E46" s="3">
-        <v>44442</v>
+        <v>804</v>
+      </c>
+      <c r="E46" s="2">
+        <v>44336</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1007</v>
+        <v>805</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1013</v>
+        <v>806</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
       <c r="B47" s="1">
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>57</v>
+        <v>1012</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>59</v>
+        <v>532</v>
+      </c>
+      <c r="E47" s="3">
+        <v>44369</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>60</v>
+        <v>1011</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>61</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4848,19 +5169,19 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>238</v>
+        <v>609</v>
       </c>
       <c r="E48" s="3">
-        <v>44841</v>
+        <v>44377</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>927</v>
+        <v>1110</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1017</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4868,39 +5189,39 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1114</v>
+        <v>1010</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1009</v>
       </c>
       <c r="E49" s="3">
-        <v>44496</v>
+        <v>44440</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1113</v>
+        <v>927</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1112</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>62</v>
-      </c>
       <c r="B50" s="1">
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>63</v>
+        <v>1008</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>64</v>
+        <v>532</v>
+      </c>
+      <c r="E50" s="3">
+        <v>44442</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>65</v>
+        <v>1007</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>66</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4911,198 +5232,185 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>616</v>
+        <v>58</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>13</v>
-      </c>
       <c r="B52" s="1">
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>70</v>
+        <v>1016</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>71</v>
+        <v>238</v>
+      </c>
+      <c r="E52" s="3">
+        <v>44841</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>72</v>
+        <v>927</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>73</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>13</v>
-      </c>
       <c r="B53" s="1">
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>76</v>
+        <v>1114</v>
+      </c>
+      <c r="E53" s="3">
+        <v>44496</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>77</v>
+        <v>1113</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>13</v>
-      </c>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>79</v>
+        <v>1141</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>81</v>
+        <v>1140</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45127</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>82</v>
+        <v>1139</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>84</v>
+        <v>1145</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>86</v>
+        <v>1144</v>
+      </c>
+      <c r="E55" s="3">
+        <v>45257</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>87</v>
+        <v>1143</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>89</v>
+        <v>1149</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>91</v>
+        <v>1148</v>
+      </c>
+      <c r="E56" s="3">
+        <v>45446</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>1147</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>93</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1">
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="B58" s="1">
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>100</v>
+        <v>616</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
       <c r="B59" s="1">
         <v>58</v>
       </c>
-      <c r="C59" t="s">
-        <v>978</v>
-      </c>
-      <c r="D59"/>
-      <c r="E59" s="3">
-        <v>42794</v>
-      </c>
-      <c r="F59" t="s">
-        <v>977</v>
-      </c>
-      <c r="G59" t="s">
-        <v>979</v>
+      <c r="C59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5113,19 +5421,19 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -5136,19 +5444,19 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -5159,19 +5467,19 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>616</v>
+        <v>85</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -5182,200 +5490,187 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="B64" s="1">
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>833</v>
+        <v>94</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="E64" s="3">
-        <v>37987</v>
+        <v>616</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>835</v>
+        <v>96</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>98</v>
+      </c>
       <c r="B65" s="1">
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>125</v>
+        <v>1160</v>
+      </c>
+      <c r="E65" s="3">
+        <v>42416</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>126</v>
+        <v>1159</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>13</v>
-      </c>
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>66</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>838</v>
-      </c>
+      <c r="C67" t="s">
+        <v>978</v>
+      </c>
+      <c r="D67"/>
       <c r="E67" s="3">
-        <v>40816</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>13</v>
-      </c>
+        <v>42794</v>
+      </c>
+      <c r="F67" t="s">
+        <v>977</v>
+      </c>
+      <c r="G67" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>133</v>
+        <v>1172</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>135</v>
+        <v>981</v>
+      </c>
+      <c r="E68" s="3">
+        <v>42877</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>136</v>
+        <v>1171</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>13</v>
-      </c>
+        <v>1170</v>
+      </c>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>138</v>
+        <v>1169</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>140</v>
+        <v>1173</v>
+      </c>
+      <c r="E69" s="3">
+        <v>43101</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>141</v>
+        <v>1159</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>13</v>
-      </c>
+        <v>1168</v>
+      </c>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>143</v>
+        <v>1167</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>145</v>
+        <v>985</v>
+      </c>
+      <c r="E70" s="3">
+        <v>43272</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>146</v>
+        <v>1166</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>13</v>
-      </c>
+        <v>1165</v>
+      </c>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>148</v>
+        <v>1164</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>149</v>
+        <v>1163</v>
+      </c>
+      <c r="E71" s="3">
+        <v>43290</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>150</v>
+        <v>1162</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -5383,39 +5678,45 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E72" s="2">
-        <v>42327</v>
+        <v>104</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>586</v>
+        <v>107</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
       <c r="B73" s="1">
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>724</v>
+        <v>110</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -5423,22 +5724,22 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -5446,136 +5747,151 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>616</v>
+        <v>119</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>122</v>
+      </c>
       <c r="B76" s="1">
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>588</v>
+        <v>833</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E76" s="2">
-        <v>42684</v>
+        <v>834</v>
+      </c>
+      <c r="E76" s="3">
+        <v>37987</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>590</v>
+        <v>835</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>738</v>
+        <v>123</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="E77" s="2">
-        <v>42688</v>
+        <v>124</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>740</v>
+        <v>126</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
       <c r="B78" s="1">
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>841</v>
+        <v>128</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E78" s="3">
-        <v>42680</v>
+        <v>129</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>842</v>
+        <v>131</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>593</v>
+        <v>838</v>
       </c>
       <c r="E79" s="3">
-        <v>42736</v>
+        <v>40816</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
       <c r="B80" s="1">
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>592</v>
+        <v>133</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="E80" s="2">
-        <v>42825</v>
+        <v>134</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>594</v>
+        <v>136</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>595</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
       <c r="B81" s="1">
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E81" s="2">
-        <v>42839</v>
+        <v>138</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>690</v>
+        <v>141</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>691</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -5586,19 +5902,19 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E82" s="2">
-        <v>42854</v>
+        <v>144</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -5609,19 +5925,19 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -5632,128 +5948,122 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>169</v>
+        <v>585</v>
+      </c>
+      <c r="E84" s="2">
+        <v>42327</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>170</v>
+        <v>586</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>171</v>
+        <v>587</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>13</v>
-      </c>
       <c r="B85" s="1">
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>616</v>
+        <v>724</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
       <c r="B86" s="1">
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>831</v>
+        <v>152</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E86" s="2">
-        <v>43101</v>
+        <v>616</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>830</v>
+        <v>154</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>832</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
       <c r="B87" s="1">
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>692</v>
+        <v>156</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E87" s="2">
-        <v>43122</v>
+        <v>616</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>694</v>
+        <v>158</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>695</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>13</v>
-      </c>
       <c r="B88" s="1">
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>176</v>
+        <v>588</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>177</v>
+        <v>589</v>
+      </c>
+      <c r="E88" s="2">
+        <v>42684</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>178</v>
+        <v>590</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>179</v>
+        <v>591</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>13</v>
-      </c>
       <c r="B89" s="1">
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>180</v>
+        <v>738</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>181</v>
+        <v>739</v>
+      </c>
+      <c r="E89" s="2">
+        <v>42688</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>182</v>
+        <v>740</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>183</v>
+        <v>741</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5761,39 +6071,39 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="E90" s="2">
-        <v>43233</v>
+        <v>841</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E90" s="3">
+        <v>42680</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>603</v>
+        <v>842</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>604</v>
+        <v>843</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>13</v>
-      </c>
       <c r="B91" s="1">
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>184</v>
+        <v>844</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>186</v>
+        <v>593</v>
+      </c>
+      <c r="E91" s="3">
+        <v>42736</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>187</v>
+        <v>845</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>188</v>
+        <v>846</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -5801,19 +6111,19 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>184</v>
+        <v>592</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="E92" s="3">
-        <v>43262</v>
+        <v>593</v>
+      </c>
+      <c r="E92" s="2">
+        <v>42825</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>187</v>
+        <v>594</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>188</v>
+        <v>595</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5821,16 +6131,16 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="E93" s="3">
-        <v>43329</v>
+        <v>689</v>
+      </c>
+      <c r="E93" s="2">
+        <v>42839</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>849</v>
+        <v>690</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>850</v>
+        <v>691</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -5841,116 +6151,131 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>190</v>
+        <v>161</v>
+      </c>
+      <c r="E94" s="2">
+        <v>42854</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
       <c r="B95" s="1">
         <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>605</v>
+        <v>164</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E95" s="2">
-        <v>43466</v>
+        <v>616</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>606</v>
+        <v>166</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>607</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
       <c r="B96" s="1">
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1020</v>
+        <v>168</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E96" s="3">
-        <v>43466</v>
+        <v>616</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1018</v>
+        <v>170</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
       <c r="B97" s="1">
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>742</v>
+        <v>172</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E97" s="2">
-        <v>43496</v>
+      <c r="E97" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>744</v>
+        <v>831</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="E98" s="2">
-        <v>43576</v>
+        <v>43101</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>745</v>
+        <v>830</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="E99" s="3">
-        <v>43577</v>
+        <v>692</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E99" s="2">
+        <v>43122</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>852</v>
+        <v>694</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -5958,508 +6283,506 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
       <c r="B101" s="1">
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1023</v>
+        <v>180</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E101" s="3">
-        <v>43622</v>
+        <v>616</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1022</v>
+        <v>182</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>13</v>
-      </c>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>198</v>
+        <v>602</v>
+      </c>
+      <c r="E102" s="2">
+        <v>43233</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>199</v>
+        <v>603</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
       <c r="B103" s="1">
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="E103" s="3">
-        <v>43689</v>
+        <v>184</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>855</v>
+        <v>187</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>612</v>
+        <v>184</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="E104" s="2">
-        <v>43697</v>
+        <v>847</v>
+      </c>
+      <c r="E104" s="3">
+        <v>43262</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>614</v>
+        <v>187</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E105" s="2">
-        <v>43699</v>
+        <v>848</v>
+      </c>
+      <c r="E105" s="3">
+        <v>43329</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>828</v>
+        <v>849</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
       <c r="B106" s="1">
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E106" s="2">
-        <v>43704</v>
+      <c r="E106" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>13</v>
-      </c>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>201</v>
+        <v>605</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>203</v>
+        <v>75</v>
+      </c>
+      <c r="E107" s="2">
+        <v>43466</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>204</v>
+        <v>606</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>13</v>
-      </c>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>206</v>
+        <v>1020</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>208</v>
+        <v>1019</v>
+      </c>
+      <c r="E108" s="3">
+        <v>43466</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>209</v>
+        <v>1018</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>13</v>
-      </c>
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>211</v>
+        <v>742</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>212</v>
+      <c r="E109" s="2">
+        <v>43496</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>700</v>
+        <v>1184</v>
       </c>
       <c r="E110" s="3">
-        <v>43769</v>
+        <v>43498</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1025</v>
+        <v>1183</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1182</v>
+      </c>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>617</v>
+        <v>744</v>
       </c>
       <c r="E111" s="2">
-        <v>43775</v>
+        <v>43576</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>618</v>
+        <v>745</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>13</v>
-      </c>
+        <v>746</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>217</v>
+        <v>851</v>
+      </c>
+      <c r="E112" s="3">
+        <v>43577</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>218</v>
+        <v>852</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
       <c r="B113" s="1">
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>857</v>
+        <v>193</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="E113" s="3">
-        <v>43831</v>
+        <v>616</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>859</v>
+        <v>195</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>782</v>
+        <v>1187</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="E114" s="2">
-        <v>43894</v>
+        <v>390</v>
+      </c>
+      <c r="E114" s="3">
+        <v>43618</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>784</v>
+        <v>1186</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>861</v>
+        <v>1023</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>862</v>
+        <v>75</v>
       </c>
       <c r="E115" s="3">
-        <v>43913</v>
+        <v>43622</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>863</v>
+        <v>1022</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
       <c r="B116" s="1">
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>620</v>
+        <v>197</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E116" s="2">
-        <v>43931</v>
+        <v>616</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>622</v>
+        <v>199</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>13</v>
-      </c>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E117" s="2">
-        <v>43938</v>
+        <v>854</v>
+      </c>
+      <c r="E117" s="3">
+        <v>43689</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>221</v>
+        <v>855</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>865</v>
+        <v>612</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E118" s="3">
-        <v>43954</v>
+        <v>613</v>
+      </c>
+      <c r="E118" s="2">
+        <v>43697</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>866</v>
+        <v>614</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E119" s="3">
-        <v>44112</v>
+        <v>827</v>
+      </c>
+      <c r="E119" s="2">
+        <v>43699</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1028</v>
+        <v>828</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>868</v>
+        <v>79</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E120" s="3">
-        <v>44141</v>
+        <v>616</v>
+      </c>
+      <c r="E120" s="2">
+        <v>43704</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>869</v>
+        <v>82</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
       <c r="B121" s="1">
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1034</v>
+        <v>1191</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1033</v>
+        <v>1190</v>
       </c>
       <c r="E121" s="3">
-        <v>44184</v>
+        <v>43715</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1032</v>
+        <v>1189</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1188</v>
+      </c>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
       <c r="B122" s="1">
         <v>121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1038</v>
+        <v>201</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E122" s="3">
-        <v>44197</v>
+        <v>202</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1036</v>
+        <v>204</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
       <c r="B123" s="1">
         <v>122</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="E123" s="2">
-        <v>44306</v>
+        <v>1194</v>
+      </c>
+      <c r="E123" s="3">
+        <v>43747</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>802</v>
+        <v>1193</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1192</v>
+      </c>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>13</v>
+      </c>
       <c r="B124" s="1">
         <v>123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1041</v>
+        <v>206</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="E124" s="3">
-        <v>44350</v>
+        <v>207</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1040</v>
+        <v>209</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -6467,62 +6790,59 @@
         <v>124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>224</v>
+        <v>616</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1044</v>
+        <v>1026</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>700</v>
       </c>
       <c r="E126" s="3">
-        <v>44518</v>
+        <v>43769</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>13</v>
-      </c>
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>230</v>
+        <v>617</v>
+      </c>
+      <c r="E127" s="2">
+        <v>43775</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>231</v>
+        <v>618</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -6530,19 +6850,19 @@
         <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -6550,16 +6870,19 @@
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="E129" s="2">
-        <v>44631</v>
+        <v>857</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="E129" s="3">
+        <v>43831</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>763</v>
+        <v>859</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>764</v>
+        <v>860</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -6567,19 +6890,19 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1047</v>
+        <v>782</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="E130" s="3">
-        <v>44633</v>
+        <v>783</v>
+      </c>
+      <c r="E130" s="2">
+        <v>43894</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1046</v>
+        <v>784</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1048</v>
+        <v>785</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -6587,19 +6910,19 @@
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1051</v>
+        <v>861</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1050</v>
+        <v>862</v>
       </c>
       <c r="E131" s="3">
-        <v>44665</v>
+        <v>43913</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1049</v>
+        <v>863</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1052</v>
+        <v>864</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -6607,62 +6930,62 @@
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>871</v>
+        <v>620</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="E132" s="3">
-        <v>44641</v>
+        <v>621</v>
+      </c>
+      <c r="E132" s="2">
+        <v>43931</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>873</v>
+        <v>622</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>874</v>
+        <v>623</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
       <c r="B133" s="1">
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1118</v>
+        <v>220</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E133" s="3">
-        <v>44656</v>
+        <v>616</v>
+      </c>
+      <c r="E133" s="2">
+        <v>43938</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1116</v>
+        <v>221</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1115</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>13</v>
-      </c>
       <c r="B134" s="1">
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>237</v>
+        <v>865</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E134" s="2">
-        <v>44667</v>
+        <v>700</v>
+      </c>
+      <c r="E134" s="3">
+        <v>43954</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>239</v>
+        <v>866</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>240</v>
+        <v>867</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -6670,19 +6993,19 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>750</v>
+        <v>1030</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E135" s="2">
-        <v>44676</v>
+        <v>1029</v>
+      </c>
+      <c r="E135" s="3">
+        <v>44112</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>751</v>
+        <v>1028</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>752</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -6690,19 +7013,19 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>636</v>
+        <v>868</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="E136" s="2">
-        <v>44684</v>
+        <v>621</v>
+      </c>
+      <c r="E136" s="3">
+        <v>44141</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>638</v>
+        <v>869</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>639</v>
+        <v>870</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -6710,19 +7033,19 @@
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>706</v>
+        <v>1034</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E137" s="2">
-        <v>44689</v>
+        <v>1033</v>
+      </c>
+      <c r="E137" s="3">
+        <v>44184</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>707</v>
+        <v>1032</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>708</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -6730,16 +7053,19 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="E138" s="2">
-        <v>44704</v>
+        <v>1038</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E138" s="3">
+        <v>44197</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>641</v>
+        <v>1036</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>642</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -6747,36 +7073,36 @@
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>643</v>
+        <v>801</v>
       </c>
       <c r="E139" s="2">
-        <v>44710</v>
+        <v>44306</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>644</v>
+        <v>802</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>643</v>
+        <v>1197</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>119</v>
+        <v>794</v>
       </c>
       <c r="E140" s="3">
-        <v>44710</v>
+        <v>44323</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>644</v>
+        <v>1196</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>645</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -6784,36 +7110,42 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="E141" s="2">
-        <v>44734</v>
+        <v>1041</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E141" s="3">
+        <v>44350</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>267</v>
+        <v>1040</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>811</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
       <c r="B142" s="1">
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1055</v>
+        <v>223</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E142" s="3">
-        <v>44820</v>
+        <v>224</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1053</v>
+        <v>226</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1058</v>
+        <v>227</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -6821,16 +7153,16 @@
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>875</v>
+        <v>1044</v>
       </c>
       <c r="E143" s="3">
-        <v>44840</v>
+        <v>44518</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>876</v>
+        <v>1043</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>877</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -6841,36 +7173,42 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>13</v>
+      </c>
       <c r="B145" s="1">
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E145" s="3">
-        <v>44847</v>
+        <v>233</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1056</v>
+        <v>235</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1059</v>
+        <v>236</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -6878,154 +7216,139 @@
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E146" s="3">
-        <v>44868</v>
+        <v>762</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44631</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1120</v>
+        <v>763</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1119</v>
+        <v>764</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>13</v>
-      </c>
       <c r="B147" s="1">
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>246</v>
+        <v>1047</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>248</v>
+        <v>633</v>
+      </c>
+      <c r="E147" s="3">
+        <v>44633</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>249</v>
+        <v>1046</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>250</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>13</v>
-      </c>
       <c r="B148" s="1">
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>251</v>
+        <v>1051</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>253</v>
+        <v>1050</v>
+      </c>
+      <c r="E148" s="3">
+        <v>44665</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>239</v>
+        <v>1049</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>254</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>13</v>
-      </c>
       <c r="B149" s="1">
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>255</v>
+        <v>871</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>257</v>
+        <v>872</v>
+      </c>
+      <c r="E149" s="3">
+        <v>44641</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>258</v>
+        <v>873</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>259</v>
+        <v>874</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>13</v>
-      </c>
       <c r="B150" s="1">
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>260</v>
+        <v>1118</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>261</v>
+        <v>1117</v>
+      </c>
+      <c r="E150" s="3">
+        <v>44656</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>262</v>
+        <v>1116</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>263</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
       <c r="B151" s="1">
         <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1062</v>
+        <v>237</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E151" s="3">
-        <v>45016</v>
+        <v>238</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44667</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1060</v>
+        <v>239</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1065</v>
+        <v>240</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>13</v>
-      </c>
       <c r="B152" s="1">
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>264</v>
+        <v>750</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>266</v>
+        <v>700</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44676</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>267</v>
+        <v>751</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>268</v>
+        <v>752</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -7033,16 +7356,19 @@
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>653</v>
+        <v>636</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="E153" s="2">
-        <v>45053</v>
+        <v>44684</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -7050,62 +7376,53 @@
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E154" s="3">
-        <v>45069</v>
+        <v>706</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44689</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1063</v>
+        <v>707</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>1066</v>
+        <v>708</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>13</v>
-      </c>
       <c r="B155" s="1">
         <v>154</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>270</v>
+        <v>640</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44704</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>244</v>
+        <v>641</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>271</v>
+        <v>642</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>13</v>
-      </c>
       <c r="B156" s="1">
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>273</v>
+        <v>643</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44710</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>244</v>
+        <v>644</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>274</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -7113,19 +7430,19 @@
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1068</v>
+        <v>643</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c r="E157" s="3">
-        <v>45082</v>
+        <v>44710</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1067</v>
+        <v>644</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>1069</v>
+        <v>645</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -7133,19 +7450,16 @@
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="E158" s="3">
-        <v>45190</v>
+        <v>810</v>
+      </c>
+      <c r="E158" s="2">
+        <v>44734</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>880</v>
+        <v>267</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>881</v>
+        <v>811</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -7153,19 +7467,19 @@
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>659</v>
+        <v>1055</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E159" s="2">
-        <v>45209</v>
+        <v>1054</v>
+      </c>
+      <c r="E159" s="3">
+        <v>44820</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>660</v>
+        <v>1053</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>661</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -7173,177 +7487,171 @@
         <v>159</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E160" s="2">
-        <v>45364</v>
+        <v>875</v>
+      </c>
+      <c r="E160" s="3">
+        <v>44840</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>663</v>
+        <v>876</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>13</v>
+      </c>
       <c r="B161" s="1">
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1072</v>
+        <v>241</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E161" s="3">
-        <v>45376</v>
+        <v>242</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1070</v>
+        <v>244</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>275</v>
-      </c>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>278</v>
+        <v>1057</v>
+      </c>
+      <c r="E162" s="3">
+        <v>44847</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>279</v>
+        <v>1056</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>13</v>
-      </c>
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>281</v>
+        <v>1201</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>283</v>
+        <v>650</v>
+      </c>
+      <c r="E163" s="3">
+        <v>44861</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>284</v>
+        <v>1200</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>13</v>
-      </c>
+        <v>1199</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>163</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>286</v>
+        <v>1122</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>287</v>
+        <v>1121</v>
+      </c>
+      <c r="E164" s="3">
+        <v>44868</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>288</v>
+        <v>1120</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="B165" s="1">
         <v>164</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>616</v>
+        <v>247</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>295</v>
-      </c>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>296</v>
+        <v>1206</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>298</v>
+        <v>1205</v>
+      </c>
+      <c r="E166" s="3">
+        <v>44895</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>299</v>
+        <v>1204</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1203</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>305</v>
+        <v>13</v>
       </c>
       <c r="B167" s="1">
         <v>166</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -7351,45 +7659,39 @@
         <v>167</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>13</v>
-      </c>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>317</v>
+        <v>1209</v>
+      </c>
+      <c r="E169" s="3">
+        <v>44966</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>318</v>
+        <v>1208</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -7397,114 +7699,99 @@
         <v>169</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>321</v>
+        <v>616</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>322</v>
+        <v>261</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>13</v>
-      </c>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>325</v>
+        <v>1062</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>326</v>
+        <v>1061</v>
+      </c>
+      <c r="E171" s="3">
+        <v>45016</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>327</v>
+        <v>1060</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="B172" s="1">
         <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>13</v>
-      </c>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>337</v>
+        <v>653</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45053</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>338</v>
+        <v>654</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>13</v>
-      </c>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>341</v>
+        <v>1064</v>
+      </c>
+      <c r="E174" s="3">
+        <v>45069</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>342</v>
+        <v>1063</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -7512,22 +7799,22 @@
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>345</v>
+        <v>252</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>346</v>
+        <v>270</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>347</v>
+        <v>244</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -7535,338 +7822,303 @@
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>350</v>
+        <v>616</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>351</v>
+        <v>273</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>352</v>
+        <v>244</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>13</v>
-      </c>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>354</v>
+        <v>1068</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>355</v>
+        <v>256</v>
+      </c>
+      <c r="E177" s="3">
+        <v>45082</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>356</v>
+        <v>1067</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>13</v>
-      </c>
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
       <c r="B178" s="1">
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>359</v>
+        <v>1211</v>
+      </c>
+      <c r="E178" s="3">
+        <v>45084</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>356</v>
+        <v>239</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
       <c r="B179" s="1">
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E179" s="2">
-        <v>44927</v>
+        <v>1213</v>
+      </c>
+      <c r="E179" s="3">
+        <v>45125</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1103</v>
+        <v>262</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
       <c r="B180" s="1">
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>649</v>
+        <v>1219</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E180" s="2">
-        <v>45049</v>
+        <v>824</v>
+      </c>
+      <c r="E180" s="3">
+        <v>45140</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>651</v>
+        <v>1218</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>361</v>
-      </c>
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
       <c r="B181" s="1">
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>362</v>
+        <v>1216</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>364</v>
+        <v>824</v>
+      </c>
+      <c r="E181" s="3">
+        <v>45159</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>365</v>
+        <v>1215</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>13</v>
-      </c>
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>367</v>
+        <v>878</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>368</v>
+        <v>879</v>
+      </c>
+      <c r="E182" s="3">
+        <v>45190</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>369</v>
+        <v>880</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>13</v>
-      </c>
+        <v>881</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>371</v>
+        <v>659</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>373</v>
+        <v>616</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45209</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>374</v>
+        <v>660</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>13</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
       <c r="B184" s="1">
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>377</v>
+        <v>1230</v>
+      </c>
+      <c r="E184" s="3">
+        <v>45215</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>378</v>
+        <v>1229</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>13</v>
-      </c>
+        <v>1228</v>
+      </c>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
       <c r="B185" s="1">
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>381</v>
+        <v>1227</v>
+      </c>
+      <c r="E185" s="3">
+        <v>45257</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>382</v>
+        <v>1226</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>13</v>
-      </c>
+        <v>1225</v>
+      </c>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
       <c r="B186" s="1">
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>384</v>
+        <v>1224</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>386</v>
+        <v>1071</v>
+      </c>
+      <c r="E186" s="3">
+        <v>45307</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>387</v>
+        <v>1196</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>13</v>
-      </c>
+        <v>1223</v>
+      </c>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
       <c r="B187" s="1">
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>391</v>
+        <v>1222</v>
+      </c>
+      <c r="E187" s="3">
+        <v>45357</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>392</v>
+        <v>1221</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>13</v>
-      </c>
+        <v>1220</v>
+      </c>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>395</v>
+        <v>662</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45364</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>396</v>
+        <v>663</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>13</v>
-      </c>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>398</v>
+        <v>1072</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>399</v>
+        <v>1071</v>
+      </c>
+      <c r="E189" s="3">
+        <v>45376</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>400</v>
+        <v>1070</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>13</v>
+        <v>275</v>
       </c>
       <c r="B190" s="1">
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>402</v>
+        <v>276</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>616</v>
+        <v>277</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>403</v>
+        <v>278</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>404</v>
+        <v>279</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -7874,22 +8126,22 @@
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>406</v>
+        <v>281</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>616</v>
+        <v>282</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>407</v>
+        <v>283</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>408</v>
+        <v>284</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -7897,137 +8149,132 @@
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>410</v>
+        <v>286</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>411</v>
+        <v>616</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>412</v>
+        <v>287</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>413</v>
+        <v>288</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="B193" s="1">
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>415</v>
+        <v>1157</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>359</v>
+        <v>1156</v>
+      </c>
+      <c r="E193" s="3">
+        <v>32509</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>417</v>
+        <v>1155</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>13</v>
-      </c>
+        <v>1154</v>
+      </c>
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>193</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>419</v>
+        <v>291</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>420</v>
+        <v>616</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>421</v>
+        <v>292</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>422</v>
+        <v>293</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>295</v>
       </c>
       <c r="B195" s="1">
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>424</v>
+        <v>296</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>425</v>
+        <v>297</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>426</v>
+        <v>298</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>13</v>
-      </c>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>429</v>
+        <v>1176</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>430</v>
+        <v>1175</v>
+      </c>
+      <c r="E196" s="3">
+        <v>33970</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1174</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>305</v>
       </c>
       <c r="B197" s="1">
         <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>433</v>
+        <v>306</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>616</v>
+        <v>307</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>434</v>
+        <v>308</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>408</v>
+        <v>309</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -8035,190 +8282,229 @@
         <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>436</v>
+        <v>311</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>437</v>
+        <v>312</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>438</v>
+        <v>313</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>404</v>
+        <v>314</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>13</v>
+      </c>
       <c r="B199" s="1">
         <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>895</v>
+        <v>316</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="E199" s="3">
-        <v>45069</v>
+        <v>616</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>896</v>
+        <v>318</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>13</v>
+      </c>
       <c r="B200" s="1">
         <v>199</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="E200" s="2">
-        <v>45132</v>
+        <v>320</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>657</v>
+        <v>323</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>13</v>
+      </c>
       <c r="B201" s="1">
         <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E201" s="3">
-        <v>45216</v>
+        <v>325</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1124</v>
+        <v>327</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>329</v>
+      </c>
       <c r="B202" s="1">
         <v>201</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E202" s="3">
-        <v>45349</v>
+        <v>330</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1127</v>
+        <v>333</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>440</v>
+        <v>13</v>
       </c>
       <c r="B203" s="1">
         <v>202</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>898</v>
+        <v>335</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="E203" s="3">
-        <v>33604</v>
+        <v>336</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>900</v>
+        <v>338</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>13</v>
+      </c>
       <c r="B204" s="1">
         <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>901</v>
+        <v>340</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="E204" s="3">
-        <v>35796</v>
+        <v>616</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>903</v>
+        <v>342</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
       <c r="B205" s="1">
         <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="E205" s="3">
-        <v>36161</v>
+        <v>344</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>905</v>
+        <v>347</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>13</v>
+      </c>
       <c r="B206" s="1">
         <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="E206" s="3">
-        <v>41275</v>
+        <v>349</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>907</v>
+        <v>352</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>13</v>
+      </c>
       <c r="B207" s="1">
         <v>206</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>442</v>
+        <v>616</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -8226,108 +8512,105 @@
         <v>207</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>616</v>
+        <v>43</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>447</v>
+        <v>359</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>448</v>
+        <v>356</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>449</v>
+        <v>360</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>13</v>
-      </c>
       <c r="B209" s="1">
         <v>208</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>450</v>
+        <v>1102</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>452</v>
+        <v>256</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44927</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>453</v>
+        <v>1103</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>454</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>13</v>
-      </c>
       <c r="B210" s="1">
         <v>209</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>455</v>
+        <v>649</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>457</v>
+        <v>650</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45049</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>458</v>
+        <v>651</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>459</v>
+        <v>652</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="B211" s="1">
         <v>210</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>460</v>
+        <v>362</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>461</v>
+        <v>363</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>462</v>
+        <v>364</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>464</v>
+        <v>366</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>13</v>
+      </c>
       <c r="B212" s="1">
         <v>211</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>908</v>
+        <v>367</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="E212" s="3">
-        <v>43515</v>
+        <v>616</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>910</v>
+        <v>369</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>915</v>
+        <v>370</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -8338,19 +8621,19 @@
         <v>212</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>465</v>
+        <v>371</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>616</v>
+        <v>372</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>466</v>
+        <v>373</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>467</v>
+        <v>374</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>468</v>
+        <v>375</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -8361,19 +8644,19 @@
         <v>213</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>469</v>
+        <v>376</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>470</v>
+        <v>616</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>471</v>
+        <v>377</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>473</v>
+        <v>379</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -8384,19 +8667,19 @@
         <v>214</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>474</v>
+        <v>380</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>477</v>
+        <v>383</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -8407,19 +8690,19 @@
         <v>215</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>478</v>
+        <v>384</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>616</v>
+        <v>385</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>480</v>
+        <v>387</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>481</v>
+        <v>388</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -8430,19 +8713,19 @@
         <v>216</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>482</v>
+        <v>389</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>483</v>
+        <v>390</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>230</v>
+        <v>391</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>484</v>
+        <v>392</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>485</v>
+        <v>393</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -8453,19 +8736,19 @@
         <v>217</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>486</v>
+        <v>394</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>487</v>
+        <v>616</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>488</v>
+        <v>395</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>489</v>
+        <v>396</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>490</v>
+        <v>397</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -8476,19 +8759,19 @@
         <v>218</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>491</v>
+        <v>398</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>487</v>
+        <v>616</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>492</v>
+        <v>399</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>493</v>
+        <v>400</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>494</v>
+        <v>401</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -8499,176 +8782,203 @@
         <v>219</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>495</v>
+        <v>402</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>496</v>
+        <v>616</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>498</v>
+        <v>404</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>499</v>
+        <v>405</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>624</v>
+        <v>13</v>
       </c>
       <c r="B221" s="1">
         <v>220</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E221" s="2">
-        <v>43572</v>
+        <v>406</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>697</v>
+        <v>408</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>698</v>
+        <v>409</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>13</v>
+      </c>
       <c r="B222" s="1">
         <v>221</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>779</v>
+        <v>410</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E222" s="2">
-        <v>43617</v>
+        <v>411</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>780</v>
+        <v>413</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>781</v>
+        <v>414</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>13</v>
+      </c>
       <c r="B223" s="1">
         <v>222</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>786</v>
+        <v>415</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="E223" s="2">
-        <v>43948</v>
+        <v>416</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>788</v>
+        <v>417</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>789</v>
+        <v>418</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>13</v>
+      </c>
       <c r="B224" s="1">
         <v>223</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>790</v>
+        <v>419</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E224" s="2">
-        <v>44158</v>
+        <v>420</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>791</v>
+        <v>422</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>792</v>
+        <v>423</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>13</v>
+      </c>
       <c r="B225" s="1">
         <v>224</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>793</v>
+        <v>424</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="E225" s="2">
-        <v>44188</v>
+        <v>425</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>795</v>
+        <v>427</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>796</v>
+        <v>428</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>13</v>
+      </c>
       <c r="B226" s="1">
         <v>225</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E226" s="2">
-        <v>44303</v>
+        <v>429</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>626</v>
+        <v>431</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>627</v>
+        <v>432</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>13</v>
+      </c>
       <c r="B227" s="1">
         <v>226</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>682</v>
+        <v>433</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E227" s="2">
-        <v>44420</v>
+        <v>616</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>683</v>
+        <v>408</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>684</v>
+        <v>435</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>13</v>
+      </c>
       <c r="B228" s="1">
         <v>227</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>632</v>
+        <v>436</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="E228" s="2">
-        <v>44636</v>
+        <v>437</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>634</v>
+        <v>404</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>635</v>
+        <v>439</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -8676,16 +8986,19 @@
         <v>228</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="E229" s="2">
-        <v>44781</v>
+        <v>895</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E229" s="3">
+        <v>45069</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>647</v>
+        <v>896</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>648</v>
+        <v>897</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -8693,42 +9006,33 @@
         <v>229</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>769</v>
+        <v>656</v>
       </c>
       <c r="E230" s="2">
-        <v>44913</v>
+        <v>45132</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>770</v>
+        <v>657</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>771</v>
+        <v>658</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>628</v>
-      </c>
       <c r="B231" s="1">
         <v>230</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E231" s="2">
-        <v>42219</v>
+        <v>1125</v>
+      </c>
+      <c r="E231" s="3">
+        <v>45216</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>718</v>
+        <v>1124</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>719</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -8736,39 +9040,39 @@
         <v>231</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>975</v>
+        <v>1128</v>
       </c>
       <c r="E232" s="3">
-        <v>42453</v>
+        <v>45349</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>974</v>
+        <v>1127</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>973</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>440</v>
+      </c>
       <c r="B233" s="1">
         <v>232</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>776</v>
+        <v>898</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E233" s="2">
-        <v>42914</v>
+        <v>899</v>
+      </c>
+      <c r="E233" s="3">
+        <v>33604</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>777</v>
+        <v>900</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>778</v>
+        <v>911</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -8776,19 +9080,19 @@
         <v>233</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>731</v>
+        <v>901</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E234" s="2">
-        <v>42978</v>
+        <v>902</v>
+      </c>
+      <c r="E234" s="3">
+        <v>35796</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>732</v>
+        <v>903</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>733</v>
+        <v>912</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -8796,16 +9100,16 @@
         <v>234</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="E235" s="3">
-        <v>43232</v>
+        <v>36161</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>342</v>
+        <v>905</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -8813,19 +9117,16 @@
         <v>235</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="E236" s="3">
-        <v>43348</v>
+        <v>41275</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -8833,393 +9134,432 @@
         <v>236</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>919</v>
+        <v>441</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="E237" s="3">
-        <v>43713</v>
+        <v>442</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>921</v>
+        <v>444</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>924</v>
+        <v>445</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>13</v>
+      </c>
       <c r="B238" s="1">
         <v>237</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1086</v>
+        <v>446</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E238" s="3">
-        <v>43779</v>
+        <v>616</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1085</v>
+        <v>448</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>1087</v>
+        <v>449</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>13</v>
+      </c>
       <c r="B239" s="1">
         <v>238</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>699</v>
+        <v>450</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E239" s="2">
-        <v>43926</v>
+        <v>451</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>701</v>
+        <v>453</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>702</v>
+        <v>454</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>13</v>
+      </c>
       <c r="B240" s="1">
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>679</v>
+        <v>455</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E240" s="2">
-        <v>44176</v>
+        <v>456</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>680</v>
+        <v>458</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>13</v>
+      </c>
       <c r="B241" s="1">
         <v>240</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="E241" s="2">
-        <v>43922</v>
+        <v>460</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>757</v>
+        <v>463</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>241</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>700</v>
+        <v>909</v>
       </c>
       <c r="E242" s="3">
-        <v>43943</v>
+        <v>43515</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>13</v>
+      </c>
       <c r="B243" s="1">
         <v>242</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>926</v>
+        <v>465</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E243" s="3">
-        <v>43951</v>
+        <v>616</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>927</v>
+        <v>467</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>13</v>
+      </c>
       <c r="B244" s="1">
         <v>243</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>928</v>
+        <v>469</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E244" s="3">
-        <v>43968</v>
+        <v>470</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>929</v>
+        <v>472</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>13</v>
+      </c>
       <c r="B245" s="1">
         <v>244</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>930</v>
+        <v>474</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E245" s="3">
-        <v>44110</v>
+        <v>616</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>931</v>
+        <v>476</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>13</v>
+      </c>
       <c r="B246" s="1">
         <v>245</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>797</v>
+        <v>478</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E246" s="2">
-        <v>44197</v>
+        <v>616</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>799</v>
+        <v>480</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>13</v>
+      </c>
       <c r="B247" s="1">
         <v>246</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>734</v>
+        <v>482</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="E247" s="2">
-        <v>44373</v>
+        <v>483</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>736</v>
+        <v>484</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>13</v>
+      </c>
       <c r="B248" s="1">
         <v>247</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>943</v>
+        <v>486</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="E248" s="3">
-        <v>44393</v>
+        <v>487</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>945</v>
+        <v>489</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>13</v>
+      </c>
       <c r="B249" s="1">
         <v>248</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>936</v>
+        <v>491</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="E249" s="3">
-        <v>44453</v>
+        <v>487</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>938</v>
+        <v>493</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>13</v>
+      </c>
       <c r="B250" s="1">
         <v>249</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>629</v>
+        <v>495</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E250" s="2">
-        <v>44544</v>
+        <v>496</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>630</v>
+        <v>498</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>624</v>
+      </c>
       <c r="B251" s="1">
         <v>250</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E251" s="3">
-        <v>44562</v>
+        <v>696</v>
+      </c>
+      <c r="E251" s="2">
+        <v>43572</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>940</v>
+        <v>697</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>251</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1090</v>
+        <v>779</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E252" s="3">
-        <v>44562</v>
+        <v>616</v>
+      </c>
+      <c r="E252" s="2">
+        <v>43617</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1088</v>
+        <v>780</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>252</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="E253" s="3">
-        <v>44589</v>
+        <v>786</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E253" s="2">
+        <v>43948</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>226</v>
+        <v>788</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>253</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1093</v>
+        <v>790</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="E254" s="3">
-        <v>44621</v>
+        <v>616</v>
+      </c>
+      <c r="E254" s="2">
+        <v>44158</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1092</v>
+        <v>791</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>254</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>947</v>
+        <v>793</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E255" s="3">
-        <v>44689</v>
+        <v>794</v>
+      </c>
+      <c r="E255" s="2">
+        <v>44188</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>948</v>
+        <v>795</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>255</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E256" s="3">
-        <v>44706</v>
+        <v>625</v>
+      </c>
+      <c r="E256" s="2">
+        <v>44303</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>757</v>
+        <v>626</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>954</v>
+        <v>627</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -9227,16 +9567,19 @@
         <v>256</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="E257" s="3">
-        <v>44706</v>
+        <v>682</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E257" s="2">
+        <v>44420</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>951</v>
+        <v>683</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>955</v>
+        <v>684</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -9244,19 +9587,19 @@
         <v>257</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>812</v>
+        <v>632</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>487</v>
+        <v>633</v>
       </c>
       <c r="E258" s="2">
-        <v>44750</v>
+        <v>44636</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>813</v>
+        <v>634</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>814</v>
+        <v>635</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -9264,16 +9607,16 @@
         <v>258</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>765</v>
+        <v>646</v>
       </c>
       <c r="E259" s="2">
-        <v>44760</v>
+        <v>44781</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>766</v>
+        <v>647</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>767</v>
+        <v>648</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -9281,39 +9624,42 @@
         <v>259</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1099</v>
+        <v>768</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E260" s="3">
-        <v>44909</v>
+        <v>769</v>
+      </c>
+      <c r="E260" s="2">
+        <v>44913</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1097</v>
+        <v>770</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>1100</v>
+        <v>771</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>628</v>
+      </c>
       <c r="B261" s="1">
         <v>260</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>970</v>
+        <v>717</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E261" s="3">
-        <v>44927</v>
+        <v>616</v>
+      </c>
+      <c r="E261" s="2">
+        <v>42219</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>971</v>
+        <v>718</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>972</v>
+        <v>719</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -9321,19 +9667,19 @@
         <v>261</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>815</v>
+        <v>976</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="E262" s="2">
-        <v>44957</v>
+        <v>975</v>
+      </c>
+      <c r="E262" s="3">
+        <v>42453</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>817</v>
+        <v>974</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>818</v>
+        <v>973</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -9341,19 +9687,19 @@
         <v>262</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>966</v>
+        <v>776</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="E263" s="3">
-        <v>44963</v>
+        <v>616</v>
+      </c>
+      <c r="E263" s="2">
+        <v>42914</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>968</v>
+        <v>777</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>969</v>
+        <v>778</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -9361,19 +9707,19 @@
         <v>263</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>819</v>
+        <v>731</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>820</v>
+        <v>616</v>
       </c>
       <c r="E264" s="2">
-        <v>45037</v>
+        <v>42978</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>821</v>
+        <v>732</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>822</v>
+        <v>733</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -9381,16 +9727,16 @@
         <v>264</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1096</v>
+        <v>916</v>
       </c>
       <c r="E265" s="3">
-        <v>45051</v>
+        <v>43232</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>1095</v>
+        <v>342</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>1101</v>
+        <v>922</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -9398,16 +9744,19 @@
         <v>265</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>960</v>
+        <v>917</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>918</v>
       </c>
       <c r="E266" s="3">
-        <v>45062</v>
+        <v>43348</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>961</v>
+        <v>920</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -9415,16 +9764,19 @@
         <v>266</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>962</v>
+        <v>919</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>862</v>
       </c>
       <c r="E267" s="3">
-        <v>45287</v>
+        <v>43713</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>963</v>
+        <v>921</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>965</v>
+        <v>924</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -9432,19 +9784,19 @@
         <v>267</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>823</v>
+        <v>1086</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="E268" s="2">
-        <v>45292</v>
+        <v>700</v>
+      </c>
+      <c r="E268" s="3">
+        <v>43779</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>825</v>
+        <v>1085</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>826</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -9452,19 +9804,19 @@
         <v>268</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>956</v>
+        <v>699</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="E269" s="3">
-        <v>45300</v>
+        <v>700</v>
+      </c>
+      <c r="E269" s="2">
+        <v>43926</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>958</v>
+        <v>701</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>959</v>
+        <v>702</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -9472,39 +9824,36 @@
         <v>269</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1131</v>
+        <v>679</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E270" s="3">
-        <v>45338</v>
+        <v>420</v>
+      </c>
+      <c r="E270" s="2">
+        <v>44176</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1130</v>
+        <v>680</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>1129</v>
+        <v>681</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>500</v>
-      </c>
       <c r="B271" s="1">
         <v>270</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>725</v>
+        <v>756</v>
       </c>
       <c r="E271" s="2">
-        <v>42552</v>
+        <v>43922</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -9512,528 +9861,1130 @@
         <v>271</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="E272" s="2">
-        <v>42661</v>
+        <v>925</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E272" s="3">
+        <v>43943</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>729</v>
+        <v>921</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <v>272</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>501</v>
+        <v>926</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>503</v>
+        <v>621</v>
+      </c>
+      <c r="E273" s="3">
+        <v>43951</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>504</v>
+        <v>927</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>13</v>
-      </c>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <v>273</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>506</v>
+        <v>928</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>507</v>
+        <v>700</v>
+      </c>
+      <c r="E274" s="3">
+        <v>43968</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>508</v>
+        <v>929</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>13</v>
-      </c>
+        <v>934</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <v>274</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>510</v>
+        <v>930</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>511</v>
+        <v>621</v>
+      </c>
+      <c r="E275" s="3">
+        <v>44110</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>512</v>
+        <v>931</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>13</v>
-      </c>
+        <v>935</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <v>275</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>514</v>
+        <v>797</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>516</v>
+        <v>798</v>
+      </c>
+      <c r="E276" s="2">
+        <v>44197</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>517</v>
+        <v>799</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>13</v>
-      </c>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>276</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>519</v>
+        <v>734</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>520</v>
+        <v>735</v>
+      </c>
+      <c r="E277" s="2">
+        <v>44373</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>521</v>
+        <v>736</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>13</v>
-      </c>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <v>277</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>523</v>
+        <v>943</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>524</v>
+        <v>944</v>
+      </c>
+      <c r="E278" s="3">
+        <v>44393</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>525</v>
+        <v>945</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>13</v>
-      </c>
+        <v>941</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <v>278</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>527</v>
+        <v>936</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>529</v>
+        <v>937</v>
+      </c>
+      <c r="E279" s="3">
+        <v>44453</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>508</v>
+        <v>938</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>13</v>
-      </c>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <v>279</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>531</v>
+        <v>629</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>533</v>
+        <v>616</v>
+      </c>
+      <c r="E280" s="2">
+        <v>44544</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>534</v>
+        <v>630</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <v>280</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>672</v>
+        <v>939</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="E281" s="2">
-        <v>44081</v>
+        <v>487</v>
+      </c>
+      <c r="E281" s="3">
+        <v>44562</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>674</v>
+        <v>940</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <v>281</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>676</v>
+        <v>1090</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E282" s="2">
-        <v>44106</v>
+        <v>1089</v>
+      </c>
+      <c r="E282" s="3">
+        <v>44562</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>677</v>
+        <v>1088</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <v>282</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E283" s="2">
-        <v>44179</v>
+        <v>946</v>
+      </c>
+      <c r="E283" s="3">
+        <v>44589</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>754</v>
+        <v>226</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>13</v>
-      </c>
+        <v>952</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" s="1">
         <v>283</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>540</v>
+        <v>1093</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>542</v>
+        <v>633</v>
+      </c>
+      <c r="E284" s="3">
+        <v>44621</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>543</v>
+        <v>1092</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <v>284</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>536</v>
+        <v>947</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>537</v>
+        <v>238</v>
+      </c>
+      <c r="E285" s="3">
+        <v>44689</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>538</v>
+        <v>948</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <v>285</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="E286" s="2">
-        <v>44481</v>
+        <v>949</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E286" s="3">
+        <v>44706</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>808</v>
+        <v>757</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>13</v>
-      </c>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <v>286</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>230</v>
+        <v>950</v>
+      </c>
+      <c r="E287" s="3">
+        <v>44706</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>547</v>
+        <v>951</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>549</v>
-      </c>
+        <v>955</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="1">
         <v>287</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>550</v>
+        <v>812</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>551</v>
+        <v>487</v>
+      </c>
+      <c r="E288" s="2">
+        <v>44750</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>552</v>
+        <v>813</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>553</v>
+        <v>814</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>13</v>
-      </c>
       <c r="B289" s="1">
         <v>288</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>555</v>
+        <v>765</v>
+      </c>
+      <c r="E289" s="2">
+        <v>44760</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>556</v>
+        <v>766</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>557</v>
+        <v>767</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>13</v>
-      </c>
       <c r="B290" s="1">
         <v>289</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>558</v>
+        <v>1099</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>559</v>
+        <v>1098</v>
+      </c>
+      <c r="E290" s="3">
+        <v>44909</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>560</v>
+        <v>1097</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>561</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>13</v>
-      </c>
       <c r="B291" s="1">
         <v>290</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>562</v>
+        <v>970</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>564</v>
+        <v>256</v>
+      </c>
+      <c r="E291" s="3">
+        <v>44927</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>565</v>
+        <v>971</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>566</v>
+        <v>972</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>13</v>
-      </c>
       <c r="B292" s="1">
         <v>291</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>567</v>
+        <v>815</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>568</v>
+        <v>816</v>
+      </c>
+      <c r="E292" s="2">
+        <v>44957</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>569</v>
+        <v>817</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>570</v>
+        <v>818</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>13</v>
-      </c>
       <c r="B293" s="1">
         <v>292</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>571</v>
+        <v>966</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>573</v>
+        <v>967</v>
+      </c>
+      <c r="E293" s="3">
+        <v>44963</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>574</v>
+        <v>968</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>575</v>
+        <v>969</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>13</v>
-      </c>
       <c r="B294" s="1">
         <v>293</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>576</v>
+        <v>819</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>578</v>
+        <v>820</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45037</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>579</v>
+        <v>821</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>580</v>
+        <v>822</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>13</v>
-      </c>
       <c r="B295" s="1">
         <v>294</v>
       </c>
       <c r="C295" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E295" s="3">
+        <v>45051</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B296" s="1">
+        <v>295</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="E296" s="3">
+        <v>45062</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B297" s="1">
+        <v>296</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="E297" s="3">
+        <v>45287</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B298" s="1">
+        <v>297</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45292</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B299" s="1">
+        <v>298</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="E299" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B300" s="1">
+        <v>299</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E300" s="3">
+        <v>45338</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>500</v>
+      </c>
+      <c r="B301" s="1">
+        <v>300</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E301" s="2">
+        <v>42552</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B302" s="1">
+        <v>301</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E302" s="2">
+        <v>42661</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B303" s="1">
+        <v>302</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>13</v>
+      </c>
+      <c r="B304" s="1">
+        <v>303</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>13</v>
+      </c>
+      <c r="B305" s="1">
+        <v>304</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>13</v>
+      </c>
+      <c r="B306" s="1">
+        <v>305</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>13</v>
+      </c>
+      <c r="B307" s="1">
+        <v>306</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>13</v>
+      </c>
+      <c r="B308" s="1">
+        <v>307</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>13</v>
+      </c>
+      <c r="B309" s="1">
+        <v>308</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>13</v>
+      </c>
+      <c r="B310" s="1">
+        <v>309</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B311" s="1">
+        <v>310</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E311" s="2">
+        <v>44081</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B312" s="1">
+        <v>311</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E312" s="2">
+        <v>44106</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B313" s="1">
+        <v>312</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E313" s="2">
+        <v>44179</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>13</v>
+      </c>
+      <c r="B314" s="1">
+        <v>313</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B315" s="1">
+        <v>314</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B316" s="1">
+        <v>315</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E316" s="2">
+        <v>44481</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>13</v>
+      </c>
+      <c r="B317" s="1">
+        <v>316</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>549</v>
+      </c>
+      <c r="B318" s="1">
+        <v>317</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>13</v>
+      </c>
+      <c r="B319" s="1">
+        <v>318</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>13</v>
+      </c>
+      <c r="B320" s="1">
+        <v>319</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>13</v>
+      </c>
+      <c r="B321" s="1">
+        <v>320</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>13</v>
+      </c>
+      <c r="B322" s="1">
+        <v>321</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>13</v>
+      </c>
+      <c r="B323" s="1">
+        <v>322</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>13</v>
+      </c>
+      <c r="B324" s="1">
+        <v>323</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>13</v>
+      </c>
+      <c r="B325" s="1">
+        <v>324</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="D325" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E295" s="1" t="s">
+      <c r="E325" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F295" s="1" t="s">
+      <c r="F325" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G295" s="1" t="s">
+      <c r="G325" s="1" t="s">
         <v>584</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="1">
+        <v>325</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E326" s="3">
+        <v>44927</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>1150</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A91 C287:G287 C68:G70 A68:A69 A74:A75 C82:D82 F82:G82 A14:A15 A31 C31 A88:A89 A100 C94 A107:A108 A287:A295 C107:G108 A112 C112:G112 C117 F117:G117 A156 C214:G214 A213:A216 A220 C127:G128 A134 A163:A178 C162:G163 C147:G149 A181:A193 C181:G181 C155:G155 A7 A10 A284 C274:G280 A275:A278 A280 A218 A1:G1 A2 A82:A85 C28:G28 A28 A195:A198 A271 C134:D134 F134:G134 A125 D144:G144 A71 A128 C14:G15 C7:G7 C10 E85 C22:G22 A22 A60:A63 C47:G47 A66 C65:G66 C91:G91 A152 A18 C18:G18 A208:A211 C207:G207 C293:G295 C292 E292:G292 C291:G291 C288:C290 E288:G290 C217:G220 C215:C216 E215:G216 C213 E213:G213 C209:G211 C208 E208:G208 C198:G198 C197 E197:G197 C192:G196 C188:C191 E188:G191 C186:G187 C184:C185 E184:G185 C183:G183 C182 E182:G182 C178:F178 C177 E177:G177 C175:G176 C174 E174:G174 C170:G173 C169 E169:G169 C166:G168 C164:C165 E164:G165 C156 E156:G156 C152:G152 C150 E150:G150 C109 E109:G109 C102 E102:G102 E94:G94 C88:C89 E88:G89 C83:C84 E83:G84 C74:C75 E74:G75 C71 E71:G71 C60:G61 C57 E57:G57 C63:G63 C62 E62:G62 C53:G56 C50:C52 E50:G52 E31:G31 C20 E20:G20 E10:G10 C58:G58 A50:A58 A47 E100:G100 C100 C125:G125 A144 A147:A150 A20" numberStoredAsText="1"/>
+    <ignoredError sqref="A103 C317:G317 C80:G82 A80:A81 A86:A87 C94:D94 F94:G94 A14:A15 A34 C34 A100:A101 A113 C106 A124 A317:A325 C124:G124 A128 C128:G128 C133 F133:G133 A176 C244:G244 A243:A246 A250 C144:G145 A151 A197:A208 C190:G191 C167:G168 A211:A223 C211:G211 C175:G175 A7 A10 A314 C304:G310 A305:A308 A310 A248 A1:G1 A2 A94:A97 C30:G30 A30 A225:A228 A301 C151:D151 F151:G151 A142 D161:G161 A83 A145 C14:G15 C7:G7 C10 E97 C23:G23 A23 A72:A75 C51:G51 A78 C77:G78 C103:G103 A172 A18 C18:G18 A238:A241 C237:G237 C323:G325 C322 E322:G322 C321:G321 C318:C320 E318:G320 C247:G250 C245:C246 E245:G246 C243 E243:G243 C239:G241 C238 E238:G238 C228:G228 C227 E227:G227 C222:G226 C218:C221 E218:G221 C216:G217 C214:C215 E214:G215 C213:G213 C212 E212:G212 C208:F208 C207 E207:G207 C205:G206 C204 E204:G204 C200:G203 C199 E199:G199 C197:G198 C192 E192:G192 C176 E176:G176 C172:G172 C170 E170:G170 C125 E125:G125 C116 E116:G116 E106:G106 C100:C101 E100:G101 C95:C96 E95:G96 C86:C87 E86:G87 C83 E83:G83 C72:G73 E64:G64 C75:G75 C74 E74:G74 C60:G63 C57:C59 E57:G59 E34:G34 C20 E20:G20 E10:G10 A57:A65 A51 E113:G113 C113 C142:G142 A161 A170 A20 A191:A193 C122:G122 A122 A165 C165:G165 A167:A168" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/paper_dataframe_markdown_backup.xlsx
+++ b/paper_dataframe_markdown_backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Desktop\awesome-ai-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5660CBD-C64C-459C-895F-EFC021712F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D738BA11-01BD-48AD-8D89-B359E957D95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1231">
   <si>
     <t>Theme</t>
   </si>
@@ -4134,7 +4134,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="4">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -4186,18 +4186,18 @@
   <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B326"/>
+      <selection activeCell="G326" sqref="A1:G326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.25" customWidth="1"/>
+    <col min="1" max="1" width="47.19921875" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>18</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>20</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>21</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>23</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>24</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>25</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>26</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>27</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>28</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>30</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>31</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>32</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>34</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>35</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>36</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>37</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>39</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>40</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>41</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>42</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>43</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>44</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>45</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>46</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>47</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>48</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>49</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>51</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>52</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>53</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>54</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>55</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
         <v>65</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>66</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>67</v>
       </c>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>68</v>
       </c>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>69</v>
       </c>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>70</v>
       </c>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -5739,116 +5739,116 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="B75" s="1">
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>118</v>
+        <v>833</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>59</v>
+        <v>834</v>
+      </c>
+      <c r="E75" s="3">
+        <v>37987</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>120</v>
+        <v>835</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>122</v>
-      </c>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>833</v>
+        <v>123</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="E76" s="3">
-        <v>37987</v>
+        <v>124</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>835</v>
+        <v>126</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
       <c r="B77" s="1">
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>13</v>
-      </c>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>128</v>
+        <v>837</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>130</v>
+        <v>838</v>
+      </c>
+      <c r="E78" s="3">
+        <v>40816</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>131</v>
+        <v>839</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
       <c r="B79" s="1">
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>837</v>
+        <v>133</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="E79" s="3">
-        <v>40816</v>
+        <v>134</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>839</v>
+        <v>136</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -5856,22 +5856,22 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -5879,22 +5879,22 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -5902,22 +5902,22 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>144</v>
+        <v>616</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -5925,42 +5925,42 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>149</v>
+        <v>585</v>
+      </c>
+      <c r="E83" s="2">
+        <v>42327</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>150</v>
+        <v>586</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>13</v>
-      </c>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B84" s="1">
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E84" s="2">
-        <v>42327</v>
+        <v>152</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>586</v>
+        <v>154</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
       <c r="B85" s="1">
         <v>84</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>152</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>724</v>
+        <v>616</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>153</v>
@@ -5980,7 +5980,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -5988,162 +5988,162 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>13</v>
-      </c>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B87" s="1">
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>156</v>
+        <v>588</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>157</v>
+        <v>589</v>
+      </c>
+      <c r="E87" s="2">
+        <v>42684</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>158</v>
+        <v>590</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B88" s="1">
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>588</v>
+        <v>738</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>589</v>
+        <v>739</v>
       </c>
       <c r="E88" s="2">
-        <v>42684</v>
+        <v>42688</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>590</v>
+        <v>740</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B89" s="1">
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>738</v>
+        <v>841</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="E89" s="2">
-        <v>42688</v>
+        <v>589</v>
+      </c>
+      <c r="E89" s="3">
+        <v>42680</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>740</v>
+        <v>842</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B90" s="1">
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E90" s="3">
-        <v>42680</v>
+        <v>42736</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" s="1">
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>844</v>
+        <v>592</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="E91" s="3">
-        <v>42736</v>
+      <c r="E91" s="2">
+        <v>42825</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>845</v>
+        <v>594</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B92" s="1">
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>593</v>
+        <v>689</v>
       </c>
       <c r="E92" s="2">
-        <v>42825</v>
+        <v>42839</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>594</v>
+        <v>690</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
       <c r="B93" s="1">
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>689</v>
+        <v>160</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="E93" s="2">
-        <v>42839</v>
+        <v>42854</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>690</v>
+        <v>162</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -6151,22 +6151,22 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E94" s="2">
-        <v>42854</v>
+        <v>616</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -6174,22 +6174,22 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -6197,85 +6197,85 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>13</v>
-      </c>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1">
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>172</v>
+        <v>831</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>173</v>
+        <v>461</v>
+      </c>
+      <c r="E97" s="2">
+        <v>43101</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>174</v>
+        <v>830</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1">
         <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>831</v>
+        <v>692</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>461</v>
+        <v>693</v>
       </c>
       <c r="E98" s="2">
-        <v>43101</v>
+        <v>43122</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>830</v>
+        <v>694</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
       <c r="B99" s="1">
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>692</v>
+        <v>176</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E99" s="2">
-        <v>43122</v>
+        <v>616</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>694</v>
+        <v>178</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -6283,65 +6283,62 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>13</v>
-      </c>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1">
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>181</v>
+        <v>602</v>
+      </c>
+      <c r="E101" s="2">
+        <v>43233</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>182</v>
+        <v>603</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
       <c r="B102" s="1">
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="E102" s="2">
-        <v>43233</v>
+        <v>184</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>603</v>
+        <v>187</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>13</v>
-      </c>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1">
         <v>102</v>
       </c>
@@ -6349,10 +6346,10 @@
         <v>184</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>186</v>
+        <v>847</v>
+      </c>
+      <c r="E103" s="3">
+        <v>43262</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>187</v>
@@ -6361,405 +6358,408 @@
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1">
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E104" s="3">
-        <v>43262</v>
+        <v>43329</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>187</v>
+        <v>849</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
       <c r="B105" s="1">
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="E105" s="3">
-        <v>43329</v>
+        <v>189</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>849</v>
+        <v>191</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>13</v>
-      </c>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1">
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>189</v>
+        <v>605</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>190</v>
+        <v>75</v>
+      </c>
+      <c r="E106" s="2">
+        <v>43466</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>191</v>
+        <v>606</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B107" s="1">
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>605</v>
+        <v>1020</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E107" s="2">
+        <v>1019</v>
+      </c>
+      <c r="E107" s="3">
         <v>43466</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>606</v>
+        <v>1018</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1">
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1020</v>
+        <v>742</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E108" s="3">
-        <v>43466</v>
+        <v>616</v>
+      </c>
+      <c r="E108" s="2">
+        <v>43496</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1018</v>
+        <v>226</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1">
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E109" s="2">
-        <v>43496</v>
+        <v>1184</v>
+      </c>
+      <c r="E109" s="3">
+        <v>43498</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>226</v>
+        <v>1183</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1182</v>
+      </c>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1">
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E110" s="3">
-        <v>43498</v>
+        <v>744</v>
+      </c>
+      <c r="E110" s="2">
+        <v>43576</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1183</v>
+        <v>745</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1">
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="E111" s="2">
-        <v>43576</v>
+        <v>851</v>
+      </c>
+      <c r="E111" s="3">
+        <v>43577</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>745</v>
+        <v>852</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
       <c r="B112" s="1">
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="E112" s="3">
-        <v>43577</v>
+        <v>193</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>852</v>
+        <v>195</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>13</v>
-      </c>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B113" s="1">
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>193</v>
+        <v>1187</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>194</v>
+        <v>390</v>
+      </c>
+      <c r="E113" s="3">
+        <v>43618</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>195</v>
+        <v>1186</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1">
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1187</v>
+        <v>1023</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>390</v>
+        <v>75</v>
       </c>
       <c r="E114" s="3">
-        <v>43618</v>
+        <v>43622</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1186</v>
+        <v>1022</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
       <c r="B115" s="1">
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1023</v>
+        <v>197</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E115" s="3">
-        <v>43622</v>
+        <v>616</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1022</v>
+        <v>199</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>13</v>
-      </c>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1">
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>198</v>
+        <v>854</v>
+      </c>
+      <c r="E116" s="3">
+        <v>43689</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>199</v>
+        <v>855</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1">
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="E117" s="3">
-        <v>43689</v>
+        <v>612</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E117" s="2">
+        <v>43697</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>855</v>
+        <v>614</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1">
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>613</v>
+        <v>827</v>
       </c>
       <c r="E118" s="2">
-        <v>43697</v>
+        <v>43699</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>614</v>
+        <v>828</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1">
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>827</v>
+        <v>79</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="E119" s="2">
-        <v>43699</v>
+        <v>43704</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>828</v>
+        <v>82</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
       <c r="B120" s="1">
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>79</v>
+        <v>1191</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E120" s="2">
-        <v>43704</v>
+        <v>1190</v>
+      </c>
+      <c r="E120" s="3">
+        <v>43715</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>82</v>
+        <v>1189</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
+        <v>1188</v>
+      </c>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>13</v>
+      </c>
       <c r="B121" s="1">
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1191</v>
+        <v>201</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E121" s="3">
-        <v>43715</v>
+        <v>202</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1189</v>
+        <v>204</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>13</v>
-      </c>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
       <c r="B122" s="1">
         <v>121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>203</v>
+        <v>1194</v>
+      </c>
+      <c r="E122" s="3">
+        <v>43747</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>204</v>
+        <v>1193</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
+        <v>1192</v>
+      </c>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
       <c r="B123" s="1">
         <v>122</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E123" s="3">
-        <v>43747</v>
+        <v>206</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1193</v>
+        <v>209</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -6767,405 +6767,405 @@
         <v>123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>207</v>
+        <v>616</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>13</v>
-      </c>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B125" s="1">
         <v>124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>211</v>
+        <v>1026</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>212</v>
+        <v>700</v>
+      </c>
+      <c r="E125" s="3">
+        <v>43769</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>213</v>
+        <v>1025</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1">
         <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E126" s="3">
-        <v>43769</v>
+        <v>617</v>
+      </c>
+      <c r="E126" s="2">
+        <v>43775</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1025</v>
+        <v>618</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
       <c r="B127" s="1">
         <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="E127" s="2">
-        <v>43775</v>
+        <v>215</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>618</v>
+        <v>218</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>13</v>
-      </c>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1">
         <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>215</v>
+        <v>857</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>217</v>
+        <v>858</v>
+      </c>
+      <c r="E128" s="3">
+        <v>43831</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>218</v>
+        <v>859</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B129" s="1">
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>857</v>
+        <v>782</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="E129" s="3">
-        <v>43831</v>
+        <v>783</v>
+      </c>
+      <c r="E129" s="2">
+        <v>43894</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>859</v>
+        <v>784</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B130" s="1">
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>782</v>
+        <v>861</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="E130" s="2">
-        <v>43894</v>
+        <v>862</v>
+      </c>
+      <c r="E130" s="3">
+        <v>43913</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>784</v>
+        <v>863</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B131" s="1">
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>861</v>
+        <v>620</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="E131" s="3">
-        <v>43913</v>
+        <v>621</v>
+      </c>
+      <c r="E131" s="2">
+        <v>43931</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>863</v>
+        <v>622</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
       <c r="B132" s="1">
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>620</v>
+        <v>220</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E132" s="2">
-        <v>43931</v>
+        <v>43938</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>622</v>
+        <v>221</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>13</v>
-      </c>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B133" s="1">
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>220</v>
+        <v>865</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E133" s="2">
-        <v>43938</v>
+        <v>700</v>
+      </c>
+      <c r="E133" s="3">
+        <v>43954</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>221</v>
+        <v>866</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B134" s="1">
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>865</v>
+        <v>1030</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>700</v>
+        <v>1029</v>
       </c>
       <c r="E134" s="3">
-        <v>43954</v>
+        <v>44112</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>866</v>
+        <v>1028</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B135" s="1">
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1030</v>
+        <v>868</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1029</v>
+        <v>621</v>
       </c>
       <c r="E135" s="3">
-        <v>44112</v>
+        <v>44141</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1028</v>
+        <v>869</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B136" s="1">
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>868</v>
+        <v>1034</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>621</v>
+        <v>1033</v>
       </c>
       <c r="E136" s="3">
-        <v>44141</v>
+        <v>44184</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>869</v>
+        <v>1032</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B137" s="1">
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="E137" s="3">
-        <v>44184</v>
+        <v>44197</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B138" s="1">
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E138" s="3">
-        <v>44197</v>
+        <v>801</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44306</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1036</v>
+        <v>802</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B139" s="1">
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="E139" s="2">
-        <v>44306</v>
+        <v>1197</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E139" s="3">
+        <v>44323</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>802</v>
+        <v>1196</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B140" s="1">
         <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1197</v>
+        <v>1041</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>794</v>
       </c>
       <c r="E140" s="3">
-        <v>44323</v>
+        <v>44350</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1196</v>
+        <v>1040</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>13</v>
+      </c>
       <c r="B141" s="1">
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1041</v>
+        <v>223</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="E141" s="3">
-        <v>44350</v>
+        <v>224</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1040</v>
+        <v>226</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>13</v>
-      </c>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B142" s="1">
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>225</v>
+        <v>1044</v>
+      </c>
+      <c r="E142" s="3">
+        <v>44518</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>226</v>
+        <v>1043</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>13</v>
+      </c>
       <c r="B143" s="1">
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E143" s="3">
-        <v>44518</v>
+        <v>228</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1043</v>
+        <v>231</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -7173,249 +7173,246 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>230</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>13</v>
-      </c>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B145" s="1">
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>230</v>
+        <v>762</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44631</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>235</v>
+        <v>763</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B146" s="1">
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="E146" s="2">
-        <v>44631</v>
+        <v>1047</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E146" s="3">
+        <v>44633</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>763</v>
+        <v>1046</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B147" s="1">
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>633</v>
+        <v>1050</v>
       </c>
       <c r="E147" s="3">
-        <v>44633</v>
+        <v>44665</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B148" s="1">
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1051</v>
+        <v>871</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1050</v>
+        <v>872</v>
       </c>
       <c r="E148" s="3">
-        <v>44665</v>
+        <v>44641</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1049</v>
+        <v>873</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B149" s="1">
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>871</v>
+        <v>1118</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>872</v>
+        <v>1117</v>
       </c>
       <c r="E149" s="3">
-        <v>44641</v>
+        <v>44656</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>873</v>
+        <v>1116</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
       <c r="B150" s="1">
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1118</v>
+        <v>237</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E150" s="3">
-        <v>44656</v>
+        <v>238</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44667</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1116</v>
+        <v>239</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>13</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B151" s="1">
         <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>237</v>
+        <v>750</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>238</v>
+        <v>700</v>
       </c>
       <c r="E151" s="2">
-        <v>44667</v>
+        <v>44676</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>239</v>
+        <v>751</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B152" s="1">
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>750</v>
+        <v>636</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>700</v>
+        <v>637</v>
       </c>
       <c r="E152" s="2">
-        <v>44676</v>
+        <v>44684</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>751</v>
+        <v>638</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B153" s="1">
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>636</v>
+        <v>706</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>637</v>
+        <v>238</v>
       </c>
       <c r="E153" s="2">
-        <v>44684</v>
+        <v>44689</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>638</v>
+        <v>707</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B154" s="1">
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>238</v>
+        <v>640</v>
       </c>
       <c r="E154" s="2">
-        <v>44689</v>
+        <v>44704</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>707</v>
+        <v>641</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B155" s="1">
         <v>154</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="E155" s="2">
-        <v>44704</v>
+        <v>44710</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B156" s="1">
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="E156" s="2">
+      <c r="D156" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E156" s="3">
         <v>44710</v>
       </c>
       <c r="F156" s="1" t="s">
@@ -7425,210 +7422,213 @@
         <v>645</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B157" s="1">
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E157" s="3">
-        <v>44710</v>
+        <v>810</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44734</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>644</v>
+        <v>267</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B158" s="1">
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="E158" s="2">
-        <v>44734</v>
+        <v>1055</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E158" s="3">
+        <v>44820</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>267</v>
+        <v>1053</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B159" s="1">
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>1054</v>
+        <v>875</v>
       </c>
       <c r="E159" s="3">
-        <v>44820</v>
+        <v>44840</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1053</v>
+        <v>876</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>13</v>
+      </c>
       <c r="B160" s="1">
         <v>159</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="E160" s="3">
-        <v>44840</v>
+        <v>241</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>876</v>
+        <v>244</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>13</v>
-      </c>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B161" s="1">
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>243</v>
+        <v>1057</v>
+      </c>
+      <c r="E161" s="3">
+        <v>44847</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>244</v>
+        <v>1056</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B162" s="1">
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1057</v>
+        <v>1201</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="E162" s="3">
-        <v>44847</v>
+        <v>44861</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1056</v>
+        <v>1200</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1199</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B163" s="1">
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1201</v>
+        <v>1122</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>650</v>
+        <v>1121</v>
       </c>
       <c r="E163" s="3">
-        <v>44861</v>
+        <v>44868</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
       <c r="B164" s="1">
         <v>163</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1122</v>
+        <v>246</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E164" s="3">
-        <v>44868</v>
+        <v>247</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1120</v>
+        <v>249</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>13</v>
-      </c>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B165" s="1">
         <v>164</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>246</v>
+        <v>1206</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>248</v>
+        <v>1205</v>
+      </c>
+      <c r="E165" s="3">
+        <v>44895</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>249</v>
+        <v>1204</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1203</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
       <c r="B166" s="1">
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1206</v>
+        <v>251</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E166" s="3">
-        <v>44895</v>
+        <v>252</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>1204</v>
+        <v>239</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -7636,162 +7636,162 @@
         <v>166</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>13</v>
-      </c>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B168" s="1">
         <v>167</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>257</v>
+        <v>1209</v>
+      </c>
+      <c r="E168" s="3">
+        <v>44966</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>258</v>
+        <v>1208</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
       <c r="B169" s="1">
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E169" s="3">
-        <v>44966</v>
+        <v>260</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1208</v>
+        <v>262</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>13</v>
-      </c>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B170" s="1">
         <v>169</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>260</v>
+        <v>1062</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>261</v>
+        <v>1061</v>
+      </c>
+      <c r="E170" s="3">
+        <v>45016</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>262</v>
+        <v>1060</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
       <c r="B171" s="1">
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1062</v>
+        <v>264</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E171" s="3">
-        <v>45016</v>
+        <v>265</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1060</v>
+        <v>267</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>13</v>
-      </c>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B172" s="1">
         <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>266</v>
+        <v>653</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45053</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>267</v>
+        <v>654</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B173" s="1">
         <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E173" s="2">
-        <v>45053</v>
+        <v>1064</v>
+      </c>
+      <c r="E173" s="3">
+        <v>45069</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>654</v>
+        <v>1063</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
       <c r="B174" s="1">
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E174" s="3">
-        <v>45069</v>
+        <v>269</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1063</v>
+        <v>244</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -7799,326 +7799,326 @@
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>252</v>
+        <v>616</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>244</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>13</v>
-      </c>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B176" s="1">
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>272</v>
+        <v>1068</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>273</v>
+        <v>256</v>
+      </c>
+      <c r="E176" s="3">
+        <v>45082</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>244</v>
+        <v>1067</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="1"/>
       <c r="B177" s="1">
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>256</v>
+        <v>1211</v>
       </c>
       <c r="E177" s="3">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1067</v>
+        <v>239</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1">
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="E178" s="3">
-        <v>45084</v>
+        <v>45125</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1">
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1213</v>
+        <v>1219</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="E179" s="3">
-        <v>45125</v>
+        <v>45140</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>262</v>
+        <v>1218</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1">
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>824</v>
       </c>
       <c r="E180" s="3">
-        <v>45140</v>
+        <v>45159</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B181" s="1">
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1216</v>
+        <v>878</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>824</v>
+        <v>879</v>
       </c>
       <c r="E181" s="3">
-        <v>45159</v>
+        <v>45190</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>1215</v>
+        <v>880</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B182" s="1">
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>878</v>
+        <v>659</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="E182" s="3">
-        <v>45190</v>
+        <v>616</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45209</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>880</v>
+        <v>660</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="1"/>
       <c r="B183" s="1">
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E183" s="2">
-        <v>45209</v>
+        <v>1230</v>
+      </c>
+      <c r="E183" s="3">
+        <v>45215</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>660</v>
+        <v>1229</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1228</v>
+      </c>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1">
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="E184" s="3">
-        <v>45215</v>
+        <v>45257</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1">
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>1071</v>
       </c>
       <c r="E185" s="3">
-        <v>45257</v>
+        <v>45307</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1226</v>
+        <v>1196</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1">
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>1071</v>
+        <v>1222</v>
       </c>
       <c r="E186" s="3">
-        <v>45307</v>
+        <v>45357</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1196</v>
+        <v>1221</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B187" s="1">
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E187" s="3">
-        <v>45357</v>
+        <v>662</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45364</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1221</v>
+        <v>663</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B188" s="1">
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E188" s="2">
-        <v>45364</v>
+        <v>1072</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E188" s="3">
+        <v>45376</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>663</v>
+        <v>1070</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>275</v>
+      </c>
       <c r="B189" s="1">
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1072</v>
+        <v>276</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E189" s="3">
-        <v>45376</v>
+        <v>277</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1070</v>
+        <v>279</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="B190" s="1">
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -8126,155 +8126,155 @@
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>282</v>
+        <v>616</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="B192" s="1">
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>286</v>
+        <v>1157</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>287</v>
+        <v>1156</v>
+      </c>
+      <c r="E192" s="3">
+        <v>32509</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>288</v>
+        <v>1155</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>290</v>
-      </c>
+        <v>1154</v>
+      </c>
+      <c r="H192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B193" s="1">
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1157</v>
+        <v>291</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E193" s="3">
-        <v>32509</v>
+        <v>616</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1155</v>
+        <v>293</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="H193" s="1"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>295</v>
+      </c>
       <c r="B194" s="1">
         <v>193</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>616</v>
+        <v>297</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>295</v>
-      </c>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B195" s="1">
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>296</v>
+        <v>1176</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>298</v>
+        <v>1175</v>
+      </c>
+      <c r="E195" s="3">
+        <v>33970</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1174</v>
+      </c>
+      <c r="G195" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>305</v>
+      </c>
       <c r="B196" s="1">
         <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1176</v>
+        <v>306</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E196" s="3">
-        <v>33970</v>
+        <v>307</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G196" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>305</v>
+        <v>13</v>
       </c>
       <c r="B197" s="1">
         <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -8282,22 +8282,22 @@
         <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>312</v>
+        <v>616</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -8305,22 +8305,22 @@
         <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>616</v>
+        <v>321</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -8328,68 +8328,68 @@
         <v>199</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="B201" s="1">
         <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>119</v>
+        <v>331</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="B202" s="1">
         <v>201</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -8397,22 +8397,22 @@
         <v>202</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>336</v>
+        <v>616</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -8420,22 +8420,22 @@
         <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>616</v>
+        <v>345</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -8443,22 +8443,22 @@
         <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -8466,22 +8466,22 @@
         <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>350</v>
+        <v>616</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -8489,108 +8489,108 @@
         <v>206</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>616</v>
+        <v>43</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>356</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>13</v>
-      </c>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B208" s="1">
         <v>207</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>358</v>
+        <v>1102</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>359</v>
+        <v>256</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44927</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>356</v>
+        <v>1103</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B209" s="1">
         <v>208</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1102</v>
+        <v>649</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>256</v>
+        <v>650</v>
       </c>
       <c r="E209" s="2">
-        <v>44927</v>
+        <v>45049</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1103</v>
+        <v>651</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>361</v>
+      </c>
       <c r="B210" s="1">
         <v>209</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>649</v>
+        <v>362</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E210" s="2">
-        <v>45049</v>
+        <v>363</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>651</v>
+        <v>365</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>361</v>
+        <v>13</v>
       </c>
       <c r="B211" s="1">
         <v>210</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>363</v>
+        <v>616</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -8598,22 +8598,22 @@
         <v>211</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>616</v>
+        <v>372</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -8621,22 +8621,22 @@
         <v>212</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>372</v>
+        <v>616</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -8644,22 +8644,22 @@
         <v>213</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -8667,22 +8667,22 @@
         <v>214</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>616</v>
+        <v>385</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -8690,22 +8690,22 @@
         <v>215</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -8713,22 +8713,22 @@
         <v>216</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>390</v>
+        <v>616</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -8736,22 +8736,22 @@
         <v>217</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -8759,22 +8759,22 @@
         <v>218</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -8782,22 +8782,22 @@
         <v>219</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>616</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -8805,22 +8805,22 @@
         <v>220</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>616</v>
+        <v>411</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -8828,22 +8828,22 @@
         <v>221</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>13</v>
       </c>
@@ -8851,22 +8851,22 @@
         <v>222</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -8874,22 +8874,22 @@
         <v>223</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>13</v>
       </c>
@@ -8897,22 +8897,22 @@
         <v>224</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>425</v>
+        <v>119</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -8920,22 +8920,22 @@
         <v>225</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>119</v>
+        <v>616</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -8943,213 +8943,213 @@
         <v>226</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>616</v>
+        <v>437</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>13</v>
-      </c>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B228" s="1">
         <v>227</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>436</v>
+        <v>895</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>438</v>
+        <v>824</v>
+      </c>
+      <c r="E228" s="3">
+        <v>45069</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>404</v>
+        <v>896</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B229" s="1">
         <v>228</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="E229" s="3">
-        <v>45069</v>
+        <v>656</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45132</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>896</v>
+        <v>657</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B230" s="1">
         <v>229</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="E230" s="2">
-        <v>45132</v>
+        <v>1125</v>
+      </c>
+      <c r="E230" s="3">
+        <v>45216</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>657</v>
+        <v>1124</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B231" s="1">
         <v>230</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="E231" s="3">
-        <v>45216</v>
+        <v>45349</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>440</v>
+      </c>
       <c r="B232" s="1">
         <v>231</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1128</v>
+        <v>898</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>899</v>
       </c>
       <c r="E232" s="3">
-        <v>45349</v>
+        <v>33604</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>1127</v>
+        <v>900</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>440</v>
-      </c>
+        <v>911</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B233" s="1">
         <v>232</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="E233" s="3">
-        <v>33604</v>
+        <v>35796</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B234" s="1">
         <v>233</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E234" s="3">
-        <v>35796</v>
+        <v>36161</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B235" s="1">
         <v>234</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="E235" s="3">
-        <v>36161</v>
+        <v>41275</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B236" s="1">
         <v>235</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="E236" s="3">
-        <v>41275</v>
+        <v>441</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>907</v>
+        <v>444</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>13</v>
+      </c>
       <c r="B237" s="1">
         <v>236</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>442</v>
+        <v>616</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -9157,22 +9157,22 @@
         <v>237</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>616</v>
+        <v>451</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -9180,22 +9180,22 @@
         <v>238</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -9203,65 +9203,65 @@
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>13</v>
-      </c>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B241" s="1">
         <v>240</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>460</v>
+        <v>908</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>462</v>
+        <v>909</v>
+      </c>
+      <c r="E241" s="3">
+        <v>43515</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>463</v>
+        <v>910</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>13</v>
+      </c>
       <c r="B242" s="1">
         <v>241</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>908</v>
+        <v>465</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="E242" s="3">
-        <v>43515</v>
+        <v>616</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>910</v>
+        <v>467</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -9269,45 +9269,42 @@
         <v>242</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>616</v>
+        <v>470</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>13</v>
-      </c>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B244" s="1">
         <v>243</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>469</v>
+        <v>118</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>470</v>
+        <v>119</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>471</v>
+        <v>59</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>472</v>
+        <v>120</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -9330,7 +9327,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>13</v>
       </c>
@@ -9353,7 +9350,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -9376,7 +9373,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>13</v>
       </c>
@@ -9399,7 +9396,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -9422,7 +9419,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -9445,7 +9442,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>624</v>
       </c>
@@ -9465,7 +9462,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B252" s="1">
         <v>251</v>
       </c>
@@ -9485,7 +9482,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B253" s="1">
         <v>252</v>
       </c>
@@ -9505,7 +9502,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B254" s="1">
         <v>253</v>
       </c>
@@ -9525,7 +9522,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B255" s="1">
         <v>254</v>
       </c>
@@ -9545,7 +9542,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B256" s="1">
         <v>255</v>
       </c>
@@ -9562,7 +9559,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B257" s="1">
         <v>256</v>
       </c>
@@ -9582,7 +9579,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B258" s="1">
         <v>257</v>
       </c>
@@ -9602,7 +9599,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B259" s="1">
         <v>258</v>
       </c>
@@ -9619,7 +9616,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B260" s="1">
         <v>259</v>
       </c>
@@ -9639,7 +9636,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>628</v>
       </c>
@@ -9662,7 +9659,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B262" s="1">
         <v>261</v>
       </c>
@@ -9682,7 +9679,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B263" s="1">
         <v>262</v>
       </c>
@@ -9702,7 +9699,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B264" s="1">
         <v>263</v>
       </c>
@@ -9722,7 +9719,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B265" s="1">
         <v>264</v>
       </c>
@@ -9739,7 +9736,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B266" s="1">
         <v>265</v>
       </c>
@@ -9759,7 +9756,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B267" s="1">
         <v>266</v>
       </c>
@@ -9779,7 +9776,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B268" s="1">
         <v>267</v>
       </c>
@@ -9799,7 +9796,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B269" s="1">
         <v>268</v>
       </c>
@@ -9819,7 +9816,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B270" s="1">
         <v>269</v>
       </c>
@@ -9839,7 +9836,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B271" s="1">
         <v>270</v>
       </c>
@@ -9856,7 +9853,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B272" s="1">
         <v>271</v>
       </c>
@@ -9876,7 +9873,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B273" s="1">
         <v>272</v>
       </c>
@@ -9896,7 +9893,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B274" s="1">
         <v>273</v>
       </c>
@@ -9916,7 +9913,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B275" s="1">
         <v>274</v>
       </c>
@@ -9936,7 +9933,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B276" s="1">
         <v>275</v>
       </c>
@@ -9956,7 +9953,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B277" s="1">
         <v>276</v>
       </c>
@@ -9976,7 +9973,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B278" s="1">
         <v>277</v>
       </c>
@@ -9996,7 +9993,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B279" s="1">
         <v>278</v>
       </c>
@@ -10016,7 +10013,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B280" s="1">
         <v>279</v>
       </c>
@@ -10036,7 +10033,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B281" s="1">
         <v>280</v>
       </c>
@@ -10056,7 +10053,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B282" s="1">
         <v>281</v>
       </c>
@@ -10076,7 +10073,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B283" s="1">
         <v>282</v>
       </c>
@@ -10093,7 +10090,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B284" s="1">
         <v>283</v>
       </c>
@@ -10113,7 +10110,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B285" s="1">
         <v>284</v>
       </c>
@@ -10133,7 +10130,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B286" s="1">
         <v>285</v>
       </c>
@@ -10153,7 +10150,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B287" s="1">
         <v>286</v>
       </c>
@@ -10170,7 +10167,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B288" s="1">
         <v>287</v>
       </c>
@@ -10190,7 +10187,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B289" s="1">
         <v>288</v>
       </c>
@@ -10207,7 +10204,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B290" s="1">
         <v>289</v>
       </c>
@@ -10227,7 +10224,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B291" s="1">
         <v>290</v>
       </c>
@@ -10247,7 +10244,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B292" s="1">
         <v>291</v>
       </c>
@@ -10267,7 +10264,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B293" s="1">
         <v>292</v>
       </c>
@@ -10287,7 +10284,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B294" s="1">
         <v>293</v>
       </c>
@@ -10307,7 +10304,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B295" s="1">
         <v>294</v>
       </c>
@@ -10324,7 +10321,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B296" s="1">
         <v>295</v>
       </c>
@@ -10341,7 +10338,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B297" s="1">
         <v>296</v>
       </c>
@@ -10358,7 +10355,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B298" s="1">
         <v>297</v>
       </c>
@@ -10378,7 +10375,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B299" s="1">
         <v>298</v>
       </c>
@@ -10398,7 +10395,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B300" s="1">
         <v>299</v>
       </c>
@@ -10418,7 +10415,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>500</v>
       </c>
@@ -10438,7 +10435,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B302" s="1">
         <v>301</v>
       </c>
@@ -10455,7 +10452,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B303" s="1">
         <v>302</v>
       </c>
@@ -10475,7 +10472,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>13</v>
       </c>
@@ -10498,7 +10495,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>13</v>
       </c>
@@ -10521,7 +10518,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -10544,7 +10541,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>13</v>
       </c>
@@ -10567,7 +10564,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>13</v>
       </c>
@@ -10590,7 +10587,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>13</v>
       </c>
@@ -10613,7 +10610,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>13</v>
       </c>
@@ -10636,7 +10633,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B311" s="1">
         <v>310</v>
       </c>
@@ -10656,7 +10653,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B312" s="1">
         <v>311</v>
       </c>
@@ -10676,7 +10673,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B313" s="1">
         <v>312</v>
       </c>
@@ -10693,7 +10690,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>13</v>
       </c>
@@ -10716,7 +10713,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B315" s="1">
         <v>314</v>
       </c>
@@ -10736,7 +10733,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B316" s="1">
         <v>315</v>
       </c>
@@ -10753,7 +10750,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>13</v>
       </c>
@@ -10776,7 +10773,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>549</v>
       </c>
@@ -10799,7 +10796,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>13</v>
       </c>
@@ -10822,7 +10819,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>13</v>
       </c>
@@ -10845,7 +10842,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>13</v>
       </c>
@@ -10868,7 +10865,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>13</v>
       </c>
@@ -10891,7 +10888,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>13</v>
       </c>
@@ -10914,7 +10911,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>13</v>
       </c>
@@ -10937,7 +10934,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>13</v>
       </c>
@@ -10960,7 +10957,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="326" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B326" s="1">
         <v>325</v>
       </c>
@@ -10984,7 +10981,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A103 C317:G317 C80:G82 A80:A81 A86:A87 C94:D94 F94:G94 A14:A15 A34 C34 A100:A101 A113 C106 A124 A317:A325 C124:G124 A128 C128:G128 C133 F133:G133 A176 C244:G244 A243:A246 A250 C144:G145 A151 A197:A208 C190:G191 C167:G168 A211:A223 C211:G211 C175:G175 A7 A10 A314 C304:G310 A305:A308 A310 A248 A1:G1 A2 A94:A97 C30:G30 A30 A225:A228 A301 C151:D151 F151:G151 A142 D161:G161 A83 A145 C14:G15 C7:G7 C10 E97 C23:G23 A23 A72:A75 C51:G51 A78 C77:G78 C103:G103 A172 A18 C18:G18 A238:A241 C237:G237 C323:G325 C322 E322:G322 C321:G321 C318:C320 E318:G320 C247:G250 C245:C246 E245:G246 C243 E243:G243 C239:G241 C238 E238:G238 C228:G228 C227 E227:G227 C222:G226 C218:C221 E218:G221 C216:G217 C214:C215 E214:G215 C213:G213 C212 E212:G212 C208:F208 C207 E207:G207 C205:G206 C204 E204:G204 C200:G203 C199 E199:G199 C197:G198 C192 E192:G192 C176 E176:G176 C172:G172 C170 E170:G170 C125 E125:G125 C116 E116:G116 E106:G106 C100:C101 E100:G101 C95:C96 E95:G96 C86:C87 E86:G87 C83 E83:G83 C72:G73 E64:G64 C75:G75 C74 E74:G74 C60:G63 C57:C59 E57:G59 E34:G34 C20 E20:G20 E10:G10 A57:A65 A51 E113:G113 C113 C142:G142 A161 A170 A20 A191:A193 C122:G122 A122 A165 C165:G165 A167:A168" numberStoredAsText="1"/>
+    <ignoredError sqref="A102 C317:G317 C79:G81 A79:A80 A85:A86 C93:D93 F93:G93 A14:A15 A34 C34 A99:A100 A112 C105 A123 A317:A325 C123:G123 A127 C127:G127 C132 F132:G132 A175 C243:G243 A242 A250 C143:G144 A150 A196:A207 C189:G190 C166:G167 A210:A222 C210:G210 C174:G174 A7 A10 A314 C304:G310 A305:A308 A310 A248 A1:G1 A2 A93:A96 C30:G30 A30 A224:A227 A301 C150:D150 F150:G150 A141 D160:G160 A82 A144 C14:G15 C7:G7 C10 E96 C23:G23 A23 A72:A74 C51:G51 A77 C76:G77 C102:G102 A171 A18 C18:G18 A237:A240 C236:G236 C323:G325 C322 E322:G322 C321:G321 C318:C320 E318:G320 C247:G250 C245:C246 E245:G246 C242 E242:G242 C238:G240 C237 E237:G237 C227:G227 C226 E226:G226 C221:G225 C217:C220 E217:G220 C215:G216 C213:C214 E213:G214 C212:G212 C211 E211:G211 C207:F207 C206 E206:G206 C204:G205 C203 E203:G203 C199:G202 C198 E198:G198 C196:G197 C191 E191:G191 C175 E175:G175 C171:G171 C169 E169:G169 C124 E124:G124 C115 E115:G115 E105:G105 C99:C100 E99:G100 C94:C95 E94:G95 C85:C86 E85:G86 C82 E82:G82 C72:G73 E64:G64 C74 E74:G74 C60:G63 C57:C59 E57:G59 E34:G34 C20 E20:G20 E10:G10 A57:A65 A51 E112:G112 C112 C141:G141 A160 A169 A20 A190:A192 C121:G121 A121 A164 C164:G164 A166:A167 A245:A246" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>